--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T781"/>
+  <dimension ref="A1:T786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N767" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O767" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P767" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -61804,16 +61804,16 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N768" t="n">
-        <v>292000</v>
+        <v>130000</v>
       </c>
       <c r="O768" t="n">
-        <v>292000</v>
+        <v>130000</v>
       </c>
       <c r="P768" t="n">
-        <v>292000</v>
+        <v>130000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>649</v>
+        <v>289</v>
       </c>
       <c r="T768" t="n">
         <v>450</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -61880,24 +61880,24 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="N769" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O769" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P769" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>633</v>
+        <v>400</v>
       </c>
       <c r="T769" t="n">
         <v>15</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -61960,24 +61960,24 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N770" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O770" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P770" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>800</v>
+        <v>267</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -62035,41 +62035,41 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="N771" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O771" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="P771" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1200</v>
+        <v>1875</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62120,33 +62120,33 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>445</v>
+        <v>200</v>
       </c>
       <c r="N772" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O772" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P772" t="n">
-        <v>16792</v>
+        <v>10000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1119</v>
+        <v>667</v>
       </c>
       <c r="T772" t="n">
         <v>15</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62204,20 +62204,20 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="N773" t="n">
-        <v>9000</v>
+        <v>292000</v>
       </c>
       <c r="O773" t="n">
-        <v>9000</v>
+        <v>292000</v>
       </c>
       <c r="P773" t="n">
-        <v>9000</v>
+        <v>292000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="T773" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62284,20 +62284,20 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="N774" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O774" t="n">
-        <v>157500</v>
+        <v>10000</v>
       </c>
       <c r="P774" t="n">
-        <v>153750</v>
+        <v>9500</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>342</v>
+        <v>633</v>
       </c>
       <c r="T774" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62360,24 +62360,24 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N775" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O775" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P775" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T775" t="n">
         <v>15</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="N776" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O776" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P776" t="n">
-        <v>6556</v>
+        <v>18000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>437</v>
+        <v>1200</v>
       </c>
       <c r="T776" t="n">
         <v>15</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>310</v>
+        <v>445</v>
       </c>
       <c r="N777" t="n">
-        <v>4000</v>
+        <v>16500</v>
       </c>
       <c r="O777" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P777" t="n">
-        <v>4000</v>
+        <v>16792</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>267</v>
+        <v>1119</v>
       </c>
       <c r="T777" t="n">
         <v>15</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N778" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O778" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P778" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62675,41 +62675,41 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N779" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="O779" t="n">
-        <v>50000</v>
+        <v>157500</v>
       </c>
       <c r="P779" t="n">
-        <v>50000</v>
+        <v>153750</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>2083</v>
+        <v>342</v>
       </c>
       <c r="T779" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62764,20 +62764,20 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="N780" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P780" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62844,31 +62844,431 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N781" t="n">
         <v>6000</v>
       </c>
       <c r="O781" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P781" t="n">
+        <v>6556</v>
+      </c>
+      <c r="Q781" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R781" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S781" t="n">
+        <v>437</v>
+      </c>
+      <c r="T781" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>10</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D782" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E782" t="n">
+        <v>9</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M782" t="n">
+        <v>310</v>
+      </c>
+      <c r="N782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P782" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
+        <v>267</v>
+      </c>
+      <c r="T782" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>10</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D783" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E783" t="n">
+        <v>9</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M783" t="n">
+        <v>185</v>
+      </c>
+      <c r="N783" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O783" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P783" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q783" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R783" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S783" t="n">
+        <v>333</v>
+      </c>
+      <c r="T783" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>10</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D784" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E784" t="n">
+        <v>9</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I784" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M784" t="n">
+        <v>25</v>
+      </c>
+      <c r="N784" t="n">
+        <v>50000</v>
+      </c>
+      <c r="O784" t="n">
+        <v>50000</v>
+      </c>
+      <c r="P784" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Q784" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R784" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S784" t="n">
+        <v>2083</v>
+      </c>
+      <c r="T784" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>10</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D785" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E785" t="n">
+        <v>9</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I785" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M785" t="n">
+        <v>215</v>
+      </c>
+      <c r="N785" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O785" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P785" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q785" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R785" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S785" t="n">
+        <v>533</v>
+      </c>
+      <c r="T785" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>10</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D786" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E786" t="n">
+        <v>9</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I786" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M786" t="n">
+        <v>180</v>
+      </c>
+      <c r="N786" t="n">
         <v>6000</v>
       </c>
-      <c r="P781" t="n">
+      <c r="O786" t="n">
         <v>6000</v>
       </c>
-      <c r="Q781" t="inlineStr">
+      <c r="P786" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q786" t="inlineStr">
         <is>
           <t>$/bandeja 15 kilos</t>
         </is>
       </c>
-      <c r="R781" t="inlineStr">
+      <c r="R786" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S781" t="n">
+      <c r="S786" t="n">
         <v>400</v>
       </c>
-      <c r="T781" t="n">
+      <c r="T786" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T786"/>
+  <dimension ref="A1:T790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -56524,16 +56524,16 @@
         </is>
       </c>
       <c r="M702" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N702" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O702" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P702" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T702" t="n">
         <v>15</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -56607,13 +56607,13 @@
         <v>10</v>
       </c>
       <c r="N703" t="n">
-        <v>315000</v>
+        <v>130000</v>
       </c>
       <c r="O703" t="n">
-        <v>315000</v>
+        <v>130000</v>
       </c>
       <c r="P703" t="n">
-        <v>315000</v>
+        <v>130000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>700</v>
+        <v>289</v>
       </c>
       <c r="T703" t="n">
         <v>450</v>
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -56680,24 +56680,24 @@
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N704" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O704" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P704" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
@@ -56706,10 +56706,10 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>778</v>
+        <v>267</v>
       </c>
       <c r="T704" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="705">
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -56760,24 +56760,24 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="N705" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O705" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P705" t="n">
-        <v>8532</v>
+        <v>10000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="T705" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706">
@@ -56840,24 +56840,24 @@
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="N706" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="O706" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="P706" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T706" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="707">
@@ -56915,41 +56915,41 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N707" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="O707" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="P707" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S707" t="n">
-        <v>1667</v>
+        <v>700</v>
       </c>
       <c r="T707" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="708">
@@ -56995,41 +56995,41 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="N708" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O708" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P708" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1667</v>
+        <v>778</v>
       </c>
       <c r="T708" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -57084,20 +57084,20 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="N709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O709" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P709" t="n">
-        <v>6556</v>
+        <v>8532</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>437</v>
+        <v>569</v>
       </c>
       <c r="T709" t="n">
         <v>15</v>
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -57160,20 +57160,20 @@
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N710" t="n">
-        <v>135000</v>
+        <v>247500</v>
       </c>
       <c r="O710" t="n">
-        <v>135000</v>
+        <v>247500</v>
       </c>
       <c r="P710" t="n">
-        <v>135000</v>
+        <v>247500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T710" t="n">
         <v>450</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -57235,41 +57235,41 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M711" t="n">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="N711" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="O711" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="P711" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="T711" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -57315,41 +57315,41 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="N712" t="n">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="O712" t="n">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="P712" t="n">
-        <v>5405</v>
+        <v>40000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>360</v>
+        <v>1667</v>
       </c>
       <c r="T712" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="713">
@@ -57400,24 +57400,24 @@
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N713" t="n">
-        <v>112500</v>
+        <v>6000</v>
       </c>
       <c r="O713" t="n">
-        <v>112500</v>
+        <v>7000</v>
       </c>
       <c r="P713" t="n">
-        <v>112500</v>
+        <v>6556</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
@@ -57426,10 +57426,10 @@
         </is>
       </c>
       <c r="S713" t="n">
-        <v>250</v>
+        <v>437</v>
       </c>
       <c r="T713" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="714">
@@ -57480,24 +57480,24 @@
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="N714" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O714" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P714" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
@@ -57506,10 +57506,10 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="T714" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="715">
@@ -57560,20 +57560,20 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N715" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O715" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P715" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T715" t="n">
         <v>18</v>
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -57640,24 +57640,24 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="N716" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O716" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="P716" t="n">
-        <v>20543</v>
+        <v>5405</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1370</v>
+        <v>360</v>
       </c>
       <c r="T716" t="n">
         <v>15</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -57720,24 +57720,24 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="N717" t="n">
-        <v>23500</v>
+        <v>112500</v>
       </c>
       <c r="O717" t="n">
-        <v>23500</v>
+        <v>112500</v>
       </c>
       <c r="P717" t="n">
-        <v>23500</v>
+        <v>112500</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
@@ -57746,10 +57746,10 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1306</v>
+        <v>250</v>
       </c>
       <c r="T717" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -57800,24 +57800,24 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="N718" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O718" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P718" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T718" t="n">
         <v>15</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -57880,36 +57880,36 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="N719" t="n">
-        <v>140000</v>
+        <v>10000</v>
       </c>
       <c r="O719" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P719" t="n">
-        <v>144286</v>
+        <v>10000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="T719" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="720">
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -57960,24 +57960,24 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>125</v>
+        <v>460</v>
       </c>
       <c r="N720" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O720" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="P720" t="n">
-        <v>5000</v>
+        <v>20543</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R720" t="inlineStr">
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>333</v>
+        <v>1370</v>
       </c>
       <c r="T720" t="n">
         <v>15</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -58040,24 +58040,24 @@
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N721" t="n">
-        <v>4000</v>
+        <v>23500</v>
       </c>
       <c r="O721" t="n">
-        <v>4000</v>
+        <v>23500</v>
       </c>
       <c r="P721" t="n">
-        <v>4000</v>
+        <v>23500</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
@@ -58066,10 +58066,10 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>267</v>
+        <v>1306</v>
       </c>
       <c r="T721" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="722">
@@ -58120,24 +58120,24 @@
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N722" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O722" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P722" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T722" t="n">
         <v>15</v>
@@ -58195,7 +58195,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -58204,20 +58204,20 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N723" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="O723" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="P723" t="n">
-        <v>30000</v>
+        <v>144286</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
@@ -58226,10 +58226,10 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>1667</v>
+        <v>321</v>
       </c>
       <c r="T723" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="724">
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -58284,20 +58284,20 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="N724" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>7203</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
@@ -58306,7 +58306,7 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>480</v>
+        <v>333</v>
       </c>
       <c r="T724" t="n">
         <v>15</v>
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E725" t="n">
         <v>9</v>
@@ -58360,24 +58360,24 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="N725" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O725" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P725" t="n">
-        <v>5475</v>
+        <v>4000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>365</v>
+        <v>267</v>
       </c>
       <c r="T725" t="n">
         <v>15</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N726" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O726" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P726" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>267</v>
+        <v>200</v>
       </c>
       <c r="T726" t="n">
         <v>15</v>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,32 +58524,32 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>1910</v>
+        <v>15</v>
       </c>
       <c r="N727" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="O727" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="P727" t="n">
-        <v>6209</v>
+        <v>30000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>414</v>
+        <v>1667</v>
       </c>
       <c r="T727" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="728">
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -58604,20 +58604,20 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="N728" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="O728" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P728" t="n">
-        <v>134348</v>
+        <v>7203</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
@@ -58626,10 +58626,10 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>299</v>
+        <v>480</v>
       </c>
       <c r="T728" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -58684,20 +58684,20 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>1100</v>
+        <v>295</v>
       </c>
       <c r="N729" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O729" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P729" t="n">
-        <v>8000</v>
+        <v>5475</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
@@ -58706,10 +58706,10 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="T729" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -58764,20 +58764,20 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="N730" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O730" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P730" t="n">
-        <v>5114</v>
+        <v>4000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="T730" t="n">
         <v>15</v>
@@ -58840,24 +58840,24 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>5</v>
+        <v>1910</v>
       </c>
       <c r="N731" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O731" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P731" t="n">
-        <v>100000</v>
+        <v>6209</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
@@ -58866,10 +58866,10 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="T731" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -58920,24 +58920,24 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>560</v>
+        <v>46</v>
       </c>
       <c r="N732" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="O732" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="P732" t="n">
-        <v>8000</v>
+        <v>134348</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
@@ -58946,10 +58946,10 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>533</v>
+        <v>299</v>
       </c>
       <c r="T732" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="733">
@@ -59000,11 +59000,11 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="N733" t="n">
         <v>8000</v>
@@ -59075,41 +59075,41 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N734" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="O734" t="n">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="P734" t="n">
-        <v>31458</v>
+        <v>5114</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>1748</v>
+        <v>341</v>
       </c>
       <c r="T734" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="735">
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -59160,24 +59160,24 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
@@ -59186,10 +59186,10 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>1000</v>
+        <v>222</v>
       </c>
       <c r="T735" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="736">
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="N736" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O736" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="P736" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="T736" t="n">
         <v>15</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E737" t="n">
         <v>9</v>
@@ -59320,24 +59320,24 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N737" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O737" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P737" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R737" t="inlineStr">
@@ -59346,10 +59346,10 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>1067</v>
+        <v>444</v>
       </c>
       <c r="T737" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="738">
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E738" t="n">
         <v>9</v>
@@ -59395,25 +59395,25 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N738" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O738" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="P738" t="n">
-        <v>21000</v>
+        <v>31458</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>1167</v>
+        <v>1748</v>
       </c>
       <c r="T738" t="n">
         <v>18</v>
@@ -59480,33 +59480,33 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N739" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O739" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P739" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T739" t="n">
         <v>15</v>
@@ -59560,36 +59560,36 @@
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N740" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O740" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="P740" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="T740" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741">
@@ -59635,41 +59635,41 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N741" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O741" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P741" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1111</v>
+        <v>1067</v>
       </c>
       <c r="T741" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -59720,36 +59720,36 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="N742" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O742" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P742" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T742" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N743" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="O743" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P743" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>889</v>
+        <v>933</v>
       </c>
       <c r="T743" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -59880,36 +59880,36 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="N744" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O744" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P744" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T744" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -59955,41 +59955,41 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="N745" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O745" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P745" t="n">
-        <v>12315</v>
+        <v>20000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>821</v>
+        <v>1111</v>
       </c>
       <c r="T745" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="746">
@@ -60040,20 +60040,20 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="N746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P746" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60066,7 +60066,7 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T746" t="n">
         <v>15</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -60124,20 +60124,20 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="N747" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O747" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P747" t="n">
-        <v>7457</v>
+        <v>16000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
@@ -60146,10 +60146,10 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>497</v>
+        <v>889</v>
       </c>
       <c r="T747" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="N748" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O748" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P748" t="n">
-        <v>7410</v>
+        <v>12000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>494</v>
+        <v>800</v>
       </c>
       <c r="T748" t="n">
         <v>15</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -60280,24 +60280,24 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="N749" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O749" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P749" t="n">
-        <v>5000</v>
+        <v>12315</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>333</v>
+        <v>821</v>
       </c>
       <c r="T749" t="n">
         <v>15</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -60364,20 +60364,20 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="N750" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O750" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P750" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="T750" t="n">
         <v>15</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="N751" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O751" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="P751" t="n">
-        <v>19231</v>
+        <v>7457</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1282</v>
+        <v>497</v>
       </c>
       <c r="T751" t="n">
         <v>15</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -60524,20 +60524,20 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="N752" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O752" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P752" t="n">
-        <v>17000</v>
+        <v>7410</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>944</v>
+        <v>494</v>
       </c>
       <c r="T752" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N753" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="O753" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="P753" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60622,11 +60622,11 @@
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1267</v>
+        <v>333</v>
       </c>
       <c r="T753" t="n">
         <v>15</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -60680,24 +60680,24 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N754" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O754" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P754" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,10 +60706,10 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T754" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755">
@@ -60755,41 +60755,41 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="N755" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O755" t="n">
-        <v>27000</v>
+        <v>19500</v>
       </c>
       <c r="P755" t="n">
-        <v>27000</v>
+        <v>19231</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1125</v>
+        <v>1282</v>
       </c>
       <c r="T755" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -60844,32 +60844,32 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="N756" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O756" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P756" t="n">
-        <v>6694</v>
+        <v>17000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>446</v>
+        <v>944</v>
       </c>
       <c r="T756" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N757" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O757" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P757" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de Valparaíso</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>533</v>
+        <v>1267</v>
       </c>
       <c r="T757" t="n">
         <v>15</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -60995,41 +60995,41 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N758" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="O758" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="P758" t="n">
-        <v>50000</v>
+        <v>17000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>2083</v>
+        <v>944</v>
       </c>
       <c r="T758" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -61075,41 +61075,41 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N759" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="O759" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P759" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1333</v>
+        <v>1125</v>
       </c>
       <c r="T759" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -61160,33 +61160,33 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N760" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O760" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P760" t="n">
-        <v>20000</v>
+        <v>6694</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1333</v>
+        <v>446</v>
       </c>
       <c r="T760" t="n">
         <v>15</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -61235,41 +61235,41 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N761" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O761" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P761" t="n">
-        <v>19400</v>
+        <v>8000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de Valparaíso</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1078</v>
+        <v>533</v>
       </c>
       <c r="T761" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -61315,41 +61315,41 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="N762" t="n">
-        <v>16500</v>
+        <v>50000</v>
       </c>
       <c r="O762" t="n">
-        <v>17000</v>
+        <v>50000</v>
       </c>
       <c r="P762" t="n">
-        <v>16814</v>
+        <v>50000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1121</v>
+        <v>2083</v>
       </c>
       <c r="T762" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N763" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O763" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P763" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="T763" t="n">
         <v>15</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -61480,36 +61480,36 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N764" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O764" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P764" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T764" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -61555,38 +61555,38 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N765" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O765" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P765" t="n">
-        <v>22000</v>
+        <v>19400</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1222</v>
+        <v>1078</v>
       </c>
       <c r="T765" t="n">
         <v>18</v>
@@ -61635,41 +61635,41 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="N766" t="n">
-        <v>29000</v>
+        <v>16500</v>
       </c>
       <c r="O766" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="P766" t="n">
-        <v>29000</v>
+        <v>16814</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1208</v>
+        <v>1121</v>
       </c>
       <c r="T766" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -61720,20 +61720,20 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="N767" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P767" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="N768" t="n">
-        <v>130000</v>
+        <v>18000</v>
       </c>
       <c r="O768" t="n">
-        <v>130000</v>
+        <v>18000</v>
       </c>
       <c r="P768" t="n">
-        <v>130000</v>
+        <v>18000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>289</v>
+        <v>1000</v>
       </c>
       <c r="T768" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -61880,36 +61880,36 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="N769" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O769" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P769" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>400</v>
+        <v>1222</v>
       </c>
       <c r="T769" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -61955,41 +61955,41 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="N770" t="n">
-        <v>4000</v>
+        <v>29000</v>
       </c>
       <c r="O770" t="n">
-        <v>4000</v>
+        <v>29000</v>
       </c>
       <c r="P770" t="n">
-        <v>4000</v>
+        <v>29000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>267</v>
+        <v>1208</v>
       </c>
       <c r="T770" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="771">
@@ -62035,41 +62035,41 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N771" t="n">
-        <v>45000</v>
+        <v>7000</v>
       </c>
       <c r="O771" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="P771" t="n">
-        <v>45000</v>
+        <v>7500</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1875</v>
+        <v>500</v>
       </c>
       <c r="T771" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62124,20 +62124,20 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N772" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O772" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="P772" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
@@ -62146,10 +62146,10 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>667</v>
+        <v>289</v>
       </c>
       <c r="T772" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62200,24 +62200,24 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="N773" t="n">
-        <v>292000</v>
+        <v>6000</v>
       </c>
       <c r="O773" t="n">
-        <v>292000</v>
+        <v>6000</v>
       </c>
       <c r="P773" t="n">
-        <v>292000</v>
+        <v>6000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>649</v>
+        <v>400</v>
       </c>
       <c r="T773" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N774" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O774" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P774" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>633</v>
+        <v>267</v>
       </c>
       <c r="T774" t="n">
         <v>15</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62355,41 +62355,41 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M775" t="n">
         <v>50</v>
       </c>
       <c r="N775" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="O775" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="P775" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>800</v>
+        <v>1875</v>
       </c>
       <c r="T775" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="N776" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O776" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P776" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T776" t="n">
         <v>15</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62520,36 +62520,36 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="N777" t="n">
-        <v>16500</v>
+        <v>292000</v>
       </c>
       <c r="O777" t="n">
-        <v>17000</v>
+        <v>292000</v>
       </c>
       <c r="P777" t="n">
-        <v>16792</v>
+        <v>292000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1119</v>
+        <v>649</v>
       </c>
       <c r="T777" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62604,20 +62604,20 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N778" t="n">
         <v>9000</v>
       </c>
       <c r="O778" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P778" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62680,24 +62680,24 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N779" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O779" t="n">
-        <v>157500</v>
+        <v>12000</v>
       </c>
       <c r="P779" t="n">
-        <v>153750</v>
+        <v>12000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="T779" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62760,24 +62760,24 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="N780" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O780" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P780" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62840,33 +62840,33 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N781" t="n">
-        <v>6000</v>
+        <v>16500</v>
       </c>
       <c r="O781" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P781" t="n">
-        <v>6556</v>
+        <v>16792</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>437</v>
+        <v>1119</v>
       </c>
       <c r="T781" t="n">
         <v>15</v>
@@ -62920,24 +62920,24 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N782" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O782" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P782" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>267</v>
+        <v>600</v>
       </c>
       <c r="T782" t="n">
         <v>15</v>
@@ -63000,24 +63000,24 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="N783" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O783" t="n">
-        <v>5000</v>
+        <v>157500</v>
       </c>
       <c r="P783" t="n">
-        <v>5000</v>
+        <v>153750</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="784">
@@ -63075,41 +63075,41 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="N784" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="O784" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="P784" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>2083</v>
+        <v>333</v>
       </c>
       <c r="T784" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="N785" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O785" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P785" t="n">
-        <v>8000</v>
+        <v>6556</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="T785" t="n">
         <v>15</v>
@@ -63207,68 +63207,388 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E786" t="n">
+        <v>9</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I786" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M786" t="n">
+        <v>310</v>
+      </c>
+      <c r="N786" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O786" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P786" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q786" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R786" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S786" t="n">
+        <v>267</v>
+      </c>
+      <c r="T786" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>10</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D787" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E787" t="n">
+        <v>9</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I787" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M787" t="n">
+        <v>185</v>
+      </c>
+      <c r="N787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P787" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q787" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R787" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S787" t="n">
+        <v>333</v>
+      </c>
+      <c r="T787" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>10</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D788" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E788" t="n">
+        <v>9</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M788" t="n">
+        <v>25</v>
+      </c>
+      <c r="N788" t="n">
+        <v>50000</v>
+      </c>
+      <c r="O788" t="n">
+        <v>50000</v>
+      </c>
+      <c r="P788" t="n">
+        <v>50000</v>
+      </c>
+      <c r="Q788" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R788" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S788" t="n">
+        <v>2083</v>
+      </c>
+      <c r="T788" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>10</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D789" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E786" t="n">
-        <v>9</v>
-      </c>
-      <c r="F786" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G786" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I786" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J786" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L786" t="inlineStr">
+      <c r="E789" t="n">
+        <v>9</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M789" t="n">
+        <v>215</v>
+      </c>
+      <c r="N789" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>533</v>
+      </c>
+      <c r="T789" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>10</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D790" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E790" t="n">
+        <v>9</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L790" t="inlineStr">
         <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M786" t="n">
+      <c r="M790" t="n">
         <v>180</v>
       </c>
-      <c r="N786" t="n">
+      <c r="N790" t="n">
         <v>6000</v>
       </c>
-      <c r="O786" t="n">
+      <c r="O790" t="n">
         <v>6000</v>
       </c>
-      <c r="P786" t="n">
+      <c r="P790" t="n">
         <v>6000</v>
       </c>
-      <c r="Q786" t="inlineStr">
+      <c r="Q790" t="inlineStr">
         <is>
           <t>$/bandeja 15 kilos</t>
         </is>
       </c>
-      <c r="R786" t="inlineStr">
+      <c r="R790" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S786" t="n">
+      <c r="S790" t="n">
         <v>400</v>
       </c>
-      <c r="T786" t="n">
+      <c r="T790" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T811"/>
+  <dimension ref="A1:T814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -60684,20 +60684,20 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N754" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O754" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P754" t="n">
-        <v>10000</v>
+        <v>6625</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>667</v>
+        <v>442</v>
       </c>
       <c r="T754" t="n">
         <v>15</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -60760,20 +60760,20 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="N755" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O755" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="P755" t="n">
-        <v>10189</v>
+        <v>5000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>679</v>
+        <v>333</v>
       </c>
       <c r="T755" t="n">
         <v>15</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -60840,24 +60840,24 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N756" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O756" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P756" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="T756" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="757">
@@ -60920,20 +60920,20 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="N757" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O757" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P757" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T757" t="n">
         <v>15</v>
@@ -61000,24 +61000,24 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="N758" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O758" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P758" t="n">
-        <v>8000</v>
+        <v>10189</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>533</v>
+        <v>679</v>
       </c>
       <c r="T758" t="n">
         <v>15</v>
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N759" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O759" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P759" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T759" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="760">
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N760" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O760" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P760" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T760" t="n">
         <v>15</v>
@@ -61235,41 +61235,41 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="N761" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="O761" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="P761" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1250</v>
+        <v>533</v>
       </c>
       <c r="T761" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N762" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O762" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P762" t="n">
-        <v>23433</v>
+        <v>8000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1562</v>
+        <v>533</v>
       </c>
       <c r="T762" t="n">
         <v>15</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="N763" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O763" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P763" t="n">
-        <v>21670</v>
+        <v>8000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1445</v>
+        <v>533</v>
       </c>
       <c r="T763" t="n">
         <v>15</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -61475,41 +61475,41 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N764" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="O764" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="P764" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="T764" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="765">
@@ -61560,33 +61560,33 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="N765" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O765" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P765" t="n">
-        <v>20000</v>
+        <v>23433</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1333</v>
+        <v>1562</v>
       </c>
       <c r="T765" t="n">
         <v>15</v>
@@ -61635,41 +61635,41 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="N766" t="n">
         <v>21000</v>
       </c>
       <c r="O766" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P766" t="n">
-        <v>21000</v>
+        <v>21670</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1167</v>
+        <v>1445</v>
       </c>
       <c r="T766" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767">
@@ -61715,41 +61715,41 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="N767" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="O767" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="P767" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1458</v>
+        <v>1400</v>
       </c>
       <c r="T767" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N768" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O768" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P768" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>778</v>
+        <v>1333</v>
       </c>
       <c r="T768" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N769" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="O769" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P769" t="n">
-        <v>8777</v>
+        <v>21000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>585</v>
+        <v>1167</v>
       </c>
       <c r="T769" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -61955,41 +61955,41 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N770" t="n">
-        <v>85000</v>
+        <v>35000</v>
       </c>
       <c r="O770" t="n">
-        <v>85000</v>
+        <v>35000</v>
       </c>
       <c r="P770" t="n">
-        <v>85000</v>
+        <v>35000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>189</v>
+        <v>1458</v>
       </c>
       <c r="T770" t="n">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -62040,24 +62040,24 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="N771" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O771" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P771" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
@@ -62066,10 +62066,10 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>333</v>
+        <v>778</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62115,41 +62115,41 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="N772" t="n">
-        <v>45000</v>
+        <v>8500</v>
       </c>
       <c r="O772" t="n">
-        <v>45000</v>
+        <v>9000</v>
       </c>
       <c r="P772" t="n">
-        <v>45000</v>
+        <v>8777</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1875</v>
+        <v>585</v>
       </c>
       <c r="T772" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62200,24 +62200,24 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>530</v>
+        <v>12</v>
       </c>
       <c r="N773" t="n">
-        <v>6000</v>
+        <v>85000</v>
       </c>
       <c r="O773" t="n">
-        <v>7000</v>
+        <v>85000</v>
       </c>
       <c r="P773" t="n">
-        <v>6462</v>
+        <v>85000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>431</v>
+        <v>189</v>
       </c>
       <c r="T773" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="774">
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62284,7 +62284,7 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>125</v>
+        <v>380</v>
       </c>
       <c r="N774" t="n">
         <v>5000</v>
@@ -62297,7 +62297,7 @@
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62355,41 +62355,41 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="N775" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O775" t="n">
-        <v>19500</v>
+        <v>45000</v>
       </c>
       <c r="P775" t="n">
-        <v>18500</v>
+        <v>45000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1233</v>
+        <v>1875</v>
       </c>
       <c r="T775" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>355</v>
+        <v>530</v>
       </c>
       <c r="N776" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O776" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P776" t="n">
-        <v>19042</v>
+        <v>6462</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1269</v>
+        <v>431</v>
       </c>
       <c r="T776" t="n">
         <v>15</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62520,24 +62520,24 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N777" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O777" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P777" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
@@ -62546,10 +62546,10 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1222</v>
+        <v>333</v>
       </c>
       <c r="T777" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62600,24 +62600,24 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>60</v>
+        <v>375</v>
       </c>
       <c r="N778" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O778" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P778" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
@@ -62626,10 +62626,10 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>833</v>
+        <v>1233</v>
       </c>
       <c r="T778" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62684,20 +62684,20 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="N779" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O779" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P779" t="n">
-        <v>12500</v>
+        <v>19042</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,7 +62706,7 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>833</v>
+        <v>1269</v>
       </c>
       <c r="T779" t="n">
         <v>15</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62760,24 +62760,24 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="N780" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O780" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P780" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="T780" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="781">
@@ -62835,25 +62835,25 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N781" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="O781" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P781" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T781" t="n">
         <v>18</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N782" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O782" t="n">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="P782" t="n">
-        <v>25571</v>
+        <v>12500</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1421</v>
+        <v>833</v>
       </c>
       <c r="T782" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -63000,20 +63000,20 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>435</v>
+        <v>80</v>
       </c>
       <c r="N783" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O783" t="n">
-        <v>19500</v>
+        <v>12000</v>
       </c>
       <c r="P783" t="n">
-        <v>18862</v>
+        <v>12000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1257</v>
+        <v>800</v>
       </c>
       <c r="T783" t="n">
         <v>15</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -63075,41 +63075,41 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="N784" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="O784" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="P784" t="n">
-        <v>16744</v>
+        <v>27000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>1116</v>
+        <v>1500</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63155,41 +63155,41 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N785" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="O785" t="n">
-        <v>16500</v>
+        <v>26000</v>
       </c>
       <c r="P785" t="n">
-        <v>16500</v>
+        <v>25571</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>1100</v>
+        <v>1421</v>
       </c>
       <c r="T785" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -63240,20 +63240,20 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="N786" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O786" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="P786" t="n">
-        <v>7457</v>
+        <v>18862</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>497</v>
+        <v>1257</v>
       </c>
       <c r="T786" t="n">
         <v>15</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="N787" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O787" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P787" t="n">
-        <v>7410</v>
+        <v>16744</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>494</v>
+        <v>1116</v>
       </c>
       <c r="T787" t="n">
         <v>15</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -63400,20 +63400,20 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N788" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="O788" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="P788" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>333</v>
+        <v>1100</v>
       </c>
       <c r="T788" t="n">
         <v>15</v>
@@ -63480,24 +63480,24 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>110</v>
+        <v>460</v>
       </c>
       <c r="N789" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O789" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P789" t="n">
-        <v>5000</v>
+        <v>7457</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>333</v>
+        <v>497</v>
       </c>
       <c r="T789" t="n">
         <v>15</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63564,20 +63564,20 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="N790" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O790" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P790" t="n">
-        <v>18000</v>
+        <v>7410</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>1200</v>
+        <v>494</v>
       </c>
       <c r="T790" t="n">
         <v>15</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63640,24 +63640,24 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="N791" t="n">
-        <v>450000</v>
+        <v>5000</v>
       </c>
       <c r="O791" t="n">
-        <v>450000</v>
+        <v>5000</v>
       </c>
       <c r="P791" t="n">
-        <v>450000</v>
+        <v>5000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,10 +63666,10 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T791" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -63720,24 +63720,24 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N792" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O792" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P792" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,10 +63746,10 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T792" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N793" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O793" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P793" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,7 +63826,7 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T793" t="n">
         <v>15</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -63880,24 +63880,24 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="N794" t="n">
-        <v>8500</v>
+        <v>450000</v>
       </c>
       <c r="O794" t="n">
-        <v>9000</v>
+        <v>450000</v>
       </c>
       <c r="P794" t="n">
-        <v>8757</v>
+        <v>450000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>584</v>
+        <v>1000</v>
       </c>
       <c r="T794" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="795">
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="N795" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O795" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P795" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T795" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="796">
@@ -64040,24 +64040,24 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N796" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O796" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P796" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,7 +64066,7 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="T796" t="n">
         <v>15</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -64120,24 +64120,24 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N797" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="O797" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P797" t="n">
-        <v>25000</v>
+        <v>8757</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
@@ -64146,10 +64146,10 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1389</v>
+        <v>584</v>
       </c>
       <c r="T797" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="N798" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O798" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P798" t="n">
-        <v>24571</v>
+        <v>8000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>1638</v>
+        <v>533</v>
       </c>
       <c r="T798" t="n">
         <v>15</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -64280,20 +64280,20 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N799" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O799" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P799" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64302,11 +64302,11 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>1467</v>
+        <v>467</v>
       </c>
       <c r="T799" t="n">
         <v>15</v>
@@ -64360,24 +64360,24 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N800" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O800" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P800" t="n">
-        <v>23400</v>
+        <v>25000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>1560</v>
+        <v>1389</v>
       </c>
       <c r="T800" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="801">
@@ -64440,24 +64440,24 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N801" t="n">
         <v>24000</v>
       </c>
       <c r="O801" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P801" t="n">
-        <v>24000</v>
+        <v>24571</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>1333</v>
+        <v>1638</v>
       </c>
       <c r="T801" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="802">
@@ -64520,33 +64520,33 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N802" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O802" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P802" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="T802" t="n">
         <v>15</v>
@@ -64600,33 +64600,33 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N803" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O803" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P803" t="n">
-        <v>17000</v>
+        <v>23400</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>1133</v>
+        <v>1560</v>
       </c>
       <c r="T803" t="n">
         <v>15</v>
@@ -64675,38 +64675,38 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N804" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O804" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P804" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="T804" t="n">
         <v>18</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64760,36 +64760,36 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N805" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O805" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P805" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>500</v>
+        <v>1333</v>
       </c>
       <c r="T805" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64835,38 +64835,38 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="N806" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O806" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P806" t="n">
-        <v>6455</v>
+        <v>17000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>430</v>
+        <v>1133</v>
       </c>
       <c r="T806" t="n">
         <v>15</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -64924,32 +64924,32 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N807" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="O807" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="P807" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>2083</v>
+        <v>1111</v>
       </c>
       <c r="T807" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65000,36 +65000,36 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N808" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O808" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P808" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T808" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65075,25 +65075,25 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="N809" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="O809" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P809" t="n">
-        <v>13500</v>
+        <v>6455</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>900</v>
+        <v>430</v>
       </c>
       <c r="T809" t="n">
         <v>15</v>
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65155,41 +65155,41 @@
       </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N810" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="O810" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="P810" t="n">
-        <v>14000</v>
+        <v>50000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>933</v>
+        <v>2083</v>
       </c>
       <c r="T810" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="811">
@@ -65240,35 +65240,275 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M811" t="n">
+        <v>200</v>
+      </c>
+      <c r="N811" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O811" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P811" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q811" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S811" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T811" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>10</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E812" t="n">
+        <v>9</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I812" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M812" t="n">
+        <v>80</v>
+      </c>
+      <c r="N812" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O812" t="n">
+        <v>13500</v>
+      </c>
+      <c r="P812" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q812" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S812" t="n">
+        <v>900</v>
+      </c>
+      <c r="T812" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>10</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D813" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E813" t="n">
+        <v>9</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I813" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M813" t="n">
+        <v>40</v>
+      </c>
+      <c r="N813" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O813" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P813" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q813" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S813" t="n">
+        <v>933</v>
+      </c>
+      <c r="T813" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>10</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E814" t="n">
+        <v>9</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I814" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
           <t>Calibre 200</t>
         </is>
       </c>
-      <c r="M811" t="n">
+      <c r="M814" t="n">
         <v>100</v>
       </c>
-      <c r="N811" t="n">
+      <c r="N814" t="n">
         <v>20000</v>
       </c>
-      <c r="O811" t="n">
+      <c r="O814" t="n">
         <v>20000</v>
       </c>
-      <c r="P811" t="n">
+      <c r="P814" t="n">
         <v>20000</v>
       </c>
-      <c r="Q811" t="inlineStr">
+      <c r="Q814" t="inlineStr">
         <is>
           <t>$/caja 18 kilos importada</t>
         </is>
       </c>
-      <c r="R811" t="inlineStr">
+      <c r="R814" t="inlineStr">
         <is>
           <t>EE.UU.</t>
         </is>
       </c>
-      <c r="S811" t="n">
+      <c r="S814" t="n">
         <v>1111</v>
       </c>
-      <c r="T811" t="n">
+      <c r="T814" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T847"/>
+  <dimension ref="A1:T848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -59484,16 +59484,16 @@
         </is>
       </c>
       <c r="M739" t="n">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="N739" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O739" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P739" t="n">
-        <v>6556</v>
+        <v>8455</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>437</v>
+        <v>564</v>
       </c>
       <c r="T739" t="n">
         <v>15</v>
@@ -59564,20 +59564,20 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="N740" t="n">
-        <v>135000</v>
+        <v>6000</v>
       </c>
       <c r="O740" t="n">
-        <v>135000</v>
+        <v>7000</v>
       </c>
       <c r="P740" t="n">
-        <v>135000</v>
+        <v>6556</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
@@ -59586,10 +59586,10 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="T740" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741">
@@ -59644,20 +59644,20 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>380</v>
+        <v>25</v>
       </c>
       <c r="N741" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="O741" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="P741" t="n">
-        <v>8000</v>
+        <v>135000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
@@ -59666,10 +59666,10 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="T741" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="742">
@@ -59724,20 +59724,20 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="N742" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>5405</v>
+        <v>8000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>360</v>
+        <v>444</v>
       </c>
       <c r="T742" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="743">
@@ -59800,24 +59800,24 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N743" t="n">
-        <v>112500</v>
+        <v>5000</v>
       </c>
       <c r="O743" t="n">
-        <v>112500</v>
+        <v>6000</v>
       </c>
       <c r="P743" t="n">
-        <v>112500</v>
+        <v>5405</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
@@ -59826,10 +59826,10 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="T743" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="744">
@@ -59884,20 +59884,20 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="N744" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="O744" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="P744" t="n">
-        <v>4000</v>
+        <v>112500</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="T744" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="745">
@@ -59960,24 +59960,24 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="N745" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O745" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P745" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
@@ -59986,10 +59986,10 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T745" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -60040,24 +60040,24 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N746" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O746" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>7490</v>
+        <v>10000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
@@ -60066,10 +60066,10 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="T746" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="747">
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -60124,16 +60124,16 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N747" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O747" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P747" t="n">
-        <v>18000</v>
+        <v>7490</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60146,7 +60146,7 @@
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1200</v>
+        <v>499</v>
       </c>
       <c r="T747" t="n">
         <v>15</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N748" t="n">
         <v>18000</v>
       </c>
       <c r="O748" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="P748" t="n">
-        <v>18278</v>
+        <v>18000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="T748" t="n">
         <v>15</v>
@@ -60284,20 +60284,20 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N749" t="n">
         <v>18000</v>
       </c>
       <c r="O749" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="P749" t="n">
-        <v>18000</v>
+        <v>18278</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1200</v>
+        <v>1219</v>
       </c>
       <c r="T749" t="n">
         <v>15</v>
@@ -60360,24 +60360,24 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="N750" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O750" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P750" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T750" t="n">
         <v>15</v>
@@ -60440,11 +60440,11 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="N751" t="n">
         <v>15000</v>
@@ -60524,7 +60524,7 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N752" t="n">
         <v>15000</v>
@@ -60537,7 +60537,7 @@
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="N753" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O753" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T753" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="754">
@@ -60680,36 +60680,36 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="N754" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="O754" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="P754" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1500</v>
+        <v>1333</v>
       </c>
       <c r="T754" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -60760,17 +60760,17 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N755" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="O755" t="n">
-        <v>23000</v>
+        <v>22500</v>
       </c>
       <c r="P755" t="n">
         <v>22500</v>
@@ -60844,20 +60844,20 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N756" t="n">
         <v>22000</v>
       </c>
       <c r="O756" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P756" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1467</v>
+        <v>1500</v>
       </c>
       <c r="T756" t="n">
         <v>15</v>
@@ -60920,24 +60920,24 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N757" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O757" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P757" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1533</v>
+        <v>1467</v>
       </c>
       <c r="T757" t="n">
         <v>15</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -61000,20 +61000,20 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="N758" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="O758" t="n">
-        <v>10500</v>
+        <v>23000</v>
       </c>
       <c r="P758" t="n">
-        <v>10218</v>
+        <v>23000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>681</v>
+        <v>1533</v>
       </c>
       <c r="T758" t="n">
         <v>15</v>
@@ -61080,20 +61080,20 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="N759" t="n">
         <v>10000</v>
       </c>
       <c r="O759" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="P759" t="n">
-        <v>10468</v>
+        <v>10218</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="T759" t="n">
         <v>15</v>
@@ -61164,20 +61164,20 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="N760" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O760" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P760" t="n">
-        <v>14000</v>
+        <v>10468</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
@@ -61186,10 +61186,10 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>778</v>
+        <v>698</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761">
@@ -61244,20 +61244,20 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N761" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O761" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P761" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T761" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="762">
@@ -61320,24 +61320,24 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M762" t="n">
         <v>110</v>
       </c>
       <c r="N762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T762" t="n">
         <v>15</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N763" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O763" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P763" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T763" t="n">
         <v>15</v>
@@ -61475,41 +61475,41 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N764" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O764" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P764" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1042</v>
+        <v>800</v>
       </c>
       <c r="T764" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -61555,41 +61555,41 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N765" t="n">
-        <v>315000</v>
+        <v>25000</v>
       </c>
       <c r="O765" t="n">
-        <v>315000</v>
+        <v>25000</v>
       </c>
       <c r="P765" t="n">
-        <v>315000</v>
+        <v>25000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>700</v>
+        <v>1042</v>
       </c>
       <c r="T765" t="n">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="766">
@@ -61644,20 +61644,20 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="N766" t="n">
-        <v>7500</v>
+        <v>315000</v>
       </c>
       <c r="O766" t="n">
-        <v>8000</v>
+        <v>315000</v>
       </c>
       <c r="P766" t="n">
-        <v>7719</v>
+        <v>315000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>515</v>
+        <v>700</v>
       </c>
       <c r="T766" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="N767" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O767" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P767" t="n">
-        <v>9385</v>
+        <v>7719</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>626</v>
+        <v>515</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61800,11 +61800,11 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="N768" t="n">
         <v>9000</v>
@@ -61813,11 +61813,11 @@
         <v>10000</v>
       </c>
       <c r="P768" t="n">
-        <v>9545</v>
+        <v>9385</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="T768" t="n">
         <v>15</v>
@@ -61884,20 +61884,20 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="N769" t="n">
-        <v>200000</v>
+        <v>9000</v>
       </c>
       <c r="O769" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="P769" t="n">
-        <v>200000</v>
+        <v>9545</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,10 +61906,10 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>444</v>
+        <v>636</v>
       </c>
       <c r="T769" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="770">
@@ -61960,36 +61960,36 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="N770" t="n">
-        <v>28000</v>
+        <v>200000</v>
       </c>
       <c r="O770" t="n">
-        <v>30000</v>
+        <v>200000</v>
       </c>
       <c r="P770" t="n">
-        <v>28857</v>
+        <v>200000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1202</v>
+        <v>444</v>
       </c>
       <c r="T770" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="771">
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N771" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="O771" t="n">
         <v>30000</v>
       </c>
       <c r="P771" t="n">
-        <v>30000</v>
+        <v>28857</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1250</v>
+        <v>1202</v>
       </c>
       <c r="T771" t="n">
         <v>24</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62115,41 +62115,41 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="N772" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="O772" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P772" t="n">
-        <v>9417</v>
+        <v>30000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>628</v>
+        <v>1250</v>
       </c>
       <c r="T772" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="773">
@@ -62204,20 +62204,20 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N773" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O773" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P773" t="n">
-        <v>12000</v>
+        <v>9417</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="T773" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="774">
@@ -62280,24 +62280,24 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N774" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O774" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P774" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>467</v>
+        <v>667</v>
       </c>
       <c r="T774" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N775" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O775" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P775" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T775" t="n">
         <v>15</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N776" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O776" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P776" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T776" t="n">
         <v>15</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
         <v>50</v>
       </c>
       <c r="N777" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O777" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P777" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T777" t="n">
         <v>15</v>
@@ -62604,32 +62604,32 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="N778" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O778" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P778" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T778" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="N779" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O779" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P779" t="n">
-        <v>23537</v>
+        <v>21000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1569</v>
+        <v>1167</v>
       </c>
       <c r="T779" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="780">
@@ -62760,33 +62760,33 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="N780" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O780" t="n">
         <v>24000</v>
       </c>
-      <c r="O780" t="n">
-        <v>25000</v>
-      </c>
       <c r="P780" t="n">
-        <v>24580</v>
+        <v>23537</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>1639</v>
+        <v>1569</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62835,41 +62835,41 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="N781" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="O781" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P781" t="n">
-        <v>35000</v>
+        <v>24580</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>1458</v>
+        <v>1639</v>
       </c>
       <c r="T781" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -62915,41 +62915,41 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="N782" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O782" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P782" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1000</v>
+        <v>1458</v>
       </c>
       <c r="T782" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="783">
@@ -63004,20 +63004,20 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N783" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O783" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P783" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="T783" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="784">
@@ -63084,20 +63084,20 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N784" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O784" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P784" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63160,20 +63160,20 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="N785" t="n">
         <v>12000</v>
       </c>
       <c r="O785" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P785" t="n">
-        <v>12315</v>
+        <v>12000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="T785" t="n">
         <v>15</v>
@@ -63240,24 +63240,24 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="N786" t="n">
         <v>12000</v>
       </c>
       <c r="O786" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P786" t="n">
-        <v>12000</v>
+        <v>12315</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="T786" t="n">
         <v>15</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="N787" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O787" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P787" t="n">
-        <v>6625</v>
+        <v>12000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>442</v>
+        <v>800</v>
       </c>
       <c r="T787" t="n">
         <v>15</v>
@@ -63400,20 +63400,20 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N788" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O788" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P788" t="n">
-        <v>5000</v>
+        <v>6625</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="T788" t="n">
         <v>15</v>
@@ -63480,20 +63480,20 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
         <v>80</v>
       </c>
       <c r="N789" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O789" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P789" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="T789" t="n">
         <v>15</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63560,24 +63560,24 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N790" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O790" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P790" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T790" t="n">
         <v>15</v>
@@ -63640,24 +63640,24 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="N791" t="n">
         <v>10000</v>
       </c>
       <c r="O791" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="P791" t="n">
-        <v>10189</v>
+        <v>10000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="T791" t="n">
         <v>15</v>
@@ -63724,20 +63724,20 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N792" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O792" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P792" t="n">
-        <v>14000</v>
+        <v>10189</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,10 +63746,10 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>778</v>
+        <v>679</v>
       </c>
       <c r="T792" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="793">
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="N793" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O793" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P793" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="T793" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="794">
@@ -63880,20 +63880,20 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N794" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O794" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P794" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T794" t="n">
         <v>15</v>
@@ -63960,11 +63960,11 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N795" t="n">
         <v>8000</v>
@@ -63977,7 +63977,7 @@
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -64057,7 +64057,7 @@
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64115,41 +64115,41 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N797" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="O797" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="P797" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1250</v>
+        <v>533</v>
       </c>
       <c r="T797" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -64195,41 +64195,41 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N798" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O798" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P798" t="n">
-        <v>23433</v>
+        <v>30000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>1562</v>
+        <v>1250</v>
       </c>
       <c r="T798" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="799">
@@ -64280,33 +64280,33 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N799" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O799" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="P799" t="n">
-        <v>21670</v>
+        <v>23433</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>1445</v>
+        <v>1562</v>
       </c>
       <c r="T799" t="n">
         <v>15</v>
@@ -64360,33 +64360,33 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="N800" t="n">
         <v>21000</v>
       </c>
       <c r="O800" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="P800" t="n">
-        <v>21000</v>
+        <v>21670</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>1400</v>
+        <v>1445</v>
       </c>
       <c r="T800" t="n">
         <v>15</v>
@@ -64440,33 +64440,33 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N801" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O801" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P801" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T801" t="n">
         <v>15</v>
@@ -64515,41 +64515,41 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N802" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O802" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P802" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1167</v>
+        <v>1333</v>
       </c>
       <c r="T802" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="803">
@@ -64604,32 +64604,32 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="N803" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="O803" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="P803" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>1458</v>
+        <v>1167</v>
       </c>
       <c r="T803" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64675,41 +64675,41 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="N804" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O804" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="P804" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>778</v>
+        <v>1458</v>
       </c>
       <c r="T804" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="805">
@@ -64764,20 +64764,20 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N805" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O805" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P805" t="n">
-        <v>8777</v>
+        <v>14000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>585</v>
+        <v>778</v>
       </c>
       <c r="T805" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64840,24 +64840,24 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="N806" t="n">
-        <v>85000</v>
+        <v>8500</v>
       </c>
       <c r="O806" t="n">
-        <v>85000</v>
+        <v>9000</v>
       </c>
       <c r="P806" t="n">
-        <v>85000</v>
+        <v>8777</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,10 +64866,10 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>189</v>
+        <v>585</v>
       </c>
       <c r="T806" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="807">
@@ -64924,20 +64924,20 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="N807" t="n">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="O807" t="n">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="P807" t="n">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,10 +64946,10 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="T807" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="808">
@@ -64995,41 +64995,41 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="N808" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="O808" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="P808" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1875</v>
+        <v>333</v>
       </c>
       <c r="T808" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65075,41 +65075,41 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>530</v>
+        <v>55</v>
       </c>
       <c r="N809" t="n">
-        <v>6000</v>
+        <v>45000</v>
       </c>
       <c r="O809" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="P809" t="n">
-        <v>6462</v>
+        <v>45000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>431</v>
+        <v>1875</v>
       </c>
       <c r="T809" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="810">
@@ -65160,20 +65160,20 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>125</v>
+        <v>530</v>
       </c>
       <c r="N810" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O810" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P810" t="n">
-        <v>5000</v>
+        <v>6462</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65186,7 +65186,7 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>333</v>
+        <v>431</v>
       </c>
       <c r="T810" t="n">
         <v>15</v>
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="N811" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O811" t="n">
-        <v>19500</v>
+        <v>5000</v>
       </c>
       <c r="P811" t="n">
-        <v>18500</v>
+        <v>5000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>1233</v>
+        <v>333</v>
       </c>
       <c r="T811" t="n">
         <v>15</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -65324,16 +65324,16 @@
         </is>
       </c>
       <c r="M812" t="n">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="N812" t="n">
         <v>18000</v>
       </c>
       <c r="O812" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="P812" t="n">
-        <v>19042</v>
+        <v>18500</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1269</v>
+        <v>1233</v>
       </c>
       <c r="T812" t="n">
         <v>15</v>
@@ -65404,20 +65404,20 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="N813" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O813" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P813" t="n">
-        <v>22000</v>
+        <v>19042</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,10 +65426,10 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="T813" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -65480,24 +65480,24 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="N814" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O814" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P814" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
@@ -65506,7 +65506,7 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>833</v>
+        <v>1222</v>
       </c>
       <c r="T814" t="n">
         <v>18</v>
@@ -65560,24 +65560,24 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N815" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="O815" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P815" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65589,7 +65589,7 @@
         <v>833</v>
       </c>
       <c r="T815" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="816">
@@ -65640,24 +65640,24 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N816" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O816" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P816" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -65666,7 +65666,7 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T816" t="n">
         <v>15</v>
@@ -65715,41 +65715,41 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N817" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="O817" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P817" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S817" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T817" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="818">
@@ -65795,7 +65795,7 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
@@ -65804,16 +65804,16 @@
         </is>
       </c>
       <c r="M818" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N818" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O818" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P818" t="n">
-        <v>25571</v>
+        <v>27000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>1421</v>
+        <v>1500</v>
       </c>
       <c r="T818" t="n">
         <v>18</v>
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -65875,41 +65875,41 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>435</v>
+        <v>70</v>
       </c>
       <c r="N819" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O819" t="n">
-        <v>19500</v>
+        <v>26000</v>
       </c>
       <c r="P819" t="n">
-        <v>18862</v>
+        <v>25571</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1257</v>
+        <v>1421</v>
       </c>
       <c r="T819" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="820">
@@ -65964,29 +65964,29 @@
         </is>
       </c>
       <c r="M820" t="n">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="N820" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O820" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="P820" t="n">
-        <v>16744</v>
+        <v>18862</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1116</v>
+        <v>1257</v>
       </c>
       <c r="T820" t="n">
         <v>15</v>
@@ -66040,33 +66040,33 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N821" t="n">
         <v>16500</v>
       </c>
       <c r="O821" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="P821" t="n">
-        <v>16500</v>
+        <v>16744</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="T821" t="n">
         <v>15</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66120,20 +66120,20 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="N822" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O822" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="P822" t="n">
-        <v>7457</v>
+        <v>16500</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66146,7 +66146,7 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>497</v>
+        <v>1100</v>
       </c>
       <c r="T822" t="n">
         <v>15</v>
@@ -66204,7 +66204,7 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>305</v>
+        <v>460</v>
       </c>
       <c r="N823" t="n">
         <v>7000</v>
@@ -66213,11 +66213,11 @@
         <v>8000</v>
       </c>
       <c r="P823" t="n">
-        <v>7410</v>
+        <v>7457</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="T823" t="n">
         <v>15</v>
@@ -66280,24 +66280,24 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="N824" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O824" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P824" t="n">
-        <v>5000</v>
+        <v>7410</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,7 +66306,7 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>333</v>
+        <v>494</v>
       </c>
       <c r="T824" t="n">
         <v>15</v>
@@ -66364,7 +66364,7 @@
         </is>
       </c>
       <c r="M825" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N825" t="n">
         <v>5000</v>
@@ -66377,7 +66377,7 @@
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66440,24 +66440,24 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N826" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O826" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P826" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,7 +66466,7 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T826" t="n">
         <v>15</v>
@@ -66524,20 +66524,20 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="N827" t="n">
-        <v>450000</v>
+        <v>18000</v>
       </c>
       <c r="O827" t="n">
-        <v>450000</v>
+        <v>18000</v>
       </c>
       <c r="P827" t="n">
-        <v>450000</v>
+        <v>18000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
@@ -66546,10 +66546,10 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T827" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -66604,20 +66604,20 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="N828" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="O828" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="P828" t="n">
-        <v>12000</v>
+        <v>450000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T828" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="829">
@@ -66684,20 +66684,20 @@
         </is>
       </c>
       <c r="M829" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N829" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O829" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P829" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
@@ -66709,7 +66709,7 @@
         <v>667</v>
       </c>
       <c r="T829" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="830">
@@ -66760,24 +66760,24 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N830" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O830" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P830" t="n">
-        <v>8757</v>
+        <v>10000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66840,24 +66840,24 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M831" t="n">
         <v>185</v>
       </c>
       <c r="N831" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O831" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P831" t="n">
-        <v>8000</v>
+        <v>8757</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="T831" t="n">
         <v>15</v>
@@ -66920,24 +66920,24 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N832" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O832" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P832" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,7 +66946,7 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T832" t="n">
         <v>15</v>
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67000,24 +67000,24 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N833" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O833" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P833" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
@@ -67026,10 +67026,10 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>1389</v>
+        <v>467</v>
       </c>
       <c r="T833" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="834">
@@ -67084,20 +67084,20 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N834" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O834" t="n">
         <v>25000</v>
       </c>
       <c r="P834" t="n">
-        <v>24571</v>
+        <v>25000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,10 +67106,10 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1638</v>
+        <v>1389</v>
       </c>
       <c r="T834" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -67160,33 +67160,33 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N835" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O835" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P835" t="n">
-        <v>22000</v>
+        <v>24571</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>1467</v>
+        <v>1638</v>
       </c>
       <c r="T835" t="n">
         <v>15</v>
@@ -67244,16 +67244,16 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N836" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O836" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P836" t="n">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
@@ -67262,11 +67262,11 @@
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>1560</v>
+        <v>1467</v>
       </c>
       <c r="T836" t="n">
         <v>15</v>
@@ -67324,20 +67324,20 @@
         </is>
       </c>
       <c r="M837" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N837" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O837" t="n">
         <v>24000</v>
       </c>
       <c r="P837" t="n">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
@@ -67346,10 +67346,10 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>1333</v>
+        <v>1560</v>
       </c>
       <c r="T837" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="838">
@@ -67400,24 +67400,24 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N838" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O838" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P838" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
@@ -67429,7 +67429,7 @@
         <v>1333</v>
       </c>
       <c r="T838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="839">
@@ -67480,20 +67480,20 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N839" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O839" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P839" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67502,11 +67502,11 @@
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="T839" t="n">
         <v>15</v>
@@ -67555,41 +67555,41 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M840" t="n">
         <v>40</v>
       </c>
       <c r="N840" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O840" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P840" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>1111</v>
+        <v>1133</v>
       </c>
       <c r="T840" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67635,38 +67635,38 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="N841" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O841" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P841" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="T841" t="n">
         <v>18</v>
@@ -67715,41 +67715,41 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="N842" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O842" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P842" t="n">
-        <v>6455</v>
+        <v>9000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="T842" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="843">
@@ -67804,32 +67804,32 @@
         </is>
       </c>
       <c r="M843" t="n">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="N843" t="n">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="O843" t="n">
-        <v>50000</v>
+        <v>7000</v>
       </c>
       <c r="P843" t="n">
-        <v>50000</v>
+        <v>6455</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>2083</v>
+        <v>430</v>
       </c>
       <c r="T843" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="844">
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67875,41 +67875,41 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N844" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="O844" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="P844" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>1000</v>
+        <v>2083</v>
       </c>
       <c r="T844" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="845">
@@ -67960,20 +67960,20 @@
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N845" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O845" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P845" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
@@ -67986,7 +67986,7 @@
         </is>
       </c>
       <c r="S845" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T845" t="n">
         <v>15</v>
@@ -68044,29 +68044,29 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N846" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O846" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P846" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="T846" t="n">
         <v>15</v>
@@ -68120,35 +68120,115 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M847" t="n">
+        <v>40</v>
+      </c>
+      <c r="N847" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O847" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P847" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q847" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S847" t="n">
+        <v>933</v>
+      </c>
+      <c r="T847" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>10</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E848" t="n">
+        <v>9</v>
+      </c>
+      <c r="F848" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G848" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I848" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
           <t>Calibre 200</t>
         </is>
       </c>
-      <c r="M847" t="n">
+      <c r="M848" t="n">
         <v>100</v>
       </c>
-      <c r="N847" t="n">
+      <c r="N848" t="n">
         <v>20000</v>
       </c>
-      <c r="O847" t="n">
+      <c r="O848" t="n">
         <v>20000</v>
       </c>
-      <c r="P847" t="n">
+      <c r="P848" t="n">
         <v>20000</v>
       </c>
-      <c r="Q847" t="inlineStr">
+      <c r="Q848" t="inlineStr">
         <is>
           <t>$/caja 18 kilos importada</t>
         </is>
       </c>
-      <c r="R847" t="inlineStr">
+      <c r="R848" t="inlineStr">
         <is>
           <t>EE.UU.</t>
         </is>
       </c>
-      <c r="S847" t="n">
+      <c r="S848" t="n">
         <v>1111</v>
       </c>
-      <c r="T847" t="n">
+      <c r="T848" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T850"/>
+  <dimension ref="A1:T854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E699" t="n">
         <v>9</v>
@@ -56284,20 +56284,20 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="N699" t="n">
-        <v>140000</v>
+        <v>7000</v>
       </c>
       <c r="O699" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="P699" t="n">
-        <v>140000</v>
+        <v>7500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R699" t="inlineStr">
@@ -56306,10 +56306,10 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>311</v>
+        <v>500</v>
       </c>
       <c r="T699" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="700">
@@ -56327,7 +56327,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E700" t="n">
         <v>9</v>
@@ -56364,20 +56364,20 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N700" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O700" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P700" t="n">
-        <v>5455</v>
+        <v>150000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
@@ -56386,10 +56386,10 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="T700" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="701">
@@ -56407,7 +56407,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -56440,20 +56440,20 @@
       </c>
       <c r="L701" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M701" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N701" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O701" t="n">
         <v>10000</v>
       </c>
       <c r="P701" t="n">
-        <v>10000</v>
+        <v>9556</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56466,7 +56466,7 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="T701" t="n">
         <v>18</v>
@@ -56487,7 +56487,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E702" t="n">
         <v>9</v>
@@ -56520,24 +56520,24 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="N702" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O702" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P702" t="n">
-        <v>6410</v>
+        <v>4000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R702" t="inlineStr">
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="T702" t="n">
         <v>15</v>
@@ -56567,7 +56567,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E703" t="n">
         <v>9</v>
@@ -56604,20 +56604,20 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="N703" t="n">
-        <v>5000</v>
+        <v>140000</v>
       </c>
       <c r="O703" t="n">
-        <v>5500</v>
+        <v>140000</v>
       </c>
       <c r="P703" t="n">
-        <v>5298</v>
+        <v>140000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
@@ -56626,10 +56626,10 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="T703" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="704">
@@ -56647,7 +56647,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E704" t="n">
         <v>9</v>
@@ -56684,20 +56684,20 @@
         </is>
       </c>
       <c r="M704" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N704" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O704" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P704" t="n">
-        <v>7162</v>
+        <v>5455</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
@@ -56706,7 +56706,7 @@
         </is>
       </c>
       <c r="S704" t="n">
-        <v>477</v>
+        <v>364</v>
       </c>
       <c r="T704" t="n">
         <v>15</v>
@@ -56727,7 +56727,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -56760,24 +56760,24 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="N705" t="n">
-        <v>120000</v>
+        <v>10000</v>
       </c>
       <c r="O705" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P705" t="n">
-        <v>124545</v>
+        <v>10000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R705" t="inlineStr">
@@ -56786,10 +56786,10 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>277</v>
+        <v>556</v>
       </c>
       <c r="T705" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="706">
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -56844,20 +56844,20 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="N706" t="n">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="O706" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P706" t="n">
-        <v>5803</v>
+        <v>6410</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,7 +56866,7 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="T706" t="n">
         <v>15</v>
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -56924,20 +56924,20 @@
         </is>
       </c>
       <c r="M707" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="N707" t="n">
-        <v>19500</v>
+        <v>5000</v>
       </c>
       <c r="O707" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="P707" t="n">
-        <v>19737</v>
+        <v>5298</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>1316</v>
+        <v>353</v>
       </c>
       <c r="T707" t="n">
         <v>15</v>
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -57000,36 +57000,36 @@
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N708" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O708" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P708" t="n">
-        <v>22000</v>
+        <v>7162</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1222</v>
+        <v>477</v>
       </c>
       <c r="T708" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="709">
@@ -57047,7 +57047,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -57080,36 +57080,36 @@
       </c>
       <c r="L709" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M709" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="N709" t="n">
-        <v>27000</v>
+        <v>120000</v>
       </c>
       <c r="O709" t="n">
-        <v>27000</v>
+        <v>130000</v>
       </c>
       <c r="P709" t="n">
-        <v>27000</v>
+        <v>124545</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1500</v>
+        <v>277</v>
       </c>
       <c r="T709" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="710">
@@ -57127,7 +57127,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -57164,20 +57164,20 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="N710" t="n">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="O710" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P710" t="n">
-        <v>9517</v>
+        <v>5803</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R710" t="inlineStr">
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>634</v>
+        <v>387</v>
       </c>
       <c r="T710" t="n">
         <v>15</v>
@@ -57207,7 +57207,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E711" t="n">
         <v>9</v>
@@ -57244,20 +57244,20 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N711" t="n">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="O711" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P711" t="n">
-        <v>13000</v>
+        <v>19737</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
@@ -57266,10 +57266,10 @@
         </is>
       </c>
       <c r="S711" t="n">
-        <v>722</v>
+        <v>1316</v>
       </c>
       <c r="T711" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="712">
@@ -57287,7 +57287,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
@@ -57320,36 +57320,36 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N712" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="O712" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="P712" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T712" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="713">
@@ -57367,7 +57367,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E713" t="n">
         <v>9</v>
@@ -57395,41 +57395,41 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M713" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N713" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="O713" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P713" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="T713" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="714">
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E714" t="n">
         <v>9</v>
@@ -57484,16 +57484,16 @@
         </is>
       </c>
       <c r="M714" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N714" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O714" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P714" t="n">
-        <v>15000</v>
+        <v>9517</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
@@ -57506,7 +57506,7 @@
         </is>
       </c>
       <c r="S714" t="n">
-        <v>1000</v>
+        <v>634</v>
       </c>
       <c r="T714" t="n">
         <v>15</v>
@@ -57527,7 +57527,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E715" t="n">
         <v>9</v>
@@ -57560,11 +57560,11 @@
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N715" t="n">
         <v>13000</v>
@@ -57577,7 +57577,7 @@
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
@@ -57586,10 +57586,10 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="T715" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -57607,7 +57607,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E716" t="n">
         <v>9</v>
@@ -57640,20 +57640,20 @@
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N716" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O716" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P716" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57666,7 +57666,7 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T716" t="n">
         <v>15</v>
@@ -57687,7 +57687,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E717" t="n">
         <v>9</v>
@@ -57715,41 +57715,41 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N717" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O717" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P717" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1167</v>
+        <v>833</v>
       </c>
       <c r="T717" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="718">
@@ -57767,7 +57767,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -57804,16 +57804,16 @@
         </is>
       </c>
       <c r="M718" t="n">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="N718" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O718" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P718" t="n">
-        <v>7590</v>
+        <v>15000</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>506</v>
+        <v>1000</v>
       </c>
       <c r="T718" t="n">
         <v>15</v>
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -57880,24 +57880,24 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="N719" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O719" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P719" t="n">
-        <v>6627</v>
+        <v>13000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>442</v>
+        <v>867</v>
       </c>
       <c r="T719" t="n">
         <v>15</v>
@@ -57927,7 +57927,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N720" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O720" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P720" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T720" t="n">
         <v>15</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -58044,32 +58044,32 @@
         </is>
       </c>
       <c r="M721" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="N721" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="O721" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="P721" t="n">
-        <v>10500</v>
+        <v>21000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>700</v>
+        <v>1167</v>
       </c>
       <c r="T721" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="722">
@@ -58115,41 +58115,41 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M722" t="n">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="N722" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="O722" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="P722" t="n">
-        <v>30000</v>
+        <v>7590</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S722" t="n">
-        <v>1250</v>
+        <v>506</v>
       </c>
       <c r="T722" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E723" t="n">
         <v>9</v>
@@ -58200,24 +58200,24 @@
       </c>
       <c r="L723" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M723" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="N723" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O723" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P723" t="n">
-        <v>10000</v>
+        <v>6627</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
@@ -58226,7 +58226,7 @@
         </is>
       </c>
       <c r="S723" t="n">
-        <v>667</v>
+        <v>442</v>
       </c>
       <c r="T723" t="n">
         <v>15</v>
@@ -58247,7 +58247,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
@@ -58280,24 +58280,24 @@
       </c>
       <c r="L724" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M724" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N724" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O724" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P724" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
@@ -58306,10 +58306,10 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="T724" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="725">
@@ -58327,7 +58327,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E725" t="n">
         <v>9</v>
@@ -58360,24 +58360,24 @@
       </c>
       <c r="L725" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M725" t="n">
-        <v>495</v>
+        <v>155</v>
       </c>
       <c r="N725" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O725" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P725" t="n">
-        <v>9747</v>
+        <v>10500</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R725" t="inlineStr">
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T725" t="n">
         <v>15</v>
@@ -58407,7 +58407,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -58435,41 +58435,41 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M726" t="n">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="N726" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O726" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P726" t="n">
-        <v>13033</v>
+        <v>30000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R726" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S726" t="n">
-        <v>869</v>
+        <v>1250</v>
       </c>
       <c r="T726" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="727">
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="N727" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O727" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P727" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         </is>
       </c>
       <c r="S727" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T727" t="n">
         <v>15</v>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -58604,20 +58604,20 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N728" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O728" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P728" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
@@ -58626,10 +58626,10 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T728" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E729" t="n">
         <v>9</v>
@@ -58680,20 +58680,20 @@
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>185</v>
+        <v>495</v>
       </c>
       <c r="N729" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O729" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P729" t="n">
-        <v>13000</v>
+        <v>9747</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58706,7 +58706,7 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>867</v>
+        <v>650</v>
       </c>
       <c r="T729" t="n">
         <v>15</v>
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -58760,24 +58760,24 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="N730" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O730" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P730" t="n">
-        <v>13500</v>
+        <v>13033</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
@@ -58786,7 +58786,7 @@
         </is>
       </c>
       <c r="S730" t="n">
-        <v>900</v>
+        <v>869</v>
       </c>
       <c r="T730" t="n">
         <v>15</v>
@@ -58840,36 +58840,36 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="N731" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O731" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P731" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T731" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732">
@@ -58915,16 +58915,16 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N732" t="n">
         <v>13000</v>
@@ -58937,19 +58937,19 @@
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="T732" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E733" t="n">
         <v>9</v>
@@ -59000,20 +59000,20 @@
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="N733" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O733" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P733" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59026,7 +59026,7 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T733" t="n">
         <v>15</v>
@@ -59047,7 +59047,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -59080,20 +59080,20 @@
       </c>
       <c r="L734" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M734" t="n">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="N734" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O734" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P734" t="n">
-        <v>10189</v>
+        <v>13500</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>679</v>
+        <v>900</v>
       </c>
       <c r="T734" t="n">
         <v>15</v>
@@ -59127,7 +59127,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -59160,33 +59160,33 @@
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N735" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O735" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P735" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>778</v>
+        <v>1222</v>
       </c>
       <c r="T735" t="n">
         <v>18</v>
@@ -59207,7 +59207,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -59235,41 +59235,41 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N736" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O736" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P736" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="T736" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="737">
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M737" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N737" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O737" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T737" t="n">
         <v>15</v>
@@ -59400,20 +59400,20 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O738" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P738" t="n">
-        <v>8000</v>
+        <v>10189</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>533</v>
+        <v>679</v>
       </c>
       <c r="T738" t="n">
         <v>15</v>
@@ -59480,24 +59480,24 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N739" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O739" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P739" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
@@ -59506,10 +59506,10 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T739" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="740">
@@ -59555,41 +59555,41 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="N740" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="O740" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="P740" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="T740" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="741">
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -59640,33 +59640,33 @@
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="N741" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O741" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="P741" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="T741" t="n">
         <v>15</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E742" t="n">
         <v>9</v>
@@ -59720,33 +59720,33 @@
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N742" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P742" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T742" t="n">
         <v>15</v>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -59800,33 +59800,33 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="N743" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O743" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P743" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="T743" t="n">
         <v>15</v>
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -59875,41 +59875,41 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N744" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="O744" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="P744" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="T744" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="745">
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -59955,41 +59955,41 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="N745" t="n">
-        <v>38000</v>
+        <v>16500</v>
       </c>
       <c r="O745" t="n">
-        <v>38000</v>
+        <v>16500</v>
       </c>
       <c r="P745" t="n">
-        <v>38000</v>
+        <v>16500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1583</v>
+        <v>1100</v>
       </c>
       <c r="T745" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="746">
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -60040,33 +60040,33 @@
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N746" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O746" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P746" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T746" t="n">
         <v>15</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -60120,33 +60120,33 @@
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N747" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O747" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P747" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1333</v>
+        <v>1100</v>
       </c>
       <c r="T747" t="n">
         <v>15</v>
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -60195,41 +60195,41 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N748" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O748" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P748" t="n">
-        <v>19400</v>
+        <v>10000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1078</v>
+        <v>667</v>
       </c>
       <c r="T748" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749">
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -60275,41 +60275,41 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>265</v>
+        <v>70</v>
       </c>
       <c r="N749" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="O749" t="n">
-        <v>15000</v>
+        <v>38000</v>
       </c>
       <c r="P749" t="n">
-        <v>13830</v>
+        <v>38000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>922</v>
+        <v>1583</v>
       </c>
       <c r="T749" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -60360,24 +60360,24 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="N750" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O750" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P750" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,10 +60386,10 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="T750" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751">
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="N751" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O751" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P751" t="n">
-        <v>13212</v>
+        <v>20000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>881</v>
+        <v>1333</v>
       </c>
       <c r="T751" t="n">
         <v>15</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -60515,41 +60515,41 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="N752" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="O752" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P752" t="n">
-        <v>13500</v>
+        <v>19400</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>900</v>
+        <v>1078</v>
       </c>
       <c r="T752" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="753">
@@ -60600,36 +60600,36 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N753" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O753" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>23000</v>
+        <v>13830</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1278</v>
+        <v>922</v>
       </c>
       <c r="T753" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -60684,20 +60684,20 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="N754" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O754" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P754" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,10 +60706,10 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>533</v>
+        <v>1222</v>
       </c>
       <c r="T754" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -60764,20 +60764,20 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="N755" t="n">
-        <v>140000</v>
+        <v>13000</v>
       </c>
       <c r="O755" t="n">
-        <v>140000</v>
+        <v>13500</v>
       </c>
       <c r="P755" t="n">
-        <v>140000</v>
+        <v>13212</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60786,10 +60786,10 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>311</v>
+        <v>881</v>
       </c>
       <c r="T755" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -60840,20 +60840,20 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="N756" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="O756" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="P756" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>467</v>
+        <v>900</v>
       </c>
       <c r="T756" t="n">
         <v>15</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -60920,36 +60920,36 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="N757" t="n">
-        <v>120000</v>
+        <v>23000</v>
       </c>
       <c r="O757" t="n">
-        <v>120000</v>
+        <v>23000</v>
       </c>
       <c r="P757" t="n">
-        <v>120000</v>
+        <v>23000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>267</v>
+        <v>1278</v>
       </c>
       <c r="T757" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="758">
@@ -61000,24 +61000,24 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N758" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O758" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P758" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="T758" t="n">
         <v>15</v>
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="N759" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="O759" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="P759" t="n">
-        <v>9000</v>
+        <v>140000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>600</v>
+        <v>311</v>
       </c>
       <c r="T759" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="760">
@@ -61155,41 +61155,41 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N760" t="n">
-        <v>45000</v>
+        <v>7000</v>
       </c>
       <c r="O760" t="n">
-        <v>45000</v>
+        <v>7000</v>
       </c>
       <c r="P760" t="n">
-        <v>45000</v>
+        <v>7000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1875</v>
+        <v>467</v>
       </c>
       <c r="T760" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -61240,24 +61240,24 @@
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>375</v>
+        <v>5</v>
       </c>
       <c r="N761" t="n">
-        <v>6000</v>
+        <v>120000</v>
       </c>
       <c r="O761" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="P761" t="n">
-        <v>6333</v>
+        <v>120000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="T761" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -61320,24 +61320,24 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N762" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O762" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P762" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,10 +61346,10 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T762" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -61400,20 +61400,20 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N763" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O763" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P763" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T763" t="n">
         <v>15</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -61475,7 +61475,7 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
@@ -61484,16 +61484,16 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N764" t="n">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="O764" t="n">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="P764" t="n">
-        <v>38000</v>
+        <v>45000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1583</v>
+        <v>1875</v>
       </c>
       <c r="T764" t="n">
         <v>24</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -61564,20 +61564,20 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="N765" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O765" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P765" t="n">
-        <v>20000</v>
+        <v>6333</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
@@ -61586,10 +61586,10 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1111</v>
+        <v>422</v>
       </c>
       <c r="T765" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -61640,24 +61640,24 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N766" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O766" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P766" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T766" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -61720,33 +61720,33 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N767" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O767" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P767" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>867</v>
+        <v>333</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61795,41 +61795,41 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N768" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="O768" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="P768" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>778</v>
+        <v>1583</v>
       </c>
       <c r="T768" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="769">
@@ -61880,24 +61880,24 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N769" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O769" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P769" t="n">
-        <v>11462</v>
+        <v>20000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,10 +61906,10 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>764</v>
+        <v>1111</v>
       </c>
       <c r="T769" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61960,33 +61960,33 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N770" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O770" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P770" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62040,20 +62040,20 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N771" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O771" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P771" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62066,7 +62066,7 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1000</v>
+        <v>867</v>
       </c>
       <c r="T771" t="n">
         <v>15</v>
@@ -62115,41 +62115,41 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N772" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O772" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P772" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1250</v>
+        <v>778</v>
       </c>
       <c r="T772" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="N773" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="O773" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P773" t="n">
-        <v>16814</v>
+        <v>11462</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1121</v>
+        <v>764</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62284,29 +62284,29 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="N774" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O774" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P774" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T774" t="n">
         <v>15</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62360,36 +62360,36 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N775" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O775" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P775" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S775" t="n">
         <v>1000</v>
       </c>
       <c r="T775" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N776" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="O776" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P776" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="T776" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="777">
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="N777" t="n">
-        <v>29000</v>
+        <v>16500</v>
       </c>
       <c r="O777" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="P777" t="n">
-        <v>29000</v>
+        <v>16814</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1208</v>
+        <v>1121</v>
       </c>
       <c r="T777" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>350</v>
+        <v>115</v>
       </c>
       <c r="N778" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="O778" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P778" t="n">
-        <v>7571</v>
+        <v>13500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>505</v>
+        <v>900</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62680,36 +62680,36 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="N779" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="O779" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="P779" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T779" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62760,36 +62760,36 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N780" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O780" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P780" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>400</v>
+        <v>1222</v>
       </c>
       <c r="T780" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62835,41 +62835,41 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N781" t="n">
-        <v>130000</v>
+        <v>29000</v>
       </c>
       <c r="O781" t="n">
-        <v>130000</v>
+        <v>29000</v>
       </c>
       <c r="P781" t="n">
-        <v>130000</v>
+        <v>29000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>289</v>
+        <v>1208</v>
       </c>
       <c r="T781" t="n">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="782">
@@ -62920,24 +62920,24 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N782" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O782" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P782" t="n">
-        <v>5000</v>
+        <v>7571</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>333</v>
+        <v>505</v>
       </c>
       <c r="T782" t="n">
         <v>15</v>
@@ -63000,24 +63000,24 @@
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="N783" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O783" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P783" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="784">
@@ -63075,41 +63075,41 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N784" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>1667</v>
+        <v>400</v>
       </c>
       <c r="T784" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N785" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="O785" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="P785" t="n">
-        <v>9000</v>
+        <v>130000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>500</v>
+        <v>289</v>
       </c>
       <c r="T785" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -63235,29 +63235,29 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="N786" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O786" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P786" t="n">
-        <v>6455</v>
+        <v>5000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="T786" t="n">
         <v>15</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63315,41 +63315,41 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="N787" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O787" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="P787" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>2083</v>
+        <v>667</v>
       </c>
       <c r="T787" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -63395,41 +63395,41 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="N788" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="O788" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="P788" t="n">
-        <v>6556</v>
+        <v>30000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>437</v>
+        <v>1667</v>
       </c>
       <c r="T788" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -63484,32 +63484,32 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N789" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O789" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P789" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="T789" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63555,25 +63555,25 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="N790" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O790" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P790" t="n">
-        <v>10000</v>
+        <v>6455</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>667</v>
+        <v>430</v>
       </c>
       <c r="T790" t="n">
         <v>15</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63635,41 +63635,41 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="N791" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="O791" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="P791" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>556</v>
+        <v>2083</v>
       </c>
       <c r="T791" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="792">
@@ -63715,41 +63715,41 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>5</v>
+        <v>270</v>
       </c>
       <c r="N792" t="n">
-        <v>50000</v>
+        <v>6000</v>
       </c>
       <c r="O792" t="n">
-        <v>50000</v>
+        <v>7000</v>
       </c>
       <c r="P792" t="n">
-        <v>50000</v>
+        <v>6556</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>2083</v>
+        <v>437</v>
       </c>
       <c r="T792" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="N793" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O793" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P793" t="n">
-        <v>15492</v>
+        <v>5000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,7 +63826,7 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1033</v>
+        <v>333</v>
       </c>
       <c r="T793" t="n">
         <v>15</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -63880,24 +63880,24 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N794" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O794" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P794" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T794" t="n">
         <v>15</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N795" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O795" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P795" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1067</v>
+        <v>556</v>
       </c>
       <c r="T795" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -64035,41 +64035,41 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N796" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="O796" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="P796" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1000</v>
+        <v>2083</v>
       </c>
       <c r="T796" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="797">
@@ -64115,41 +64115,41 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="N797" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O797" t="n">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="P797" t="n">
-        <v>40000</v>
+        <v>15492</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1667</v>
+        <v>1033</v>
       </c>
       <c r="T797" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -64204,20 +64204,20 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N798" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O798" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P798" t="n">
-        <v>7545</v>
+        <v>15000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>503</v>
+        <v>1000</v>
       </c>
       <c r="T798" t="n">
         <v>15</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -64280,24 +64280,24 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="N799" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="O799" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="P799" t="n">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
@@ -64306,10 +64306,10 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>311</v>
+        <v>1067</v>
       </c>
       <c r="T799" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -64360,24 +64360,24 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N800" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O800" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P800" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,7 +64386,7 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T800" t="n">
         <v>15</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -64435,41 +64435,41 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="N801" t="n">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="O801" t="n">
-        <v>5500</v>
+        <v>40000</v>
       </c>
       <c r="P801" t="n">
-        <v>5273</v>
+        <v>40000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>352</v>
+        <v>1667</v>
       </c>
       <c r="T801" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -64520,20 +64520,20 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N802" t="n">
-        <v>19500</v>
+        <v>7000</v>
       </c>
       <c r="O802" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="P802" t="n">
-        <v>19500</v>
+        <v>7545</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1300</v>
+        <v>503</v>
       </c>
       <c r="T802" t="n">
         <v>15</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -64600,36 +64600,36 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="N803" t="n">
-        <v>25000</v>
+        <v>140000</v>
       </c>
       <c r="O803" t="n">
-        <v>25000</v>
+        <v>140000</v>
       </c>
       <c r="P803" t="n">
-        <v>25000</v>
+        <v>140000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>1389</v>
+        <v>311</v>
       </c>
       <c r="T803" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N804" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="O804" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P804" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1222</v>
+        <v>400</v>
       </c>
       <c r="T804" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64760,24 +64760,24 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="N805" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O805" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P805" t="n">
-        <v>18000</v>
+        <v>5273</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,7 +64786,7 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>1200</v>
+        <v>352</v>
       </c>
       <c r="T805" t="n">
         <v>15</v>
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64844,7 +64844,7 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="N806" t="n">
         <v>19500</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -64924,29 +64924,29 @@
         </is>
       </c>
       <c r="M807" t="n">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="N807" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O807" t="n">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="P807" t="n">
-        <v>22615</v>
+        <v>25000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>1256</v>
+        <v>1389</v>
       </c>
       <c r="T807" t="n">
         <v>18</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65000,24 +65000,24 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>225</v>
+        <v>410</v>
       </c>
       <c r="N808" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O808" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P808" t="n">
-        <v>6556</v>
+        <v>22000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>437</v>
+        <v>1222</v>
       </c>
       <c r="T808" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65080,24 +65080,24 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N809" t="n">
-        <v>135000</v>
+        <v>18000</v>
       </c>
       <c r="O809" t="n">
-        <v>135000</v>
+        <v>18000</v>
       </c>
       <c r="P809" t="n">
-        <v>135000</v>
+        <v>18000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="T809" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65160,24 +65160,24 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N810" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="O810" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="P810" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>444</v>
+        <v>1300</v>
       </c>
       <c r="T810" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -65240,24 +65240,24 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="N811" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="O811" t="n">
-        <v>6000</v>
+        <v>23500</v>
       </c>
       <c r="P811" t="n">
-        <v>5405</v>
+        <v>22615</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
@@ -65266,10 +65266,10 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>360</v>
+        <v>1256</v>
       </c>
       <c r="T811" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="812">
@@ -65320,24 +65320,24 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N812" t="n">
-        <v>112500</v>
+        <v>6000</v>
       </c>
       <c r="O812" t="n">
-        <v>112500</v>
+        <v>7000</v>
       </c>
       <c r="P812" t="n">
-        <v>112500</v>
+        <v>6556</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
@@ -65346,10 +65346,10 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>250</v>
+        <v>437</v>
       </c>
       <c r="T812" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="813">
@@ -65400,24 +65400,24 @@
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="N813" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="O813" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="P813" t="n">
-        <v>4000</v>
+        <v>135000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,10 +65426,10 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="T813" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="814">
@@ -65480,20 +65480,20 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T814" t="n">
         <v>18</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -65560,24 +65560,24 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N815" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="O815" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P815" t="n">
-        <v>21446</v>
+        <v>5405</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>1430</v>
+        <v>360</v>
       </c>
       <c r="T815" t="n">
         <v>15</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -65635,41 +65635,41 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N816" t="n">
-        <v>35000</v>
+        <v>112500</v>
       </c>
       <c r="O816" t="n">
-        <v>35000</v>
+        <v>112500</v>
       </c>
       <c r="P816" t="n">
-        <v>35000</v>
+        <v>112500</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>1458</v>
+        <v>250</v>
       </c>
       <c r="T816" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -65720,24 +65720,24 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="N817" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O817" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P817" t="n">
-        <v>6625</v>
+        <v>4000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>442</v>
+        <v>267</v>
       </c>
       <c r="T817" t="n">
         <v>15</v>
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -65800,24 +65800,24 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N818" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O818" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P818" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
@@ -65826,10 +65826,10 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T818" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -65880,20 +65880,20 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N819" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O819" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P819" t="n">
-        <v>8000</v>
+        <v>21446</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65906,7 +65906,7 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>533</v>
+        <v>1430</v>
       </c>
       <c r="T819" t="n">
         <v>15</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -65955,41 +65955,41 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="N820" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="O820" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="P820" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1200</v>
+        <v>1458</v>
       </c>
       <c r="T820" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -66044,20 +66044,20 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N821" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O821" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P821" t="n">
-        <v>18000</v>
+        <v>6625</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1200</v>
+        <v>442</v>
       </c>
       <c r="T821" t="n">
         <v>15</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66120,24 +66120,24 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N822" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O822" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P822" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,7 +66146,7 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T822" t="n">
         <v>15</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N823" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O823" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P823" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1200</v>
+        <v>533</v>
       </c>
       <c r="T823" t="n">
         <v>15</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -66280,20 +66280,20 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="N824" t="n">
         <v>18000</v>
       </c>
       <c r="O824" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="P824" t="n">
-        <v>18278</v>
+        <v>18000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66306,7 +66306,7 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="T824" t="n">
         <v>15</v>
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -66360,11 +66360,11 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="N825" t="n">
         <v>18000</v>
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66440,24 +66440,24 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="N826" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O826" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P826" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,7 +66466,7 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T826" t="n">
         <v>15</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="N827" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O827" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P827" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T827" t="n">
         <v>15</v>
@@ -66600,24 +66600,24 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="N828" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O828" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="P828" t="n">
-        <v>15000</v>
+        <v>18278</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>1000</v>
+        <v>1219</v>
       </c>
       <c r="T828" t="n">
         <v>15</v>
@@ -66680,36 +66680,36 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="N829" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O829" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P829" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T829" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="830">
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="N830" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O830" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P830" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -66840,24 +66840,24 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="N831" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O831" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P831" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
@@ -66866,10 +66866,10 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T831" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66920,24 +66920,24 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N832" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O832" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P832" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="T832" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67000,36 +67000,36 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="N833" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O833" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P833" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>533</v>
+        <v>1333</v>
       </c>
       <c r="T833" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67084,20 +67084,20 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N834" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O834" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P834" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T834" t="n">
         <v>15</v>
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67164,20 +67164,20 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N835" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O835" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P835" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
@@ -67186,10 +67186,10 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T835" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="836">
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67240,24 +67240,24 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N836" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O836" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P836" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
@@ -67266,10 +67266,10 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="T836" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67320,20 +67320,20 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="N837" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O837" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P837" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
@@ -67346,7 +67346,7 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>900</v>
+        <v>533</v>
       </c>
       <c r="T837" t="n">
         <v>15</v>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67400,36 +67400,36 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N838" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O838" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P838" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T838" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="839">
@@ -67480,36 +67480,36 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="N839" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O839" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P839" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T839" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67555,41 +67555,41 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="N840" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O840" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P840" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>1222</v>
+        <v>900</v>
       </c>
       <c r="T840" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67635,38 +67635,38 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="N841" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="O841" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="P841" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>1667</v>
+        <v>900</v>
       </c>
       <c r="T841" t="n">
         <v>15</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -67720,36 +67720,36 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="N842" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O842" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P842" t="n">
-        <v>15833</v>
+        <v>22000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>1056</v>
+        <v>1222</v>
       </c>
       <c r="T842" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -67800,24 +67800,24 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="N843" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O843" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P843" t="n">
-        <v>14671</v>
+        <v>22000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,7 +67826,7 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>815</v>
+        <v>1222</v>
       </c>
       <c r="T843" t="n">
         <v>18</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67875,41 +67875,41 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="N844" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="O844" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P844" t="n">
-        <v>13728</v>
+        <v>22000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>915</v>
+        <v>1222</v>
       </c>
       <c r="T844" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
@@ -67964,32 +67964,32 @@
         </is>
       </c>
       <c r="M845" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>1458</v>
+        <v>1667</v>
       </c>
       <c r="T845" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68040,20 +68040,20 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N846" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O846" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="P846" t="n">
-        <v>6417</v>
+        <v>15833</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68066,7 +68066,7 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>428</v>
+        <v>1056</v>
       </c>
       <c r="T846" t="n">
         <v>15</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68120,36 +68120,36 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="N847" t="n">
-        <v>150000</v>
+        <v>14000</v>
       </c>
       <c r="O847" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P847" t="n">
-        <v>150000</v>
+        <v>14671</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>333</v>
+        <v>815</v>
       </c>
       <c r="T847" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="848">
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68200,24 +68200,24 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="N848" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O848" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P848" t="n">
-        <v>8000</v>
+        <v>13728</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -68226,10 +68226,10 @@
         </is>
       </c>
       <c r="S848" t="n">
-        <v>444</v>
+        <v>915</v>
       </c>
       <c r="T848" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68275,41 +68275,41 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N849" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="O849" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="P849" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>333</v>
+        <v>1458</v>
       </c>
       <c r="T849" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="850">
@@ -68355,40 +68355,360 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M850" t="n">
+        <v>240</v>
+      </c>
+      <c r="N850" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O850" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P850" t="n">
+        <v>6417</v>
+      </c>
+      <c r="Q850" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R850" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S850" t="n">
+        <v>428</v>
+      </c>
+      <c r="T850" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>10</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D851" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E851" t="n">
+        <v>9</v>
+      </c>
+      <c r="F851" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G851" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I851" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M851" t="n">
+        <v>10</v>
+      </c>
+      <c r="N851" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O851" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P851" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q851" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R851" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S851" t="n">
+        <v>333</v>
+      </c>
+      <c r="T851" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>10</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D852" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E852" t="n">
+        <v>9</v>
+      </c>
+      <c r="F852" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G852" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I852" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M852" t="n">
+        <v>200</v>
+      </c>
+      <c r="N852" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O852" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P852" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q852" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R852" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S852" t="n">
+        <v>444</v>
+      </c>
+      <c r="T852" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>10</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D853" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E853" t="n">
+        <v>9</v>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G853" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I853" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M853" t="n">
+        <v>50</v>
+      </c>
+      <c r="N853" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O853" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P853" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q853" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R853" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S853" t="n">
+        <v>333</v>
+      </c>
+      <c r="T853" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>10</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D854" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E854" t="n">
+        <v>9</v>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G854" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I854" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L850" t="inlineStr">
+      <c r="L854" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M850" t="n">
+      <c r="M854" t="n">
         <v>40</v>
       </c>
-      <c r="N850" t="n">
+      <c r="N854" t="n">
         <v>30000</v>
       </c>
-      <c r="O850" t="n">
+      <c r="O854" t="n">
         <v>30000</v>
       </c>
-      <c r="P850" t="n">
+      <c r="P854" t="n">
         <v>30000</v>
       </c>
-      <c r="Q850" t="inlineStr">
+      <c r="Q854" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R850" t="inlineStr">
+      <c r="R854" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S850" t="n">
+      <c r="S854" t="n">
         <v>1667</v>
       </c>
-      <c r="T850" t="n">
+      <c r="T854" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T879"/>
+  <dimension ref="A1:T884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -60524,16 +60524,16 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N752" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O752" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P752" t="n">
-        <v>10000</v>
+        <v>7455</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>667</v>
+        <v>497</v>
       </c>
       <c r="T752" t="n">
         <v>15</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -60604,16 +60604,16 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N753" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O753" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P753" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T753" t="n">
         <v>18</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="N754" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O754" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P754" t="n">
-        <v>9747</v>
+        <v>7385</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>650</v>
+        <v>492</v>
       </c>
       <c r="T754" t="n">
         <v>15</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -60760,24 +60760,24 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="N755" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O755" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P755" t="n">
-        <v>13033</v>
+        <v>6000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>869</v>
+        <v>400</v>
       </c>
       <c r="T755" t="n">
         <v>15</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -60840,24 +60840,24 @@
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="N756" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O756" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P756" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T756" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -60924,20 +60924,20 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N757" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O757" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P757" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,7 +60946,7 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T757" t="n">
         <v>15</v>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -61000,24 +61000,24 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="N758" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O758" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P758" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,10 +61026,10 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="T758" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>145</v>
+        <v>495</v>
       </c>
       <c r="N759" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O759" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P759" t="n">
-        <v>13500</v>
+        <v>9747</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T759" t="n">
         <v>15</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -61160,36 +61160,36 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="N760" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O760" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P760" t="n">
-        <v>22000</v>
+        <v>13033</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1222</v>
+        <v>869</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="761">
@@ -61235,41 +61235,41 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="N761" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O761" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P761" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T761" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -61324,16 +61324,16 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N762" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O762" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P762" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T762" t="n">
         <v>15</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -61404,20 +61404,20 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="N763" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O763" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P763" t="n">
-        <v>10189</v>
+        <v>13000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="T763" t="n">
         <v>15</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -61480,24 +61480,24 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="N764" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="O764" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P764" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="T764" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="N765" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O765" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P765" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="T765" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -61635,41 +61635,41 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="N766" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O766" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P766" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="T766" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="767">
@@ -61720,24 +61720,24 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N767" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P767" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61800,24 +61800,24 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N768" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O768" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P768" t="n">
-        <v>8000</v>
+        <v>10189</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>533</v>
+        <v>679</v>
       </c>
       <c r="T768" t="n">
         <v>15</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="N769" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O769" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="P769" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1250</v>
+        <v>778</v>
       </c>
       <c r="T769" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -61964,29 +61964,29 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N770" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="O770" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="P770" t="n">
-        <v>16500</v>
+        <v>9000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -62040,20 +62040,20 @@
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="N771" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O771" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P771" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T771" t="n">
         <v>15</v>
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="N772" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O772" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P772" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="T772" t="n">
         <v>15</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62204,16 +62204,16 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N773" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O773" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P773" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N774" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O774" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P774" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1583</v>
+        <v>1250</v>
       </c>
       <c r="T774" t="n">
         <v>24</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62360,20 +62360,20 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N775" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O775" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="P775" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1333</v>
+        <v>1100</v>
       </c>
       <c r="T775" t="n">
         <v>15</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62440,20 +62440,20 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="N776" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O776" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P776" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T776" t="n">
         <v>15</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62515,41 +62515,41 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N777" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O777" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P777" t="n">
-        <v>19400</v>
+        <v>16500</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="T777" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778">
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62600,33 +62600,33 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="N778" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O778" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P778" t="n">
-        <v>13830</v>
+        <v>10000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>922</v>
+        <v>667</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62675,41 +62675,41 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="N779" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="O779" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="P779" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1222</v>
+        <v>1583</v>
       </c>
       <c r="T779" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62760,24 +62760,24 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="N780" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O780" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P780" t="n">
-        <v>13212</v>
+        <v>20000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>881</v>
+        <v>1333</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62840,20 +62840,20 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N781" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O781" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P781" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62866,7 +62866,7 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>900</v>
+        <v>1333</v>
       </c>
       <c r="T781" t="n">
         <v>15</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N782" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O782" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P782" t="n">
-        <v>23000</v>
+        <v>19400</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1278</v>
+        <v>1078</v>
       </c>
       <c r="T782" t="n">
         <v>18</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="N783" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O783" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P783" t="n">
-        <v>8000</v>
+        <v>13830</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>533</v>
+        <v>922</v>
       </c>
       <c r="T783" t="n">
         <v>15</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -63084,20 +63084,20 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="N784" t="n">
-        <v>140000</v>
+        <v>22000</v>
       </c>
       <c r="O784" t="n">
-        <v>140000</v>
+        <v>22000</v>
       </c>
       <c r="P784" t="n">
-        <v>140000</v>
+        <v>22000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>311</v>
+        <v>1222</v>
       </c>
       <c r="T784" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63164,16 +63164,16 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="N785" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O785" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="P785" t="n">
-        <v>7000</v>
+        <v>13212</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>467</v>
+        <v>881</v>
       </c>
       <c r="T785" t="n">
         <v>15</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -63240,24 +63240,24 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="N786" t="n">
-        <v>120000</v>
+        <v>13500</v>
       </c>
       <c r="O786" t="n">
-        <v>120000</v>
+        <v>13500</v>
       </c>
       <c r="P786" t="n">
-        <v>120000</v>
+        <v>13500</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>267</v>
+        <v>900</v>
       </c>
       <c r="T786" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="N787" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="O787" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="P787" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>333</v>
+        <v>1278</v>
       </c>
       <c r="T787" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="788">
@@ -63400,20 +63400,20 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="N788" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O788" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P788" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T788" t="n">
         <v>15</v>
@@ -63475,41 +63475,41 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="N789" t="n">
-        <v>45000</v>
+        <v>140000</v>
       </c>
       <c r="O789" t="n">
-        <v>45000</v>
+        <v>140000</v>
       </c>
       <c r="P789" t="n">
-        <v>45000</v>
+        <v>140000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>1875</v>
+        <v>311</v>
       </c>
       <c r="T789" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63564,20 +63564,20 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="N790" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O790" t="n">
         <v>7000</v>
       </c>
       <c r="P790" t="n">
-        <v>6333</v>
+        <v>7000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="T790" t="n">
         <v>15</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63640,24 +63640,24 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>255</v>
+        <v>5</v>
       </c>
       <c r="N791" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="O791" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P791" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,10 +63666,10 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T791" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -63724,7 +63724,7 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N792" t="n">
         <v>5000</v>
@@ -63737,7 +63737,7 @@
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -63795,41 +63795,41 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="N793" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="O793" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="P793" t="n">
-        <v>38000</v>
+        <v>9000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1583</v>
+        <v>600</v>
       </c>
       <c r="T793" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N794" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O794" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P794" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>1111</v>
+        <v>1875</v>
       </c>
       <c r="T794" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -63960,20 +63960,20 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="N795" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O795" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P795" t="n">
-        <v>15000</v>
+        <v>6333</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>1000</v>
+        <v>422</v>
       </c>
       <c r="T795" t="n">
         <v>15</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -64040,36 +64040,36 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="N796" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O796" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P796" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>867</v>
+        <v>556</v>
       </c>
       <c r="T796" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -64120,36 +64120,36 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N797" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O797" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P797" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T797" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798">
@@ -64195,41 +64195,41 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="N798" t="n">
-        <v>11000</v>
+        <v>38000</v>
       </c>
       <c r="O798" t="n">
-        <v>12000</v>
+        <v>38000</v>
       </c>
       <c r="P798" t="n">
-        <v>11462</v>
+        <v>38000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>764</v>
+        <v>1583</v>
       </c>
       <c r="T798" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="799">
@@ -64280,36 +64280,36 @@
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="N799" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O799" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P799" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="T799" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="800">
@@ -64360,11 +64360,11 @@
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N800" t="n">
         <v>15000</v>
@@ -64377,12 +64377,12 @@
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S800" t="n">
@@ -64435,41 +64435,41 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N801" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="O801" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="P801" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>1250</v>
+        <v>867</v>
       </c>
       <c r="T801" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -64524,32 +64524,32 @@
         </is>
       </c>
       <c r="M802" t="n">
-        <v>295</v>
+        <v>140</v>
       </c>
       <c r="N802" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O802" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P802" t="n">
-        <v>16814</v>
+        <v>14000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1121</v>
+        <v>778</v>
       </c>
       <c r="T802" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -64600,20 +64600,20 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="N803" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O803" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P803" t="n">
-        <v>13500</v>
+        <v>11462</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
@@ -64626,7 +64626,7 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>900</v>
+        <v>764</v>
       </c>
       <c r="T803" t="n">
         <v>15</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64680,36 +64680,36 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N804" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O804" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P804" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T804" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64764,20 +64764,20 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N805" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O805" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P805" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T805" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64844,16 +64844,16 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N806" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="O806" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="P806" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>1208</v>
+        <v>1250</v>
       </c>
       <c r="T806" t="n">
         <v>24</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -64920,20 +64920,20 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="N807" t="n">
-        <v>7000</v>
+        <v>16500</v>
       </c>
       <c r="O807" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P807" t="n">
-        <v>7571</v>
+        <v>16814</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64946,7 +64946,7 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>505</v>
+        <v>1121</v>
       </c>
       <c r="T807" t="n">
         <v>15</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65000,24 +65000,24 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="N808" t="n">
-        <v>150000</v>
+        <v>13500</v>
       </c>
       <c r="O808" t="n">
-        <v>150000</v>
+        <v>13500</v>
       </c>
       <c r="P808" t="n">
-        <v>150000</v>
+        <v>13500</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>333</v>
+        <v>900</v>
       </c>
       <c r="T808" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65080,36 +65080,36 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N809" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O809" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P809" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S809" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T809" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65160,36 +65160,36 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="N810" t="n">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="O810" t="n">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="P810" t="n">
-        <v>130000</v>
+        <v>22000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S810" t="n">
-        <v>289</v>
+        <v>1222</v>
       </c>
       <c r="T810" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -65235,41 +65235,41 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N811" t="n">
-        <v>5000</v>
+        <v>29000</v>
       </c>
       <c r="O811" t="n">
-        <v>5000</v>
+        <v>29000</v>
       </c>
       <c r="P811" t="n">
-        <v>5000</v>
+        <v>29000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>333</v>
+        <v>1208</v>
       </c>
       <c r="T811" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="812">
@@ -65320,20 +65320,20 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N812" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O812" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P812" t="n">
-        <v>10000</v>
+        <v>7571</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>667</v>
+        <v>505</v>
       </c>
       <c r="T812" t="n">
         <v>15</v>
@@ -65395,41 +65395,41 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N813" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="O813" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="P813" t="n">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1667</v>
+        <v>333</v>
       </c>
       <c r="T813" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -65480,36 +65480,36 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="N814" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O814" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P814" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T814" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -65555,29 +65555,29 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="N815" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
       <c r="O815" t="n">
-        <v>7000</v>
+        <v>130000</v>
       </c>
       <c r="P815" t="n">
-        <v>6455</v>
+        <v>130000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65586,10 +65586,10 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>430</v>
+        <v>289</v>
       </c>
       <c r="T815" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="816">
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -65635,41 +65635,41 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N816" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="O816" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="P816" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>2083</v>
+        <v>333</v>
       </c>
       <c r="T816" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -65720,20 +65720,20 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="N817" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O817" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P817" t="n">
-        <v>6556</v>
+        <v>10000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="T817" t="n">
         <v>15</v>
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -65795,41 +65795,41 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N818" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="O818" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="P818" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>333</v>
+        <v>1667</v>
       </c>
       <c r="T818" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -65880,36 +65880,36 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P819" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T819" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -65955,29 +65955,29 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="N820" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O820" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P820" t="n">
-        <v>10000</v>
+        <v>6455</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="T820" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -66044,7 +66044,7 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N821" t="n">
         <v>50000</v>
@@ -66062,7 +66062,7 @@
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S821" t="n">
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66124,16 +66124,16 @@
         </is>
       </c>
       <c r="M822" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="N822" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O822" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P822" t="n">
-        <v>15492</v>
+        <v>6556</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66146,7 +66146,7 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>1033</v>
+        <v>437</v>
       </c>
       <c r="T822" t="n">
         <v>15</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -66204,16 +66204,16 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N823" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O823" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P823" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T823" t="n">
         <v>15</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -66280,20 +66280,20 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N824" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O824" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P824" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66306,7 +66306,7 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>1067</v>
+        <v>667</v>
       </c>
       <c r="T824" t="n">
         <v>15</v>
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -66360,24 +66360,24 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N825" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O825" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P825" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T825" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66435,7 +66435,7 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
@@ -66444,16 +66444,16 @@
         </is>
       </c>
       <c r="M826" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="N826" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="O826" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P826" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
@@ -66462,11 +66462,11 @@
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>1667</v>
+        <v>2083</v>
       </c>
       <c r="T826" t="n">
         <v>24</v>
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -66524,16 +66524,16 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="N827" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O827" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P827" t="n">
-        <v>7545</v>
+        <v>15492</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>503</v>
+        <v>1033</v>
       </c>
       <c r="T827" t="n">
         <v>15</v>
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -66604,20 +66604,20 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="N828" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="O828" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="P828" t="n">
-        <v>140000</v>
+        <v>15000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>311</v>
+        <v>1000</v>
       </c>
       <c r="T828" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -66680,20 +66680,20 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N829" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O829" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P829" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>400</v>
+        <v>1067</v>
       </c>
       <c r="T829" t="n">
         <v>15</v>
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N830" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O830" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="P830" t="n">
-        <v>5273</v>
+        <v>15000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>352</v>
+        <v>1000</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -66835,41 +66835,41 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="N831" t="n">
-        <v>19500</v>
+        <v>40000</v>
       </c>
       <c r="O831" t="n">
-        <v>19500</v>
+        <v>40000</v>
       </c>
       <c r="P831" t="n">
-        <v>19500</v>
+        <v>40000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>1300</v>
+        <v>1667</v>
       </c>
       <c r="T831" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66920,36 +66920,36 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N832" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O832" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P832" t="n">
-        <v>25000</v>
+        <v>7545</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>1389</v>
+        <v>503</v>
       </c>
       <c r="T832" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67000,24 +67000,24 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>410</v>
+        <v>5</v>
       </c>
       <c r="N833" t="n">
-        <v>22000</v>
+        <v>140000</v>
       </c>
       <c r="O833" t="n">
-        <v>22000</v>
+        <v>140000</v>
       </c>
       <c r="P833" t="n">
-        <v>22000</v>
+        <v>140000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
@@ -67026,10 +67026,10 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>1222</v>
+        <v>311</v>
       </c>
       <c r="T833" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67080,20 +67080,20 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N834" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O834" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P834" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
@@ -67106,7 +67106,7 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T834" t="n">
         <v>15</v>
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67160,24 +67160,24 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N835" t="n">
-        <v>19500</v>
+        <v>5000</v>
       </c>
       <c r="O835" t="n">
-        <v>19500</v>
+        <v>5500</v>
       </c>
       <c r="P835" t="n">
-        <v>19500</v>
+        <v>5273</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>1300</v>
+        <v>352</v>
       </c>
       <c r="T835" t="n">
         <v>15</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67244,20 +67244,20 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="N836" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="O836" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="P836" t="n">
-        <v>22615</v>
+        <v>19500</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
@@ -67266,10 +67266,10 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>1256</v>
+        <v>1300</v>
       </c>
       <c r="T836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67320,36 +67320,36 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="N837" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="O837" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P837" t="n">
-        <v>6556</v>
+        <v>25000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>437</v>
+        <v>1389</v>
       </c>
       <c r="T837" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67400,24 +67400,24 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="N838" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="O838" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="P838" t="n">
-        <v>135000</v>
+        <v>22000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
@@ -67426,10 +67426,10 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>300</v>
+        <v>1222</v>
       </c>
       <c r="T838" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -67480,24 +67480,24 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N839" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O839" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P839" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="T839" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -67560,24 +67560,24 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="N840" t="n">
-        <v>5000</v>
+        <v>19500</v>
       </c>
       <c r="O840" t="n">
-        <v>6000</v>
+        <v>19500</v>
       </c>
       <c r="P840" t="n">
-        <v>5405</v>
+        <v>19500</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
@@ -67586,7 +67586,7 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>360</v>
+        <v>1300</v>
       </c>
       <c r="T840" t="n">
         <v>15</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67640,24 +67640,24 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="N841" t="n">
-        <v>112500</v>
+        <v>22000</v>
       </c>
       <c r="O841" t="n">
-        <v>112500</v>
+        <v>23500</v>
       </c>
       <c r="P841" t="n">
-        <v>112500</v>
+        <v>22615</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
@@ -67666,10 +67666,10 @@
         </is>
       </c>
       <c r="S841" t="n">
-        <v>250</v>
+        <v>1256</v>
       </c>
       <c r="T841" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="842">
@@ -67720,24 +67720,24 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="N842" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O842" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P842" t="n">
-        <v>4000</v>
+        <v>6556</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
@@ -67746,7 +67746,7 @@
         </is>
       </c>
       <c r="S842" t="n">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="T842" t="n">
         <v>15</v>
@@ -67800,24 +67800,24 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N843" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="O843" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="P843" t="n">
-        <v>10000</v>
+        <v>135000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,10 +67826,10 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>556</v>
+        <v>300</v>
       </c>
       <c r="T843" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="844">
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67880,24 +67880,24 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="N844" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O844" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P844" t="n">
-        <v>21446</v>
+        <v>8000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
@@ -67906,10 +67906,10 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>1430</v>
+        <v>444</v>
       </c>
       <c r="T844" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -67955,41 +67955,41 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N845" t="n">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="O845" t="n">
-        <v>35000</v>
+        <v>6000</v>
       </c>
       <c r="P845" t="n">
-        <v>35000</v>
+        <v>5405</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>1458</v>
+        <v>360</v>
       </c>
       <c r="T845" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68040,24 +68040,24 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="N846" t="n">
-        <v>6000</v>
+        <v>112500</v>
       </c>
       <c r="O846" t="n">
-        <v>7000</v>
+        <v>112500</v>
       </c>
       <c r="P846" t="n">
-        <v>6625</v>
+        <v>112500</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
@@ -68066,10 +68066,10 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>442</v>
+        <v>250</v>
       </c>
       <c r="T846" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="847">
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68124,20 +68124,20 @@
         </is>
       </c>
       <c r="M847" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="N847" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O847" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P847" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
@@ -68146,7 +68146,7 @@
         </is>
       </c>
       <c r="S847" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T847" t="n">
         <v>15</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68204,20 +68204,20 @@
         </is>
       </c>
       <c r="M848" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N848" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O848" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P848" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -68226,10 +68226,10 @@
         </is>
       </c>
       <c r="S848" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T848" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68280,20 +68280,20 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N849" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O849" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P849" t="n">
-        <v>18000</v>
+        <v>21446</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
@@ -68306,7 +68306,7 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>1200</v>
+        <v>1430</v>
       </c>
       <c r="T849" t="n">
         <v>15</v>
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -68355,41 +68355,41 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M850" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="N850" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="O850" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="P850" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>1200</v>
+        <v>1458</v>
       </c>
       <c r="T850" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -68440,24 +68440,24 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N851" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O851" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P851" t="n">
-        <v>18000</v>
+        <v>6625</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
@@ -68466,7 +68466,7 @@
         </is>
       </c>
       <c r="S851" t="n">
-        <v>1200</v>
+        <v>442</v>
       </c>
       <c r="T851" t="n">
         <v>15</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -68520,20 +68520,20 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N852" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O852" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P852" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
@@ -68546,7 +68546,7 @@
         </is>
       </c>
       <c r="S852" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T852" t="n">
         <v>15</v>
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -68600,20 +68600,20 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N853" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O853" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="P853" t="n">
-        <v>18278</v>
+        <v>8000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
@@ -68626,7 +68626,7 @@
         </is>
       </c>
       <c r="S853" t="n">
-        <v>1219</v>
+        <v>533</v>
       </c>
       <c r="T853" t="n">
         <v>15</v>
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -68680,11 +68680,11 @@
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="N854" t="n">
         <v>18000</v>
@@ -68697,7 +68697,7 @@
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -68760,24 +68760,24 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N855" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O855" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P855" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
@@ -68786,7 +68786,7 @@
         </is>
       </c>
       <c r="S855" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T855" t="n">
         <v>15</v>
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -68840,24 +68840,24 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="N856" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O856" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P856" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
@@ -68866,7 +68866,7 @@
         </is>
       </c>
       <c r="S856" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T856" t="n">
         <v>15</v>
@@ -68920,24 +68920,24 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="N857" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O857" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P857" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
@@ -68946,7 +68946,7 @@
         </is>
       </c>
       <c r="S857" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T857" t="n">
         <v>15</v>
@@ -69000,36 +69000,36 @@
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>215</v>
+        <v>450</v>
       </c>
       <c r="N858" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O858" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="P858" t="n">
-        <v>24000</v>
+        <v>18278</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1333</v>
+        <v>1219</v>
       </c>
       <c r="T858" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="859">
@@ -69080,24 +69080,24 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N859" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O859" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P859" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
@@ -69106,7 +69106,7 @@
         </is>
       </c>
       <c r="S859" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T859" t="n">
         <v>15</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -69160,24 +69160,24 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N860" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O860" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P860" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
@@ -69186,10 +69186,10 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="T860" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -69240,24 +69240,24 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="N861" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O861" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P861" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
@@ -69266,10 +69266,10 @@
         </is>
       </c>
       <c r="S861" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="T861" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="862">
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -69320,20 +69320,20 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="N862" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O862" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P862" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
@@ -69346,7 +69346,7 @@
         </is>
       </c>
       <c r="S862" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T862" t="n">
         <v>15</v>
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -69400,36 +69400,36 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="N863" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O863" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P863" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="T863" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -69480,20 +69480,20 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="N864" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="O864" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="P864" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
@@ -69506,7 +69506,7 @@
         </is>
       </c>
       <c r="S864" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T864" t="n">
         <v>15</v>
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -69560,24 +69560,24 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N865" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O865" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P865" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
@@ -69586,10 +69586,10 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="T865" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="866">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -69640,24 +69640,24 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N866" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O866" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P866" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
@@ -69666,10 +69666,10 @@
         </is>
       </c>
       <c r="S866" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="T866" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="867">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -69720,36 +69720,36 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="N867" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O867" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P867" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>1222</v>
+        <v>533</v>
       </c>
       <c r="T867" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="868">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -69804,32 +69804,32 @@
         </is>
       </c>
       <c r="M868" t="n">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="N868" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O868" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P868" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T868" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="869">
@@ -69875,41 +69875,41 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="N869" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O869" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P869" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T869" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="870">
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -69955,25 +69955,25 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="N870" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="O870" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="P870" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69982,11 +69982,11 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>1667</v>
+        <v>900</v>
       </c>
       <c r="T870" t="n">
         <v>15</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -70040,24 +70040,24 @@
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="N871" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O871" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P871" t="n">
-        <v>15833</v>
+        <v>13500</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
@@ -70066,7 +70066,7 @@
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1056</v>
+        <v>900</v>
       </c>
       <c r="T871" t="n">
         <v>15</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -70120,33 +70120,33 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N872" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O872" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P872" t="n">
-        <v>14671</v>
+        <v>22000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>815</v>
+        <v>1222</v>
       </c>
       <c r="T872" t="n">
         <v>18</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -70200,36 +70200,36 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>460</v>
+        <v>355</v>
       </c>
       <c r="N873" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="O873" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P873" t="n">
-        <v>13728</v>
+        <v>22000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>915</v>
+        <v>1222</v>
       </c>
       <c r="T873" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -70275,7 +70275,7 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
@@ -70284,20 +70284,20 @@
         </is>
       </c>
       <c r="M874" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N874" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O874" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P874" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
@@ -70306,10 +70306,10 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>1458</v>
+        <v>1222</v>
       </c>
       <c r="T874" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -70355,25 +70355,25 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="N875" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="O875" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P875" t="n">
-        <v>6417</v>
+        <v>25000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70382,11 +70382,11 @@
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>428</v>
+        <v>1667</v>
       </c>
       <c r="T875" t="n">
         <v>15</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -70440,24 +70440,24 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="N876" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O876" t="n">
-        <v>150000</v>
+        <v>16500</v>
       </c>
       <c r="P876" t="n">
-        <v>150000</v>
+        <v>15833</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
@@ -70466,10 +70466,10 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>333</v>
+        <v>1056</v>
       </c>
       <c r="T876" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -70520,33 +70520,33 @@
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N877" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O877" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P877" t="n">
-        <v>8000</v>
+        <v>14671</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>444</v>
+        <v>815</v>
       </c>
       <c r="T877" t="n">
         <v>18</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -70600,20 +70600,20 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="N878" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="O878" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P878" t="n">
-        <v>5000</v>
+        <v>13728</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70626,7 +70626,7 @@
         </is>
       </c>
       <c r="S878" t="n">
-        <v>333</v>
+        <v>915</v>
       </c>
       <c r="T878" t="n">
         <v>15</v>
@@ -70647,68 +70647,468 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E879" t="n">
+        <v>9</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M879" t="n">
+        <v>30</v>
+      </c>
+      <c r="N879" t="n">
+        <v>35000</v>
+      </c>
+      <c r="O879" t="n">
+        <v>35000</v>
+      </c>
+      <c r="P879" t="n">
+        <v>35000</v>
+      </c>
+      <c r="Q879" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S879" t="n">
+        <v>1458</v>
+      </c>
+      <c r="T879" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>10</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D880" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E879" t="n">
-        <v>9</v>
-      </c>
-      <c r="F879" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G879" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I879" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J879" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K879" t="inlineStr">
+      <c r="E880" t="n">
+        <v>9</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M880" t="n">
+        <v>240</v>
+      </c>
+      <c r="N880" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O880" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P880" t="n">
+        <v>6417</v>
+      </c>
+      <c r="Q880" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S880" t="n">
+        <v>428</v>
+      </c>
+      <c r="T880" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>10</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E881" t="n">
+        <v>9</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M881" t="n">
+        <v>10</v>
+      </c>
+      <c r="N881" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O881" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P881" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q881" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S881" t="n">
+        <v>333</v>
+      </c>
+      <c r="T881" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>10</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D882" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E882" t="n">
+        <v>9</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G882" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I882" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M882" t="n">
+        <v>200</v>
+      </c>
+      <c r="N882" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O882" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P882" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q882" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R882" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S882" t="n">
+        <v>444</v>
+      </c>
+      <c r="T882" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>10</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D883" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E883" t="n">
+        <v>9</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G883" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I883" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M883" t="n">
+        <v>50</v>
+      </c>
+      <c r="N883" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O883" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P883" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q883" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R883" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S883" t="n">
+        <v>333</v>
+      </c>
+      <c r="T883" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>10</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D884" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E884" t="n">
+        <v>9</v>
+      </c>
+      <c r="F884" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G884" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I884" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K884" t="inlineStr">
         <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L879" t="inlineStr">
+      <c r="L884" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M879" t="n">
+      <c r="M884" t="n">
         <v>40</v>
       </c>
-      <c r="N879" t="n">
+      <c r="N884" t="n">
         <v>30000</v>
       </c>
-      <c r="O879" t="n">
+      <c r="O884" t="n">
         <v>30000</v>
       </c>
-      <c r="P879" t="n">
+      <c r="P884" t="n">
         <v>30000</v>
       </c>
-      <c r="Q879" t="inlineStr">
+      <c r="Q884" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R879" t="inlineStr">
+      <c r="R884" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S879" t="n">
+      <c r="S884" t="n">
         <v>1667</v>
       </c>
-      <c r="T879" t="n">
+      <c r="T884" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T907"/>
+  <dimension ref="A1:T913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62204,16 +62204,16 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="N773" t="n">
         <v>7000</v>
       </c>
       <c r="O773" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P773" t="n">
-        <v>7162</v>
+        <v>7524</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N774" t="n">
-        <v>120000</v>
+        <v>170000</v>
       </c>
       <c r="O774" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="P774" t="n">
-        <v>124545</v>
+        <v>170000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="T774" t="n">
         <v>450</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62364,20 +62364,20 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="N775" t="n">
-        <v>5700</v>
+        <v>11000</v>
       </c>
       <c r="O775" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P775" t="n">
-        <v>5803</v>
+        <v>11455</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>387</v>
+        <v>636</v>
       </c>
       <c r="T775" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62440,24 +62440,24 @@
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N776" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O776" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P776" t="n">
-        <v>19556</v>
+        <v>8500</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
@@ -62466,10 +62466,10 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1304</v>
+        <v>472</v>
       </c>
       <c r="T776" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62520,20 +62520,20 @@
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N777" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O777" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P777" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T777" t="n">
         <v>15</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62595,41 +62595,41 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N778" t="n">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="O778" t="n">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="P778" t="n">
-        <v>6000</v>
+        <v>80000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>400</v>
+        <v>3333</v>
       </c>
       <c r="T778" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62680,24 +62680,24 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="N779" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O779" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P779" t="n">
-        <v>11000</v>
+        <v>7162</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>611</v>
+        <v>477</v>
       </c>
       <c r="T779" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62755,41 +62755,41 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="N780" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="O780" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="P780" t="n">
-        <v>90000</v>
+        <v>124545</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>3750</v>
+        <v>277</v>
       </c>
       <c r="T780" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44425</v>
+        <v>44384</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62844,32 +62844,32 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="N781" t="n">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="O781" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P781" t="n">
-        <v>9000</v>
+        <v>5803</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>500</v>
+        <v>387</v>
       </c>
       <c r="T781" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="N782" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O782" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P782" t="n">
-        <v>6455</v>
+        <v>19556</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>430</v>
+        <v>1304</v>
       </c>
       <c r="T782" t="n">
         <v>15</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -62995,41 +62995,41 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="N783" t="n">
-        <v>50000</v>
+        <v>7000</v>
       </c>
       <c r="O783" t="n">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="P783" t="n">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>2083</v>
+        <v>500</v>
       </c>
       <c r="T783" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -63080,24 +63080,24 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N784" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="T784" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63160,24 +63160,24 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N785" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O785" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P785" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T785" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -63235,41 +63235,41 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="N786" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
       <c r="O786" t="n">
-        <v>12000</v>
+        <v>90000</v>
       </c>
       <c r="P786" t="n">
-        <v>11111</v>
+        <v>90000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>741</v>
+        <v>3750</v>
       </c>
       <c r="T786" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63315,38 +63315,38 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="N787" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O787" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P787" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>1333</v>
+        <v>500</v>
       </c>
       <c r="T787" t="n">
         <v>18</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -63404,32 +63404,32 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="N788" t="n">
-        <v>37000</v>
+        <v>6000</v>
       </c>
       <c r="O788" t="n">
-        <v>37000</v>
+        <v>7000</v>
       </c>
       <c r="P788" t="n">
-        <v>37000</v>
+        <v>6455</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>1542</v>
+        <v>430</v>
       </c>
       <c r="T788" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -63475,41 +63475,41 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="N789" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="O789" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="P789" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>467</v>
+        <v>2083</v>
       </c>
       <c r="T789" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63564,20 +63564,20 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="N790" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="O790" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="P790" t="n">
-        <v>200000</v>
+        <v>14000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T790" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63640,11 +63640,11 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="N791" t="n">
         <v>12000</v>
@@ -63657,7 +63657,7 @@
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
@@ -63666,10 +63666,10 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T791" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="792">
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -63720,24 +63720,24 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>155</v>
+        <v>450</v>
       </c>
       <c r="N792" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O792" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P792" t="n">
-        <v>5000</v>
+        <v>11111</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>333</v>
+        <v>741</v>
       </c>
       <c r="T792" t="n">
         <v>15</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -63795,41 +63795,41 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="N793" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O793" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P793" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>467</v>
+        <v>1333</v>
       </c>
       <c r="T793" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="N794" t="n">
-        <v>130000</v>
+        <v>37000</v>
       </c>
       <c r="O794" t="n">
-        <v>130000</v>
+        <v>37000</v>
       </c>
       <c r="P794" t="n">
-        <v>130000</v>
+        <v>37000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>289</v>
+        <v>1542</v>
       </c>
       <c r="T794" t="n">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N795" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O795" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P795" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="T795" t="n">
         <v>15</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -64040,24 +64040,24 @@
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N796" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="O796" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="P796" t="n">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,10 +64066,10 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T796" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -64124,20 +64124,20 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="N797" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O797" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P797" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
@@ -64146,10 +64146,10 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T797" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -64200,24 +64200,24 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="N798" t="n">
-        <v>292000</v>
+        <v>5000</v>
       </c>
       <c r="O798" t="n">
-        <v>315000</v>
+        <v>5000</v>
       </c>
       <c r="P798" t="n">
-        <v>303500</v>
+        <v>5000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
@@ -64226,10 +64226,10 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>674</v>
+        <v>333</v>
       </c>
       <c r="T798" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -64284,20 +64284,20 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N799" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O799" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P799" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
@@ -64306,10 +64306,10 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>833</v>
+        <v>467</v>
       </c>
       <c r="T799" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -64364,20 +64364,20 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="N800" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O800" t="n">
-        <v>11000</v>
+        <v>130000</v>
       </c>
       <c r="P800" t="n">
-        <v>10500</v>
+        <v>130000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>700</v>
+        <v>289</v>
       </c>
       <c r="T800" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -64440,20 +64440,20 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N801" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="O801" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P801" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>733</v>
+        <v>267</v>
       </c>
       <c r="T801" t="n">
         <v>15</v>
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -64520,24 +64520,24 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="N802" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O802" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P802" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T802" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -64604,20 +64604,20 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N803" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O803" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P803" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64626,10 +64626,10 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T803" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64684,20 +64684,20 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="N804" t="n">
-        <v>12000</v>
+        <v>292000</v>
       </c>
       <c r="O804" t="n">
-        <v>12000</v>
+        <v>315000</v>
       </c>
       <c r="P804" t="n">
-        <v>12000</v>
+        <v>303500</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>800</v>
+        <v>674</v>
       </c>
       <c r="T804" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64760,24 +64760,24 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="N805" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O805" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P805" t="n">
-        <v>12315</v>
+        <v>15000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
@@ -64786,10 +64786,10 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="T805" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64840,24 +64840,24 @@
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="N806" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O806" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P806" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T806" t="n">
         <v>15</v>
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -64920,24 +64920,24 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N807" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O807" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P807" t="n">
-        <v>7571</v>
+        <v>11000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,7 +64946,7 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>505</v>
+        <v>733</v>
       </c>
       <c r="T807" t="n">
         <v>15</v>
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65004,20 +65004,20 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="N808" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O808" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P808" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T808" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65080,24 +65080,24 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="N809" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O809" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P809" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="T809" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65160,24 +65160,24 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="N810" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O810" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P810" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>289</v>
+        <v>800</v>
       </c>
       <c r="T810" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -65240,20 +65240,20 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="N811" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O811" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P811" t="n">
-        <v>5000</v>
+        <v>12315</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>333</v>
+        <v>821</v>
       </c>
       <c r="T811" t="n">
         <v>15</v>
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -65320,20 +65320,20 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="N812" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O812" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P812" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
@@ -65346,7 +65346,7 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T812" t="n">
         <v>15</v>
@@ -65395,41 +65395,41 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="N813" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="O813" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="P813" t="n">
-        <v>30000</v>
+        <v>7571</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1667</v>
+        <v>505</v>
       </c>
       <c r="T813" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="814">
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -65484,20 +65484,20 @@
         </is>
       </c>
       <c r="M814" t="n">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="N814" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="O814" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="P814" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
@@ -65506,10 +65506,10 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T814" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -65560,20 +65560,20 @@
       </c>
       <c r="L815" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M815" t="n">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="N815" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O815" t="n">
-        <v>18500</v>
+        <v>6000</v>
       </c>
       <c r="P815" t="n">
-        <v>18278</v>
+        <v>6000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>1219</v>
+        <v>400</v>
       </c>
       <c r="T815" t="n">
         <v>15</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -65640,24 +65640,24 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="N816" t="n">
-        <v>18000</v>
+        <v>130000</v>
       </c>
       <c r="O816" t="n">
-        <v>18000</v>
+        <v>130000</v>
       </c>
       <c r="P816" t="n">
-        <v>18000</v>
+        <v>130000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -65666,10 +65666,10 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>1200</v>
+        <v>289</v>
       </c>
       <c r="T816" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="817">
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -65724,20 +65724,20 @@
         </is>
       </c>
       <c r="M817" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N817" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O817" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P817" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T817" t="n">
         <v>15</v>
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -65800,20 +65800,20 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="N818" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O818" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P818" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T818" t="n">
         <v>15</v>
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -65875,41 +65875,41 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="N819" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O819" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P819" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1000</v>
+        <v>1667</v>
       </c>
       <c r="T819" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="820">
@@ -65960,36 +65960,36 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="N820" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O820" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P820" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T820" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="821">
@@ -66040,20 +66040,20 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M821" t="n">
         <v>450</v>
       </c>
       <c r="N821" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O821" t="n">
-        <v>22500</v>
+        <v>18500</v>
       </c>
       <c r="P821" t="n">
-        <v>22500</v>
+        <v>18278</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1500</v>
+        <v>1219</v>
       </c>
       <c r="T821" t="n">
         <v>15</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66120,24 +66120,24 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M822" t="n">
         <v>380</v>
       </c>
       <c r="N822" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O822" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P822" t="n">
-        <v>7474</v>
+        <v>18000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,7 +66146,7 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>498</v>
+        <v>1200</v>
       </c>
       <c r="T822" t="n">
         <v>15</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -66200,24 +66200,24 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="N823" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="O823" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P823" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
@@ -66226,10 +66226,10 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T823" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="824">
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -66280,20 +66280,20 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="N824" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O824" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P824" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66306,7 +66306,7 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T824" t="n">
         <v>15</v>
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -66360,24 +66360,24 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N825" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O825" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P825" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T825" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66440,36 +66440,36 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M826" t="n">
         <v>215</v>
       </c>
       <c r="N826" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O826" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P826" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>533</v>
+        <v>1333</v>
       </c>
       <c r="T826" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N827" t="n">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="O827" t="n">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="P827" t="n">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="T827" t="n">
         <v>15</v>
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -66604,7 +66604,7 @@
         </is>
       </c>
       <c r="M828" t="n">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="N828" t="n">
         <v>7000</v>
@@ -66613,7 +66613,7 @@
         <v>8000</v>
       </c>
       <c r="P828" t="n">
-        <v>7532</v>
+        <v>7474</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T828" t="n">
         <v>15</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -66684,32 +66684,32 @@
         </is>
       </c>
       <c r="M829" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="N829" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="O829" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="P829" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="T829" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -66767,13 +66767,13 @@
         <v>80</v>
       </c>
       <c r="N830" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O830" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P830" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -66840,24 +66840,24 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P831" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
@@ -66866,10 +66866,10 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T831" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66920,20 +66920,20 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="N832" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O832" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P832" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
@@ -66946,7 +66946,7 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T832" t="n">
         <v>15</v>
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67000,20 +67000,20 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N833" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O833" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P833" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T833" t="n">
         <v>15</v>
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67084,32 +67084,32 @@
         </is>
       </c>
       <c r="M834" t="n">
+        <v>235</v>
+      </c>
+      <c r="N834" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O834" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P834" t="n">
+        <v>7532</v>
+      </c>
+      <c r="Q834" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S834" t="n">
+        <v>502</v>
+      </c>
+      <c r="T834" t="n">
         <v>15</v>
-      </c>
-      <c r="N834" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O834" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P834" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q834" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R834" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S834" t="n">
-        <v>333</v>
-      </c>
-      <c r="T834" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67160,11 +67160,11 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N835" t="n">
         <v>11000</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67235,41 +67235,41 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N836" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="O836" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="P836" t="n">
-        <v>70000</v>
+        <v>12000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>2917</v>
+        <v>800</v>
       </c>
       <c r="T836" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67320,24 +67320,24 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
@@ -67346,7 +67346,7 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T837" t="n">
         <v>15</v>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67400,20 +67400,20 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N838" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O838" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P838" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67426,7 +67426,7 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T838" t="n">
         <v>15</v>
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -67480,24 +67480,24 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="N839" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O839" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P839" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T839" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -67560,36 +67560,36 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="N840" t="n">
-        <v>16500</v>
+        <v>150000</v>
       </c>
       <c r="O840" t="n">
-        <v>16500</v>
+        <v>150000</v>
       </c>
       <c r="P840" t="n">
-        <v>16500</v>
+        <v>150000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S840" t="n">
-        <v>1100</v>
+        <v>333</v>
       </c>
       <c r="T840" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67640,36 +67640,36 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="N841" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O841" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P841" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>1000</v>
+        <v>611</v>
       </c>
       <c r="T841" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="842">
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -67715,41 +67715,41 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="N842" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="O842" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="P842" t="n">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>1000</v>
+        <v>2917</v>
       </c>
       <c r="T842" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -67800,24 +67800,24 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N843" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O843" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P843" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,7 +67826,7 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>867</v>
+        <v>733</v>
       </c>
       <c r="T843" t="n">
         <v>15</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67880,24 +67880,24 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="N844" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O844" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P844" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
@@ -67906,7 +67906,7 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T844" t="n">
         <v>15</v>
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -67960,24 +67960,24 @@
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="N845" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="O845" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="P845" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
@@ -67986,10 +67986,10 @@
         </is>
       </c>
       <c r="S845" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T845" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68040,36 +68040,36 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N846" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O846" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="P846" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>1222</v>
+        <v>1100</v>
       </c>
       <c r="T846" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="847">
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68115,29 +68115,29 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="N847" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O847" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P847" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
@@ -68146,10 +68146,10 @@
         </is>
       </c>
       <c r="S847" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="T847" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="848">
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68195,25 +68195,25 @@
       </c>
       <c r="K848" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="N848" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O848" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P848" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="T848" t="n">
         <v>15</v>
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68284,32 +68284,32 @@
         </is>
       </c>
       <c r="M849" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N849" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O849" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P849" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>1111</v>
+        <v>867</v>
       </c>
       <c r="T849" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -68364,16 +68364,16 @@
         </is>
       </c>
       <c r="M850" t="n">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="N850" t="n">
         <v>13000</v>
       </c>
       <c r="O850" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P850" t="n">
-        <v>13268</v>
+        <v>13000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68386,7 +68386,7 @@
         </is>
       </c>
       <c r="S850" t="n">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="T850" t="n">
         <v>15</v>
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -68440,24 +68440,24 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N851" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O851" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P851" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
@@ -68466,7 +68466,7 @@
         </is>
       </c>
       <c r="S851" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T851" t="n">
         <v>15</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -68515,41 +68515,41 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="N852" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O852" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P852" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>1458</v>
+        <v>1222</v>
       </c>
       <c r="T852" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -68595,41 +68595,41 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>380</v>
+        <v>185</v>
       </c>
       <c r="N853" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="O853" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="P853" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>1300</v>
+        <v>722</v>
       </c>
       <c r="T853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -68675,16 +68675,16 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="N854" t="n">
         <v>25000</v>
@@ -68697,19 +68697,19 @@
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T854" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="855">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -68760,33 +68760,33 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N855" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O855" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P855" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>1222</v>
+        <v>1111</v>
       </c>
       <c r="T855" t="n">
         <v>18</v>
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -68840,24 +68840,24 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>110</v>
+        <v>345</v>
       </c>
       <c r="N856" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O856" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P856" t="n">
-        <v>18000</v>
+        <v>13268</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
@@ -68866,7 +68866,7 @@
         </is>
       </c>
       <c r="S856" t="n">
-        <v>1200</v>
+        <v>885</v>
       </c>
       <c r="T856" t="n">
         <v>15</v>
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -68920,24 +68920,24 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N857" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O857" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P857" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
@@ -68946,7 +68946,7 @@
         </is>
       </c>
       <c r="S857" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T857" t="n">
         <v>15</v>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -68995,41 +68995,41 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N858" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O858" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P858" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1278</v>
+        <v>1458</v>
       </c>
       <c r="T858" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -69080,20 +69080,20 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N859" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O859" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="P859" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69106,7 +69106,7 @@
         </is>
       </c>
       <c r="S859" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T859" t="n">
         <v>15</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -69160,33 +69160,33 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="N860" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O860" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P860" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="T860" t="n">
         <v>18</v>
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -69240,24 +69240,24 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="N861" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O861" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P861" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
@@ -69266,10 +69266,10 @@
         </is>
       </c>
       <c r="S861" t="n">
-        <v>1533</v>
+        <v>1222</v>
       </c>
       <c r="T861" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="862">
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -69320,36 +69320,36 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>350</v>
+        <v>110</v>
       </c>
       <c r="N862" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O862" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P862" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1389</v>
+        <v>1200</v>
       </c>
       <c r="T862" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -69400,20 +69400,20 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N863" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O863" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P863" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69422,11 +69422,11 @@
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>1467</v>
+        <v>1000</v>
       </c>
       <c r="T863" t="n">
         <v>15</v>
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -69480,36 +69480,36 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N864" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O864" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P864" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>1467</v>
+        <v>1278</v>
       </c>
       <c r="T864" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -69560,33 +69560,33 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="N865" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O865" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="P865" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>1333</v>
+        <v>900</v>
       </c>
       <c r="T865" t="n">
         <v>15</v>
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -69635,7 +69635,7 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -69644,16 +69644,16 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N866" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O866" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P866" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="T866" t="n">
         <v>18</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -69724,16 +69724,16 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="N867" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="O867" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="P867" t="n">
-        <v>6476</v>
+        <v>23000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>432</v>
+        <v>1533</v>
       </c>
       <c r="T867" t="n">
         <v>15</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -69804,32 +69804,32 @@
         </is>
       </c>
       <c r="M868" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N868" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="O868" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="P868" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>267</v>
+        <v>1389</v>
       </c>
       <c r="T868" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -69880,20 +69880,20 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N869" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="O869" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P869" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69902,11 +69902,11 @@
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>333</v>
+        <v>1467</v>
       </c>
       <c r="T869" t="n">
         <v>15</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -69960,36 +69960,36 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N870" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O870" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P870" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>556</v>
+        <v>1467</v>
       </c>
       <c r="T870" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="871">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -70035,41 +70035,41 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="N871" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O871" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P871" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1875</v>
+        <v>1333</v>
       </c>
       <c r="T871" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -70115,41 +70115,41 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N872" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O872" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P872" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>1875</v>
+        <v>1111</v>
       </c>
       <c r="T872" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -70204,16 +70204,16 @@
         </is>
       </c>
       <c r="M873" t="n">
-        <v>155</v>
+        <v>420</v>
       </c>
       <c r="N873" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O873" t="n">
         <v>7000</v>
       </c>
       <c r="P873" t="n">
-        <v>7000</v>
+        <v>6476</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70226,7 +70226,7 @@
         </is>
       </c>
       <c r="S873" t="n">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="T873" t="n">
         <v>15</v>
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -70284,20 +70284,20 @@
         </is>
       </c>
       <c r="M874" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N874" t="n">
-        <v>9000</v>
+        <v>120000</v>
       </c>
       <c r="O874" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P874" t="n">
-        <v>9591</v>
+        <v>120000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
@@ -70306,10 +70306,10 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="T874" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -70360,24 +70360,24 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="N875" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O875" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P875" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="T875" t="n">
         <v>15</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -70440,24 +70440,24 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="N876" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O876" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P876" t="n">
-        <v>19042</v>
+        <v>10000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
@@ -70466,10 +70466,10 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>1269</v>
+        <v>556</v>
       </c>
       <c r="T876" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="N877" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="O877" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="P877" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>1222</v>
+        <v>1875</v>
       </c>
       <c r="T877" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="878">
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -70595,41 +70595,41 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="N878" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O878" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P878" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>1000</v>
+        <v>1875</v>
       </c>
       <c r="T878" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="879">
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -70680,20 +70680,20 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N879" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O879" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P879" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
@@ -70702,11 +70702,11 @@
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>1333</v>
+        <v>467</v>
       </c>
       <c r="T879" t="n">
         <v>15</v>
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -70760,36 +70760,36 @@
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N880" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O880" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P880" t="n">
-        <v>13000</v>
+        <v>9591</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T880" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="881">
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -70840,33 +70840,33 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="N881" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O881" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P881" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>1200</v>
+        <v>433</v>
       </c>
       <c r="T881" t="n">
         <v>15</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70920,36 +70920,36 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="N882" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O882" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P882" t="n">
-        <v>21000</v>
+        <v>19042</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>1167</v>
+        <v>1269</v>
       </c>
       <c r="T882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -70995,41 +70995,41 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="N883" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="O883" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P883" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="T883" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -71084,16 +71084,16 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="N884" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O884" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="P884" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
@@ -71102,11 +71102,11 @@
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>1233</v>
+        <v>1000</v>
       </c>
       <c r="T884" t="n">
         <v>15</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -71160,24 +71160,24 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="N885" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O885" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P885" t="n">
-        <v>23961</v>
+        <v>20000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
@@ -71186,10 +71186,10 @@
         </is>
       </c>
       <c r="S885" t="n">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="T885" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -71240,20 +71240,20 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="N886" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O886" t="n">
-        <v>18500</v>
+        <v>13000</v>
       </c>
       <c r="P886" t="n">
-        <v>18215</v>
+        <v>13000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71262,11 +71262,11 @@
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>1214</v>
+        <v>867</v>
       </c>
       <c r="T886" t="n">
         <v>15</v>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -71320,24 +71320,24 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N887" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O887" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P887" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
@@ -71346,10 +71346,10 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="888">
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -71400,33 +71400,33 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N888" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O888" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P888" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>1333</v>
+        <v>1167</v>
       </c>
       <c r="T888" t="n">
         <v>18</v>
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -71475,41 +71475,41 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="N889" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="O889" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="P889" t="n">
-        <v>6455</v>
+        <v>30000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>430</v>
+        <v>1250</v>
       </c>
       <c r="T889" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -71564,20 +71564,20 @@
         </is>
       </c>
       <c r="M890" t="n">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="N890" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="O890" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="P890" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
@@ -71586,10 +71586,10 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>444</v>
+        <v>1233</v>
       </c>
       <c r="T890" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="891">
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -71640,36 +71640,36 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="N891" t="n">
-        <v>100000</v>
+        <v>23000</v>
       </c>
       <c r="O891" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="P891" t="n">
-        <v>100000</v>
+        <v>23961</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>222</v>
+        <v>1331</v>
       </c>
       <c r="T891" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="892">
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -71720,20 +71720,20 @@
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="N892" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O892" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="P892" t="n">
-        <v>8000</v>
+        <v>18215</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71746,7 +71746,7 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>533</v>
+        <v>1214</v>
       </c>
       <c r="T892" t="n">
         <v>15</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -71795,38 +71795,38 @@
       </c>
       <c r="K893" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N893" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="O893" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="P893" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>1944</v>
+        <v>1333</v>
       </c>
       <c r="T893" t="n">
         <v>18</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -71880,36 +71880,36 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="N894" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O894" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P894" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="T894" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="895">
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -71964,20 +71964,20 @@
         </is>
       </c>
       <c r="M895" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="N895" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O895" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P895" t="n">
-        <v>13222</v>
+        <v>6455</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,7 +71986,7 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>881</v>
+        <v>430</v>
       </c>
       <c r="T895" t="n">
         <v>15</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -72040,24 +72040,24 @@
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N896" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O896" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P896" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
@@ -72066,10 +72066,10 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>933</v>
+        <v>444</v>
       </c>
       <c r="T896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="897">
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -72120,24 +72120,24 @@
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N897" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="O897" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="P897" t="n">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
@@ -72146,10 +72146,10 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>867</v>
+        <v>222</v>
       </c>
       <c r="T897" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -72200,20 +72200,20 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N898" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O898" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P898" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72226,7 +72226,7 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T898" t="n">
         <v>15</v>
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -72275,25 +72275,25 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="N899" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O899" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P899" t="n">
-        <v>14500</v>
+        <v>35000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72302,11 +72302,11 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>806</v>
+        <v>1944</v>
       </c>
       <c r="T899" t="n">
         <v>18</v>
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -72360,24 +72360,24 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N900" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O900" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P900" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
@@ -72386,7 +72386,7 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T900" t="n">
         <v>15</v>
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -72435,41 +72435,41 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N901" t="n">
-        <v>40000</v>
+        <v>13000</v>
       </c>
       <c r="O901" t="n">
-        <v>40000</v>
+        <v>13500</v>
       </c>
       <c r="P901" t="n">
-        <v>40000</v>
+        <v>13222</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>1667</v>
+        <v>881</v>
       </c>
       <c r="T901" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902">
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -72515,41 +72515,41 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="N902" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O902" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P902" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>1667</v>
+        <v>933</v>
       </c>
       <c r="T902" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -72600,24 +72600,24 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N903" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O903" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P903" t="n">
-        <v>7455</v>
+        <v>13000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
@@ -72626,7 +72626,7 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>497</v>
+        <v>867</v>
       </c>
       <c r="T903" t="n">
         <v>15</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72684,20 +72684,20 @@
         </is>
       </c>
       <c r="M904" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N904" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O904" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P904" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
@@ -72706,10 +72706,10 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T904" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="905">
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -72764,20 +72764,20 @@
         </is>
       </c>
       <c r="M905" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
       <c r="N905" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O905" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P905" t="n">
-        <v>7385</v>
+        <v>14500</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>492</v>
+        <v>806</v>
       </c>
       <c r="T905" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -72840,24 +72840,24 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N906" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O906" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P906" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,7 +72866,7 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T906" t="n">
         <v>15</v>
@@ -72887,68 +72887,548 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E907" t="n">
+        <v>9</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M907" t="n">
+        <v>80</v>
+      </c>
+      <c r="N907" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O907" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P907" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q907" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S907" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T907" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>10</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E908" t="n">
+        <v>9</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>Tahití</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M908" t="n">
+        <v>60</v>
+      </c>
+      <c r="N908" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O908" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P908" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q908" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S908" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T908" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>10</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E907" t="n">
-        <v>9</v>
-      </c>
-      <c r="F907" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G907" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H907" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I907" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J907" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L907" t="inlineStr">
+      <c r="E909" t="n">
+        <v>9</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M909" t="n">
+        <v>220</v>
+      </c>
+      <c r="N909" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O909" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P909" t="n">
+        <v>7455</v>
+      </c>
+      <c r="Q909" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S909" t="n">
+        <v>497</v>
+      </c>
+      <c r="T909" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>10</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E910" t="n">
+        <v>9</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M910" t="n">
+        <v>180</v>
+      </c>
+      <c r="N910" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O910" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P910" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q910" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R910" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S910" t="n">
+        <v>556</v>
+      </c>
+      <c r="T910" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>10</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D911" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E911" t="n">
+        <v>9</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I911" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M911" t="n">
+        <v>130</v>
+      </c>
+      <c r="N911" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O911" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P911" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q911" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R911" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S911" t="n">
+        <v>492</v>
+      </c>
+      <c r="T911" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>10</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D912" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E912" t="n">
+        <v>9</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I912" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M912" t="n">
+        <v>80</v>
+      </c>
+      <c r="N912" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O912" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P912" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q912" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R912" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S912" t="n">
+        <v>400</v>
+      </c>
+      <c r="T912" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>10</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D913" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E913" t="n">
+        <v>9</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I913" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
         <is>
           <t>Especial amarillo</t>
         </is>
       </c>
-      <c r="M907" t="n">
+      <c r="M913" t="n">
         <v>50</v>
       </c>
-      <c r="N907" t="n">
+      <c r="N913" t="n">
         <v>11000</v>
       </c>
-      <c r="O907" t="n">
+      <c r="O913" t="n">
         <v>11000</v>
       </c>
-      <c r="P907" t="n">
+      <c r="P913" t="n">
         <v>11000</v>
       </c>
-      <c r="Q907" t="inlineStr">
+      <c r="Q913" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R907" t="inlineStr">
+      <c r="R913" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S907" t="n">
+      <c r="S913" t="n">
         <v>611</v>
       </c>
-      <c r="T907" t="n">
+      <c r="T913" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T913"/>
+  <dimension ref="A1:T916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -63004,7 +63004,7 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="N783" t="n">
         <v>7000</v>
@@ -63013,7 +63013,7 @@
         <v>8000</v>
       </c>
       <c r="P783" t="n">
-        <v>7500</v>
+        <v>7526</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="T783" t="n">
         <v>15</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N784" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O784" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P784" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="N785" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O785" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P785" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T785" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -63235,41 +63235,41 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="N786" t="n">
-        <v>90000</v>
+        <v>7000</v>
       </c>
       <c r="O786" t="n">
-        <v>90000</v>
+        <v>8000</v>
       </c>
       <c r="P786" t="n">
-        <v>90000</v>
+        <v>7500</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>3750</v>
+        <v>500</v>
       </c>
       <c r="T786" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N787" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O787" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P787" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T787" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -63395,29 +63395,29 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="N788" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O788" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P788" t="n">
-        <v>6455</v>
+        <v>11000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,10 +63426,10 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="T788" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789">
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -63475,7 +63475,7 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N789" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="O789" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="P789" t="n">
-        <v>50000</v>
+        <v>90000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>2083</v>
+        <v>3750</v>
       </c>
       <c r="T789" t="n">
         <v>24</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63564,16 +63564,16 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N790" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O790" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P790" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63582,11 +63582,11 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="T790" t="n">
         <v>18</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="N791" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O791" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P791" t="n">
-        <v>12000</v>
+        <v>6455</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="T791" t="n">
         <v>15</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -63715,41 +63715,41 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="N792" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="O792" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="P792" t="n">
-        <v>11111</v>
+        <v>50000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>741</v>
+        <v>2083</v>
       </c>
       <c r="T792" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="793">
@@ -63795,38 +63795,38 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>55</v>
+        <v>380</v>
       </c>
       <c r="N793" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O793" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P793" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1333</v>
+        <v>778</v>
       </c>
       <c r="T793" t="n">
         <v>18</v>
@@ -63875,41 +63875,41 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="N794" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="O794" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="P794" t="n">
-        <v>37000</v>
+        <v>12000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>1542</v>
+        <v>800</v>
       </c>
       <c r="T794" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N795" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O795" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P795" t="n">
-        <v>7000</v>
+        <v>11111</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>467</v>
+        <v>741</v>
       </c>
       <c r="T795" t="n">
         <v>15</v>
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -64035,41 +64035,41 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="N796" t="n">
-        <v>200000</v>
+        <v>24000</v>
       </c>
       <c r="O796" t="n">
-        <v>200000</v>
+        <v>24000</v>
       </c>
       <c r="P796" t="n">
-        <v>200000</v>
+        <v>24000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T796" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -64115,41 +64115,41 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="N797" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="O797" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="P797" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>600</v>
+        <v>1542</v>
       </c>
       <c r="T797" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="798">
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P798" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="T798" t="n">
         <v>15</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -64284,20 +64284,20 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="N799" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O799" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="P799" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
@@ -64306,10 +64306,10 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="T799" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -64364,20 +64364,20 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N800" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="O800" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P800" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>289</v>
+        <v>600</v>
       </c>
       <c r="T800" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -64444,20 +64444,20 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N801" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O801" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P801" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T801" t="n">
         <v>15</v>
@@ -64520,24 +64520,24 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N802" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O802" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P802" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T802" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="803">
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -64604,20 +64604,20 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="N803" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="O803" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="P803" t="n">
-        <v>10000</v>
+        <v>130000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64626,10 +64626,10 @@
         </is>
       </c>
       <c r="S803" t="n">
-        <v>667</v>
+        <v>289</v>
       </c>
       <c r="T803" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="804">
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="N804" t="n">
-        <v>292000</v>
+        <v>4000</v>
       </c>
       <c r="O804" t="n">
-        <v>315000</v>
+        <v>4000</v>
       </c>
       <c r="P804" t="n">
-        <v>303500</v>
+        <v>4000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>674</v>
+        <v>267</v>
       </c>
       <c r="T804" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64760,20 +64760,20 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M805" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N805" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O805" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P805" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64786,7 +64786,7 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T805" t="n">
         <v>18</v>
@@ -64844,20 +64844,20 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N806" t="n">
         <v>10000</v>
       </c>
       <c r="O806" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P806" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,7 +64866,7 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T806" t="n">
         <v>15</v>
@@ -64920,24 +64920,24 @@
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="N807" t="n">
-        <v>11000</v>
+        <v>292000</v>
       </c>
       <c r="O807" t="n">
-        <v>11000</v>
+        <v>315000</v>
       </c>
       <c r="P807" t="n">
-        <v>11000</v>
+        <v>303500</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
@@ -64946,10 +64946,10 @@
         </is>
       </c>
       <c r="S807" t="n">
-        <v>733</v>
+        <v>674</v>
       </c>
       <c r="T807" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65004,7 +65004,7 @@
         </is>
       </c>
       <c r="M808" t="n">
-        <v>285</v>
+        <v>500</v>
       </c>
       <c r="N808" t="n">
         <v>15000</v>
@@ -65017,7 +65017,7 @@
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T808" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65084,20 +65084,20 @@
         </is>
       </c>
       <c r="M809" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N809" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O809" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P809" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>889</v>
+        <v>700</v>
       </c>
       <c r="T809" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="810">
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65160,20 +65160,20 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N810" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O810" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P810" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65186,7 +65186,7 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T810" t="n">
         <v>15</v>
@@ -65240,24 +65240,24 @@
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="N811" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O811" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P811" t="n">
-        <v>12315</v>
+        <v>15000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
@@ -65266,7 +65266,7 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>821</v>
+        <v>1000</v>
       </c>
       <c r="T811" t="n">
         <v>15</v>
@@ -65320,24 +65320,24 @@
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N812" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O812" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P812" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
@@ -65346,10 +65346,10 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>800</v>
+        <v>889</v>
       </c>
       <c r="T812" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -65404,20 +65404,20 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="N813" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O813" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P813" t="n">
-        <v>7571</v>
+        <v>12000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R813" t="inlineStr">
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>505</v>
+        <v>800</v>
       </c>
       <c r="T813" t="n">
         <v>15</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -65480,24 +65480,24 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M814" t="n">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="N814" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="O814" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="P814" t="n">
-        <v>150000</v>
+        <v>12315</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R814" t="inlineStr">
@@ -65506,10 +65506,10 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>333</v>
+        <v>821</v>
       </c>
       <c r="T814" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="815">
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -65564,16 +65564,16 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="N815" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O815" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P815" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65586,7 +65586,7 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T815" t="n">
         <v>15</v>
@@ -65640,24 +65640,24 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N816" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O816" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P816" t="n">
-        <v>130000</v>
+        <v>7571</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -65666,10 +65666,10 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>289</v>
+        <v>505</v>
       </c>
       <c r="T816" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="817">
@@ -65720,24 +65720,24 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N817" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O817" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P817" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65749,7 +65749,7 @@
         <v>333</v>
       </c>
       <c r="T817" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="818">
@@ -65800,20 +65800,20 @@
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N818" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O818" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P818" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65826,7 +65826,7 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T818" t="n">
         <v>15</v>
@@ -65875,41 +65875,41 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N819" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="O819" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="P819" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1667</v>
+        <v>289</v>
       </c>
       <c r="T819" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -65960,24 +65960,24 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N820" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O820" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P820" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,7 +65986,7 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T820" t="n">
         <v>15</v>
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -66040,20 +66040,20 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N821" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O821" t="n">
-        <v>18500</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="n">
-        <v>18278</v>
+        <v>10000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>1219</v>
+        <v>667</v>
       </c>
       <c r="T821" t="n">
         <v>15</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66115,41 +66115,41 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="N822" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O822" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P822" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="T822" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="823">
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="N823" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O823" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P823" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T823" t="n">
         <v>15</v>
@@ -66280,20 +66280,20 @@
       </c>
       <c r="L824" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M824" t="n">
-        <v>285</v>
+        <v>450</v>
       </c>
       <c r="N824" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O824" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="P824" t="n">
-        <v>15000</v>
+        <v>18278</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66306,7 +66306,7 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>1000</v>
+        <v>1219</v>
       </c>
       <c r="T824" t="n">
         <v>15</v>
@@ -66360,20 +66360,20 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="N825" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O825" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P825" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
@@ -66386,7 +66386,7 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T825" t="n">
         <v>15</v>
@@ -66440,36 +66440,36 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="N826" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O826" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P826" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T826" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="827">
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>450</v>
+        <v>285</v>
       </c>
       <c r="N827" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O827" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P827" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T827" t="n">
         <v>15</v>
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -66600,24 +66600,24 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="N828" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O828" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P828" t="n">
-        <v>7474</v>
+        <v>15000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>498</v>
+        <v>1000</v>
       </c>
       <c r="T828" t="n">
         <v>15</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -66680,36 +66680,36 @@
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="N829" t="n">
-        <v>150000</v>
+        <v>24000</v>
       </c>
       <c r="O829" t="n">
-        <v>150000</v>
+        <v>24000</v>
       </c>
       <c r="P829" t="n">
-        <v>150000</v>
+        <v>24000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>333</v>
+        <v>1333</v>
       </c>
       <c r="T829" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N830" t="n">
-        <v>5000</v>
+        <v>22500</v>
       </c>
       <c r="O830" t="n">
-        <v>5000</v>
+        <v>22500</v>
       </c>
       <c r="P830" t="n">
-        <v>5000</v>
+        <v>22500</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>333</v>
+        <v>1500</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66840,24 +66840,24 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N831" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O831" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P831" t="n">
-        <v>10000</v>
+        <v>7474</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
@@ -66866,10 +66866,10 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>556</v>
+        <v>498</v>
       </c>
       <c r="T831" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="832">
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66924,20 +66924,20 @@
         </is>
       </c>
       <c r="M832" t="n">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="N832" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="O832" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="P832" t="n">
-        <v>8000</v>
+        <v>150000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="T832" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67004,16 +67004,16 @@
         </is>
       </c>
       <c r="M833" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N833" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O833" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P833" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T833" t="n">
         <v>15</v>
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67080,24 +67080,24 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="N834" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O834" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P834" t="n">
-        <v>7532</v>
+        <v>10000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,10 +67106,10 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="T834" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67164,32 +67164,32 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="N835" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O835" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P835" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T835" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="836">
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67244,16 +67244,16 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N836" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O836" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P836" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
@@ -67266,7 +67266,7 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T836" t="n">
         <v>15</v>
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67320,24 +67320,24 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="N837" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O837" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P837" t="n">
-        <v>12000</v>
+        <v>7532</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
@@ -67346,7 +67346,7 @@
         </is>
       </c>
       <c r="S837" t="n">
-        <v>800</v>
+        <v>502</v>
       </c>
       <c r="T837" t="n">
         <v>15</v>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67400,36 +67400,36 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="N838" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O838" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P838" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>800</v>
+        <v>611</v>
       </c>
       <c r="T838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -67480,20 +67480,20 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P839" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
@@ -67506,7 +67506,7 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T839" t="n">
         <v>15</v>
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -67560,36 +67560,36 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M840" t="n">
+        <v>80</v>
+      </c>
+      <c r="N840" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O840" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P840" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q840" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R840" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S840" t="n">
+        <v>800</v>
+      </c>
+      <c r="T840" t="n">
         <v>15</v>
-      </c>
-      <c r="N840" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O840" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P840" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q840" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R840" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S840" t="n">
-        <v>333</v>
-      </c>
-      <c r="T840" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67640,36 +67640,36 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="N841" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O841" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P841" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S841" t="n">
-        <v>611</v>
+        <v>800</v>
       </c>
       <c r="T841" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="842">
@@ -67715,41 +67715,41 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="N842" t="n">
-        <v>70000</v>
+        <v>8000</v>
       </c>
       <c r="O842" t="n">
-        <v>70000</v>
+        <v>8000</v>
       </c>
       <c r="P842" t="n">
-        <v>70000</v>
+        <v>8000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>2917</v>
+        <v>533</v>
       </c>
       <c r="T842" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="843">
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -67800,24 +67800,24 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="N843" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="O843" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="P843" t="n">
-        <v>11000</v>
+        <v>150000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,10 +67826,10 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>733</v>
+        <v>333</v>
       </c>
       <c r="T843" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="844">
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67880,36 +67880,36 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="N844" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O844" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P844" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T844" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -67955,41 +67955,41 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M845" t="n">
         <v>65</v>
       </c>
       <c r="N845" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="O845" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="P845" t="n">
-        <v>16000</v>
+        <v>70000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>800</v>
+        <v>2917</v>
       </c>
       <c r="T845" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68044,16 +68044,16 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N846" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="O846" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="P846" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68062,11 +68062,11 @@
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>1100</v>
+        <v>733</v>
       </c>
       <c r="T846" t="n">
         <v>15</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68120,33 +68120,33 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N847" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O847" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P847" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T847" t="n">
         <v>15</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68200,24 +68200,24 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="N848" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O848" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P848" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -68226,10 +68226,10 @@
         </is>
       </c>
       <c r="S848" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T848" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68280,33 +68280,33 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N849" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O849" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="P849" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>867</v>
+        <v>1100</v>
       </c>
       <c r="T849" t="n">
         <v>15</v>
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -68364,16 +68364,16 @@
         </is>
       </c>
       <c r="M850" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="N850" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O850" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P850" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68382,11 +68382,11 @@
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T850" t="n">
         <v>15</v>
@@ -68440,20 +68440,20 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="N851" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O851" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P851" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
@@ -68466,7 +68466,7 @@
         </is>
       </c>
       <c r="S851" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T851" t="n">
         <v>15</v>
@@ -68520,36 +68520,36 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N852" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O852" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P852" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>1222</v>
+        <v>867</v>
       </c>
       <c r="T852" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="853">
@@ -68595,12 +68595,12 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M853" t="n">
@@ -68617,19 +68617,19 @@
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>722</v>
+        <v>867</v>
       </c>
       <c r="T853" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -68675,25 +68675,25 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M854" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="N854" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="O854" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="P854" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
@@ -68702,11 +68702,11 @@
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>1667</v>
+        <v>900</v>
       </c>
       <c r="T854" t="n">
         <v>15</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -68760,33 +68760,33 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="N855" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O855" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P855" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>1111</v>
+        <v>1222</v>
       </c>
       <c r="T855" t="n">
         <v>18</v>
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -68835,41 +68835,41 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="N856" t="n">
         <v>13000</v>
       </c>
       <c r="O856" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P856" t="n">
-        <v>13268</v>
+        <v>13000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>885</v>
+        <v>722</v>
       </c>
       <c r="T856" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="857">
@@ -68915,38 +68915,38 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="N857" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O857" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P857" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>667</v>
+        <v>1667</v>
       </c>
       <c r="T857" t="n">
         <v>15</v>
@@ -68995,41 +68995,41 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="N858" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="O858" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="P858" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1458</v>
+        <v>1111</v>
       </c>
       <c r="T858" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -69084,20 +69084,20 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="N859" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="O859" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="P859" t="n">
-        <v>19500</v>
+        <v>13268</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
@@ -69106,7 +69106,7 @@
         </is>
       </c>
       <c r="S859" t="n">
-        <v>1300</v>
+        <v>885</v>
       </c>
       <c r="T859" t="n">
         <v>15</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -69160,36 +69160,36 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>380</v>
+        <v>125</v>
       </c>
       <c r="N860" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O860" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P860" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>1389</v>
+        <v>667</v>
       </c>
       <c r="T860" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -69235,41 +69235,41 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="N861" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="O861" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P861" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>1222</v>
+        <v>1458</v>
       </c>
       <c r="T861" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="862">
@@ -69320,20 +69320,20 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="N862" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="O862" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="P862" t="n">
-        <v>18000</v>
+        <v>19500</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
@@ -69346,7 +69346,7 @@
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T862" t="n">
         <v>15</v>
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -69400,36 +69400,36 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N863" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O863" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P863" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T863" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -69480,24 +69480,24 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="N864" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O864" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="P864" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
@@ -69506,7 +69506,7 @@
         </is>
       </c>
       <c r="S864" t="n">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="T864" t="n">
         <v>18</v>
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -69560,20 +69560,20 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N865" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O865" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P865" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69586,7 +69586,7 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T865" t="n">
         <v>15</v>
@@ -69640,36 +69640,36 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N866" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O866" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P866" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T866" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="867">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -69724,7 +69724,7 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="N867" t="n">
         <v>23000</v>
@@ -69737,7 +69737,7 @@
       </c>
       <c r="Q867" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R867" t="inlineStr">
@@ -69746,10 +69746,10 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>1533</v>
+        <v>1278</v>
       </c>
       <c r="T867" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="868">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -69800,36 +69800,36 @@
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N868" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="O868" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="P868" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>1389</v>
+        <v>900</v>
       </c>
       <c r="T868" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -69880,36 +69880,36 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="N869" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O869" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P869" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>1467</v>
+        <v>1333</v>
       </c>
       <c r="T869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="870">
@@ -69960,33 +69960,33 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="N870" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O870" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P870" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>1467</v>
+        <v>1533</v>
       </c>
       <c r="T870" t="n">
         <v>15</v>
@@ -70040,24 +70040,24 @@
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="N871" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O871" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P871" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
@@ -70066,10 +70066,10 @@
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1333</v>
+        <v>1389</v>
       </c>
       <c r="T871" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="872">
@@ -70115,41 +70115,41 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N872" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O872" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P872" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>1111</v>
+        <v>1467</v>
       </c>
       <c r="T872" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -70200,33 +70200,33 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="N873" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O873" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P873" t="n">
-        <v>6476</v>
+        <v>22000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>432</v>
+        <v>1467</v>
       </c>
       <c r="T873" t="n">
         <v>15</v>
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -70280,36 +70280,36 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="N874" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="O874" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="P874" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>267</v>
+        <v>1333</v>
       </c>
       <c r="T874" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -70355,41 +70355,41 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N875" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O875" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P875" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>333</v>
+        <v>1111</v>
       </c>
       <c r="T875" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="876">
@@ -70440,24 +70440,24 @@
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="N876" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O876" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P876" t="n">
-        <v>10000</v>
+        <v>6476</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
@@ -70466,10 +70466,10 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>556</v>
+        <v>432</v>
       </c>
       <c r="T876" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877">
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N877" t="n">
-        <v>45000</v>
+        <v>120000</v>
       </c>
       <c r="O877" t="n">
-        <v>45000</v>
+        <v>120000</v>
       </c>
       <c r="P877" t="n">
-        <v>45000</v>
+        <v>120000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>1875</v>
+        <v>267</v>
       </c>
       <c r="T877" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="878">
@@ -70595,41 +70595,41 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N878" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="O878" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="P878" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>1875</v>
+        <v>333</v>
       </c>
       <c r="T878" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="879">
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -70680,24 +70680,24 @@
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N879" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O879" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P879" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
@@ -70706,10 +70706,10 @@
         </is>
       </c>
       <c r="S879" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="880">
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -70755,41 +70755,41 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N880" t="n">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="O880" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P880" t="n">
-        <v>9591</v>
+        <v>45000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>533</v>
+        <v>1875</v>
       </c>
       <c r="T880" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="881">
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -70835,41 +70835,41 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="N881" t="n">
-        <v>6500</v>
+        <v>45000</v>
       </c>
       <c r="O881" t="n">
-        <v>6500</v>
+        <v>45000</v>
       </c>
       <c r="P881" t="n">
-        <v>6500</v>
+        <v>45000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>433</v>
+        <v>1875</v>
       </c>
       <c r="T881" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="882">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70920,20 +70920,20 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="N882" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O882" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P882" t="n">
-        <v>19042</v>
+        <v>7000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70946,7 +70946,7 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>1269</v>
+        <v>467</v>
       </c>
       <c r="T882" t="n">
         <v>15</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -71000,24 +71000,24 @@
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N883" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O883" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P883" t="n">
-        <v>22000</v>
+        <v>9591</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
@@ -71026,7 +71026,7 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>1222</v>
+        <v>533</v>
       </c>
       <c r="T883" t="n">
         <v>18</v>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -71084,29 +71084,29 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N884" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O884" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P884" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>1000</v>
+        <v>433</v>
       </c>
       <c r="T884" t="n">
         <v>15</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -71164,16 +71164,16 @@
         </is>
       </c>
       <c r="M885" t="n">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="N885" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O885" t="n">
         <v>20000</v>
       </c>
       <c r="P885" t="n">
-        <v>20000</v>
+        <v>19042</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
@@ -71182,11 +71182,11 @@
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>1333</v>
+        <v>1269</v>
       </c>
       <c r="T885" t="n">
         <v>15</v>
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -71240,36 +71240,36 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="N886" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O886" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P886" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>867</v>
+        <v>1222</v>
       </c>
       <c r="T886" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="887">
@@ -71320,20 +71320,20 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N887" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O887" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P887" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
@@ -71346,7 +71346,7 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T887" t="n">
         <v>15</v>
@@ -71400,24 +71400,24 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N888" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O888" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P888" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
@@ -71426,10 +71426,10 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>1167</v>
+        <v>1333</v>
       </c>
       <c r="T888" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="889">
@@ -71475,41 +71475,41 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N889" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="O889" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="P889" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>1250</v>
+        <v>867</v>
       </c>
       <c r="T889" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -71560,20 +71560,20 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="N890" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="O890" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="P890" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71582,11 +71582,11 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>1233</v>
+        <v>1200</v>
       </c>
       <c r="T890" t="n">
         <v>15</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -71640,20 +71640,20 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N891" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O891" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P891" t="n">
-        <v>23961</v>
+        <v>21000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71666,7 +71666,7 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>1331</v>
+        <v>1167</v>
       </c>
       <c r="T891" t="n">
         <v>18</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -71715,41 +71715,41 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>325</v>
+        <v>30</v>
       </c>
       <c r="N892" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O892" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="P892" t="n">
-        <v>18215</v>
+        <v>30000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>1214</v>
+        <v>1250</v>
       </c>
       <c r="T892" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="893">
@@ -71800,36 +71800,36 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="N893" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="O893" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="P893" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>1333</v>
+        <v>1233</v>
       </c>
       <c r="T893" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="894">
@@ -71880,33 +71880,33 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="N894" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O894" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P894" t="n">
-        <v>24000</v>
+        <v>23961</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="T894" t="n">
         <v>18</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -71960,20 +71960,20 @@
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="N895" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O895" t="n">
-        <v>7000</v>
+        <v>18500</v>
       </c>
       <c r="P895" t="n">
-        <v>6455</v>
+        <v>18215</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71986,7 +71986,7 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>430</v>
+        <v>1214</v>
       </c>
       <c r="T895" t="n">
         <v>15</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -72040,33 +72040,33 @@
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N896" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O896" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P896" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T896" t="n">
         <v>18</v>
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -72120,36 +72120,36 @@
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="N897" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="O897" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="P897" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>222</v>
+        <v>1333</v>
       </c>
       <c r="T897" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="898">
@@ -72200,20 +72200,20 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N898" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O898" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P898" t="n">
-        <v>8000</v>
+        <v>6455</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72226,7 +72226,7 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="T898" t="n">
         <v>15</v>
@@ -72275,25 +72275,25 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N899" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="O899" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="P899" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72302,11 +72302,11 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1944</v>
+        <v>444</v>
       </c>
       <c r="T899" t="n">
         <v>18</v>
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -72360,24 +72360,24 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="N900" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="O900" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="P900" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
@@ -72386,10 +72386,10 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1000</v>
+        <v>222</v>
       </c>
       <c r="T900" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -72440,24 +72440,24 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N901" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O901" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P901" t="n">
-        <v>13222</v>
+        <v>8000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>881</v>
+        <v>533</v>
       </c>
       <c r="T901" t="n">
         <v>15</v>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -72515,41 +72515,41 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N902" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O902" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="P902" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>933</v>
+        <v>1944</v>
       </c>
       <c r="T902" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903">
@@ -72600,24 +72600,24 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="N903" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O903" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P903" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
@@ -72626,7 +72626,7 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T903" t="n">
         <v>15</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72684,20 +72684,20 @@
         </is>
       </c>
       <c r="M904" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N904" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O904" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P904" t="n">
-        <v>12000</v>
+        <v>13222</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
@@ -72706,7 +72706,7 @@
         </is>
       </c>
       <c r="S904" t="n">
-        <v>800</v>
+        <v>881</v>
       </c>
       <c r="T904" t="n">
         <v>15</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -72760,24 +72760,24 @@
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="N905" t="n">
         <v>14000</v>
       </c>
       <c r="O905" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P905" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>806</v>
+        <v>933</v>
       </c>
       <c r="T905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -72844,16 +72844,16 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N906" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O906" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P906" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
@@ -72866,7 +72866,7 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T906" t="n">
         <v>15</v>
@@ -72915,41 +72915,41 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N907" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="O907" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="P907" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T907" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="908">
@@ -72995,41 +72995,41 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="N908" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O908" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P908" t="n">
-        <v>40000</v>
+        <v>14500</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>1667</v>
+        <v>806</v>
       </c>
       <c r="T908" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="909">
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -73080,24 +73080,24 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="N909" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O909" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P909" t="n">
-        <v>7455</v>
+        <v>12000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
@@ -73106,7 +73106,7 @@
         </is>
       </c>
       <c r="S909" t="n">
-        <v>497</v>
+        <v>800</v>
       </c>
       <c r="T909" t="n">
         <v>15</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -73155,41 +73155,41 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N910" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O910" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P910" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="T910" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="911">
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -73235,41 +73235,41 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="N911" t="n">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="O911" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="P911" t="n">
-        <v>7385</v>
+        <v>40000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>492</v>
+        <v>1667</v>
       </c>
       <c r="T911" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="912">
@@ -73320,20 +73320,20 @@
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N912" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O912" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P912" t="n">
-        <v>6000</v>
+        <v>7455</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73346,7 +73346,7 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="T912" t="n">
         <v>15</v>
@@ -73400,35 +73400,275 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M913" t="n">
+        <v>180</v>
+      </c>
+      <c r="N913" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O913" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P913" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q913" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R913" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S913" t="n">
+        <v>556</v>
+      </c>
+      <c r="T913" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>10</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D914" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E914" t="n">
+        <v>9</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I914" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M914" t="n">
+        <v>130</v>
+      </c>
+      <c r="N914" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O914" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P914" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q914" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R914" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S914" t="n">
+        <v>492</v>
+      </c>
+      <c r="T914" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>10</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D915" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E915" t="n">
+        <v>9</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I915" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M915" t="n">
+        <v>80</v>
+      </c>
+      <c r="N915" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O915" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P915" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q915" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R915" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S915" t="n">
+        <v>400</v>
+      </c>
+      <c r="T915" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>10</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D916" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E916" t="n">
+        <v>9</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G916" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I916" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
           <t>Especial amarillo</t>
         </is>
       </c>
-      <c r="M913" t="n">
+      <c r="M916" t="n">
         <v>50</v>
       </c>
-      <c r="N913" t="n">
+      <c r="N916" t="n">
         <v>11000</v>
       </c>
-      <c r="O913" t="n">
+      <c r="O916" t="n">
         <v>11000</v>
       </c>
-      <c r="P913" t="n">
+      <c r="P916" t="n">
         <v>11000</v>
       </c>
-      <c r="Q913" t="inlineStr">
+      <c r="Q916" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R913" t="inlineStr">
+      <c r="R916" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S913" t="n">
+      <c r="S916" t="n">
         <v>611</v>
       </c>
-      <c r="T913" t="n">
+      <c r="T916" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T921"/>
+  <dimension ref="A1:T923"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -70844,16 +70844,16 @@
         </is>
       </c>
       <c r="M881" t="n">
-        <v>420</v>
+        <v>295</v>
       </c>
       <c r="N881" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O881" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P881" t="n">
-        <v>6476</v>
+        <v>8627</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
@@ -70866,7 +70866,7 @@
         </is>
       </c>
       <c r="S881" t="n">
-        <v>432</v>
+        <v>575</v>
       </c>
       <c r="T881" t="n">
         <v>15</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70924,20 +70924,20 @@
         </is>
       </c>
       <c r="M882" t="n">
-        <v>5</v>
+        <v>260</v>
       </c>
       <c r="N882" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="O882" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="P882" t="n">
-        <v>120000</v>
+        <v>8000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
@@ -70946,10 +70946,10 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>267</v>
+        <v>444</v>
       </c>
       <c r="T882" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="883">
@@ -71000,20 +71000,20 @@
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="N883" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O883" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P883" t="n">
-        <v>5000</v>
+        <v>6476</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71026,7 +71026,7 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>333</v>
+        <v>432</v>
       </c>
       <c r="T883" t="n">
         <v>15</v>
@@ -71080,24 +71080,24 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N884" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="O884" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="P884" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
@@ -71106,10 +71106,10 @@
         </is>
       </c>
       <c r="S884" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T884" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="885">
@@ -71155,41 +71155,41 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N885" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="O885" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="P885" t="n">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>1875</v>
+        <v>333</v>
       </c>
       <c r="T885" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="886">
@@ -71235,41 +71235,41 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N886" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O886" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P886" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>1875</v>
+        <v>556</v>
       </c>
       <c r="T886" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="887">
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -71315,41 +71315,41 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="N887" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="O887" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="P887" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>467</v>
+        <v>1875</v>
       </c>
       <c r="T887" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="888">
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -71395,41 +71395,41 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N888" t="n">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="O888" t="n">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="P888" t="n">
-        <v>9591</v>
+        <v>45000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>533</v>
+        <v>1875</v>
       </c>
       <c r="T888" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="889">
@@ -71484,20 +71484,20 @@
         </is>
       </c>
       <c r="M889" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="N889" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O889" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P889" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
@@ -71506,7 +71506,7 @@
         </is>
       </c>
       <c r="S889" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="T889" t="n">
         <v>15</v>
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -71560,24 +71560,24 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>355</v>
+        <v>110</v>
       </c>
       <c r="N890" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O890" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P890" t="n">
-        <v>19042</v>
+        <v>9591</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
@@ -71586,10 +71586,10 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>1269</v>
+        <v>533</v>
       </c>
       <c r="T890" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="891">
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -71640,24 +71640,24 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="N891" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="O891" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P891" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
@@ -71666,10 +71666,10 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>1222</v>
+        <v>433</v>
       </c>
       <c r="T891" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="892">
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -71720,20 +71720,20 @@
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="N892" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O892" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P892" t="n">
-        <v>15000</v>
+        <v>19042</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
@@ -71742,11 +71742,11 @@
       </c>
       <c r="R892" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S892" t="n">
-        <v>1000</v>
+        <v>1269</v>
       </c>
       <c r="T892" t="n">
         <v>15</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -71804,32 +71804,32 @@
         </is>
       </c>
       <c r="M893" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N893" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O893" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P893" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="T893" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="894">
@@ -71880,20 +71880,20 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="N894" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O894" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P894" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71906,7 +71906,7 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T894" t="n">
         <v>15</v>
@@ -71960,20 +71960,20 @@
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N895" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O895" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P895" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71986,7 +71986,7 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T895" t="n">
         <v>15</v>
@@ -72040,24 +72040,24 @@
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N896" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O896" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P896" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
@@ -72066,10 +72066,10 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>1167</v>
+        <v>867</v>
       </c>
       <c r="T896" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="897">
@@ -72115,41 +72115,41 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N897" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O897" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P897" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="T897" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -72200,36 +72200,36 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="N898" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="O898" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="P898" t="n">
-        <v>18500</v>
+        <v>21000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>1233</v>
+        <v>1167</v>
       </c>
       <c r="T898" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="899">
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -72275,41 +72275,41 @@
       </c>
       <c r="K899" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>385</v>
+        <v>30</v>
       </c>
       <c r="N899" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O899" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P899" t="n">
-        <v>23961</v>
+        <v>30000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1331</v>
+        <v>1250</v>
       </c>
       <c r="T899" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="900">
@@ -72360,20 +72360,20 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="N900" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="O900" t="n">
         <v>18500</v>
       </c>
       <c r="P900" t="n">
-        <v>18215</v>
+        <v>18500</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
@@ -72386,7 +72386,7 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1214</v>
+        <v>1233</v>
       </c>
       <c r="T900" t="n">
         <v>15</v>
@@ -72440,24 +72440,24 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="N901" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O901" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P901" t="n">
-        <v>24000</v>
+        <v>23961</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="T901" t="n">
         <v>18</v>
@@ -72520,36 +72520,36 @@
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="N902" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O902" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="P902" t="n">
-        <v>24000</v>
+        <v>18215</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T902" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -72600,36 +72600,36 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="N903" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="O903" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P903" t="n">
-        <v>6455</v>
+        <v>24000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>430</v>
+        <v>1333</v>
       </c>
       <c r="T903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="904">
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72680,33 +72680,33 @@
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N904" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O904" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P904" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T904" t="n">
         <v>18</v>
@@ -72760,24 +72760,24 @@
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="N905" t="n">
-        <v>100000</v>
+        <v>6000</v>
       </c>
       <c r="O905" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="P905" t="n">
-        <v>100000</v>
+        <v>6455</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="T905" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906">
@@ -72840,11 +72840,11 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N906" t="n">
         <v>8000</v>
@@ -72857,7 +72857,7 @@
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,10 +72866,10 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T906" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="907">
@@ -72915,41 +72915,41 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="N907" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="O907" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="P907" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>1944</v>
+        <v>222</v>
       </c>
       <c r="T907" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="908">
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -73000,20 +73000,20 @@
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N908" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O908" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P908" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73026,7 +73026,7 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T908" t="n">
         <v>15</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -73075,41 +73075,41 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="N909" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="O909" t="n">
-        <v>13500</v>
+        <v>35000</v>
       </c>
       <c r="P909" t="n">
-        <v>13222</v>
+        <v>35000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>881</v>
+        <v>1944</v>
       </c>
       <c r="T909" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="910">
@@ -73160,20 +73160,20 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N910" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O910" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P910" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73186,7 +73186,7 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>933</v>
+        <v>1000</v>
       </c>
       <c r="T910" t="n">
         <v>15</v>
@@ -73240,20 +73240,20 @@
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N911" t="n">
         <v>13000</v>
       </c>
       <c r="O911" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P911" t="n">
-        <v>13000</v>
+        <v>13222</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73266,7 +73266,7 @@
         </is>
       </c>
       <c r="S911" t="n">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="T911" t="n">
         <v>15</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -73320,20 +73320,20 @@
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N912" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O912" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P912" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73346,7 +73346,7 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T912" t="n">
         <v>15</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -73400,24 +73400,24 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N913" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O913" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P913" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
@@ -73426,10 +73426,10 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>806</v>
+        <v>867</v>
       </c>
       <c r="T913" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="914">
@@ -73480,11 +73480,11 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="N914" t="n">
         <v>12000</v>
@@ -73497,7 +73497,7 @@
       </c>
       <c r="Q914" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R914" t="inlineStr">
@@ -73555,41 +73555,41 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="N915" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O915" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P915" t="n">
-        <v>40000</v>
+        <v>14500</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>1667</v>
+        <v>806</v>
       </c>
       <c r="T915" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="916">
@@ -73635,41 +73635,41 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M916" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N916" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="O916" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="P916" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T916" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="917">
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -73715,41 +73715,41 @@
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N917" t="n">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="O917" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="P917" t="n">
-        <v>7455</v>
+        <v>40000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S917" t="n">
-        <v>497</v>
+        <v>1667</v>
       </c>
       <c r="T917" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="918">
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -73795,41 +73795,41 @@
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N918" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O918" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P918" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S918" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="T918" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="919">
@@ -73884,7 +73884,7 @@
         </is>
       </c>
       <c r="M919" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="N919" t="n">
         <v>7000</v>
@@ -73893,11 +73893,11 @@
         <v>8000</v>
       </c>
       <c r="P919" t="n">
-        <v>7385</v>
+        <v>7455</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R919" t="inlineStr">
@@ -73906,7 +73906,7 @@
         </is>
       </c>
       <c r="S919" t="n">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="T919" t="n">
         <v>15</v>
@@ -73960,24 +73960,24 @@
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N920" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O920" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P920" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R920" t="inlineStr">
@@ -73986,10 +73986,10 @@
         </is>
       </c>
       <c r="S920" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T920" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="921">
@@ -74040,35 +74040,195 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M921" t="n">
+        <v>130</v>
+      </c>
+      <c r="N921" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O921" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P921" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q921" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R921" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S921" t="n">
+        <v>492</v>
+      </c>
+      <c r="T921" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>10</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D922" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E922" t="n">
+        <v>9</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M922" t="n">
+        <v>80</v>
+      </c>
+      <c r="N922" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O922" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P922" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q922" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R922" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S922" t="n">
+        <v>400</v>
+      </c>
+      <c r="T922" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>10</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D923" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E923" t="n">
+        <v>9</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
           <t>Especial amarillo</t>
         </is>
       </c>
-      <c r="M921" t="n">
+      <c r="M923" t="n">
         <v>50</v>
       </c>
-      <c r="N921" t="n">
+      <c r="N923" t="n">
         <v>11000</v>
       </c>
-      <c r="O921" t="n">
+      <c r="O923" t="n">
         <v>11000</v>
       </c>
-      <c r="P921" t="n">
+      <c r="P923" t="n">
         <v>11000</v>
       </c>
-      <c r="Q921" t="inlineStr">
+      <c r="Q923" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R921" t="inlineStr">
+      <c r="R923" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S921" t="n">
+      <c r="S923" t="n">
         <v>611</v>
       </c>
-      <c r="T921" t="n">
+      <c r="T923" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T925"/>
+  <dimension ref="A1:T933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
@@ -60275,41 +60275,41 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N749" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="O749" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="P749" t="n">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1000</v>
+        <v>2083</v>
       </c>
       <c r="T749" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="750">
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="N750" t="n">
-        <v>13000</v>
+        <v>8250</v>
       </c>
       <c r="O750" t="n">
-        <v>13000</v>
+        <v>8250</v>
       </c>
       <c r="P750" t="n">
-        <v>13000</v>
+        <v>8250</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>867</v>
+        <v>550</v>
       </c>
       <c r="T750" t="n">
         <v>15</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -60440,24 +60440,24 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N751" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O751" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="P751" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
@@ -60466,10 +60466,10 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T751" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="752">
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -60520,20 +60520,20 @@
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="N752" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O752" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P752" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>1167</v>
+        <v>667</v>
       </c>
       <c r="T752" t="n">
         <v>18</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E753" t="n">
         <v>9</v>
@@ -60604,20 +60604,20 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N753" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O753" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P753" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1389</v>
+        <v>500</v>
       </c>
       <c r="T753" t="n">
         <v>18</v>
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E754" t="n">
         <v>9</v>
@@ -60680,24 +60680,24 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="N754" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O754" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P754" t="n">
-        <v>24571</v>
+        <v>7000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1638</v>
+        <v>467</v>
       </c>
       <c r="T754" t="n">
         <v>15</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E755" t="n">
         <v>9</v>
@@ -60755,41 +60755,41 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N755" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="O755" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="P755" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1467</v>
+        <v>2222</v>
       </c>
       <c r="T755" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -60835,41 +60835,41 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="N756" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="O756" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="P756" t="n">
-        <v>23400</v>
+        <v>30000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>1560</v>
+        <v>1667</v>
       </c>
       <c r="T756" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -60920,24 +60920,24 @@
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N757" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P757" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T757" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -61007,17 +61007,17 @@
         <v>50</v>
       </c>
       <c r="N758" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O758" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P758" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T758" t="n">
         <v>15</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E759" t="n">
         <v>9</v>
@@ -61080,33 +61080,33 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N759" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O759" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P759" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1133</v>
+        <v>1200</v>
       </c>
       <c r="T759" t="n">
         <v>15</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E760" t="n">
         <v>9</v>
@@ -61155,38 +61155,38 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N760" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O760" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P760" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1111</v>
+        <v>1167</v>
       </c>
       <c r="T760" t="n">
         <v>18</v>
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -61244,20 +61244,20 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N761" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="O761" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="P761" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>433</v>
+        <v>1389</v>
       </c>
       <c r="T761" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -61324,20 +61324,20 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N762" t="n">
-        <v>140000</v>
+        <v>24000</v>
       </c>
       <c r="O762" t="n">
-        <v>140000</v>
+        <v>25000</v>
       </c>
       <c r="P762" t="n">
-        <v>140000</v>
+        <v>24571</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,10 +61346,10 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>311</v>
+        <v>1638</v>
       </c>
       <c r="T762" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -61400,36 +61400,36 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="N763" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O763" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P763" t="n">
-        <v>8545</v>
+        <v>22000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>475</v>
+        <v>1467</v>
       </c>
       <c r="T763" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -61480,24 +61480,24 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N764" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="O764" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="P764" t="n">
-        <v>5000</v>
+        <v>23400</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>333</v>
+        <v>1560</v>
       </c>
       <c r="T764" t="n">
         <v>15</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N765" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O765" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P765" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="T765" t="n">
         <v>18</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="N766" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O766" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P766" t="n">
-        <v>23537</v>
+        <v>20000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1569</v>
+        <v>1333</v>
       </c>
       <c r="T766" t="n">
         <v>15</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -61720,24 +61720,24 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="N767" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O767" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P767" t="n">
-        <v>24580</v>
+        <v>17000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1639</v>
+        <v>1133</v>
       </c>
       <c r="T767" t="n">
         <v>15</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -61795,7 +61795,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -61804,32 +61804,32 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N768" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="O768" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="P768" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1458</v>
+        <v>1111</v>
       </c>
       <c r="T768" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="N769" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O769" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P769" t="n">
-        <v>8476</v>
+        <v>6500</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>565</v>
+        <v>433</v>
       </c>
       <c r="T769" t="n">
         <v>15</v>
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -61967,13 +61967,13 @@
         <v>12</v>
       </c>
       <c r="N770" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="O770" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="P770" t="n">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="T770" t="n">
         <v>450</v>
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E771" t="n">
         <v>9</v>
@@ -62044,20 +62044,20 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="N771" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O771" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P771" t="n">
-        <v>5000</v>
+        <v>8545</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
@@ -62066,10 +62066,10 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>333</v>
+        <v>475</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -62127,17 +62127,17 @@
         <v>80</v>
       </c>
       <c r="N772" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O772" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P772" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>467</v>
+        <v>333</v>
       </c>
       <c r="T772" t="n">
         <v>15</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -62204,7 +62204,7 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N773" t="n">
         <v>10000</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -62284,29 +62284,29 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="N774" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O774" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P774" t="n">
-        <v>15000</v>
+        <v>23537</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>1000</v>
+        <v>1569</v>
       </c>
       <c r="T774" t="n">
         <v>15</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -62360,36 +62360,36 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>5</v>
+        <v>440</v>
       </c>
       <c r="N775" t="n">
-        <v>360000</v>
+        <v>24000</v>
       </c>
       <c r="O775" t="n">
-        <v>360000</v>
+        <v>25000</v>
       </c>
       <c r="P775" t="n">
-        <v>360000</v>
+        <v>24580</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>800</v>
+        <v>1639</v>
       </c>
       <c r="T775" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="N776" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="O776" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="P776" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1000</v>
+        <v>1458</v>
       </c>
       <c r="T776" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -62524,20 +62524,20 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="N777" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O777" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P777" t="n">
-        <v>15000</v>
+        <v>8476</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1000</v>
+        <v>565</v>
       </c>
       <c r="T777" t="n">
         <v>15</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -62600,24 +62600,24 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="N778" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="O778" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="P778" t="n">
-        <v>15000</v>
+        <v>120000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
@@ -62626,10 +62626,10 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>1000</v>
+        <v>267</v>
       </c>
       <c r="T778" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -62680,20 +62680,20 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="N779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P779" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T779" t="n">
         <v>15</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -62760,20 +62760,20 @@
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="N780" t="n">
         <v>7000</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P780" t="n">
-        <v>7524</v>
+        <v>7000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62786,7 +62786,7 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="T780" t="n">
         <v>15</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -62840,24 +62840,24 @@
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N781" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="O781" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="P781" t="n">
-        <v>170000</v>
+        <v>10000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
@@ -62866,10 +62866,10 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>378</v>
+        <v>556</v>
       </c>
       <c r="T781" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -62924,32 +62924,32 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="N782" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O782" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P782" t="n">
-        <v>11455</v>
+        <v>15000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>636</v>
+        <v>1000</v>
       </c>
       <c r="T782" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -63004,20 +63004,20 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="N783" t="n">
-        <v>8000</v>
+        <v>360000</v>
       </c>
       <c r="O783" t="n">
-        <v>9000</v>
+        <v>360000</v>
       </c>
       <c r="P783" t="n">
-        <v>8500</v>
+        <v>360000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="T783" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -63080,36 +63080,36 @@
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="N784" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O784" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P784" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -63155,41 +63155,41 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="N785" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="O785" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="P785" t="n">
-        <v>80000</v>
+        <v>15000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>3333</v>
+        <v>1000</v>
       </c>
       <c r="T785" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44384</v>
+        <v>44186</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -63240,20 +63240,20 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="N786" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O786" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P786" t="n">
-        <v>7162</v>
+        <v>15000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
@@ -63266,7 +63266,7 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>477</v>
+        <v>1000</v>
       </c>
       <c r="T786" t="n">
         <v>15</v>
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44384</v>
+        <v>44186</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -63320,36 +63320,36 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="N787" t="n">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="O787" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P787" t="n">
-        <v>124545</v>
+        <v>12000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>277</v>
+        <v>800</v>
       </c>
       <c r="T787" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="788">
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -63404,20 +63404,20 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="N788" t="n">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="O788" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P788" t="n">
-        <v>5803</v>
+        <v>7524</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>387</v>
+        <v>502</v>
       </c>
       <c r="T788" t="n">
         <v>15</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -63480,36 +63480,36 @@
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M789" t="n">
+        <v>12</v>
+      </c>
+      <c r="N789" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O789" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P789" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S789" t="n">
+        <v>378</v>
+      </c>
+      <c r="T789" t="n">
         <v>450</v>
-      </c>
-      <c r="N789" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O789" t="n">
-        <v>20000</v>
-      </c>
-      <c r="P789" t="n">
-        <v>19556</v>
-      </c>
-      <c r="Q789" t="inlineStr">
-        <is>
-          <t>$/bandeja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R789" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S789" t="n">
-        <v>1304</v>
-      </c>
-      <c r="T789" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -63564,20 +63564,20 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="N790" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O790" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P790" t="n">
-        <v>7526</v>
+        <v>11455</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>502</v>
+        <v>636</v>
       </c>
       <c r="T790" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="791">
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -63644,29 +63644,29 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N791" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O791" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P791" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T791" t="n">
         <v>18</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -63720,33 +63720,33 @@
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="N792" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O792" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P792" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="T792" t="n">
         <v>15</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -63795,41 +63795,41 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N793" t="n">
-        <v>7000</v>
+        <v>80000</v>
       </c>
       <c r="O793" t="n">
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="P793" t="n">
-        <v>7500</v>
+        <v>80000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>500</v>
+        <v>3333</v>
       </c>
       <c r="T793" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -63880,20 +63880,20 @@
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M794" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="N794" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O794" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P794" t="n">
-        <v>6000</v>
+        <v>7162</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>400</v>
+        <v>477</v>
       </c>
       <c r="T794" t="n">
         <v>15</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="N795" t="n">
-        <v>11000</v>
+        <v>120000</v>
       </c>
       <c r="O795" t="n">
-        <v>11000</v>
+        <v>130000</v>
       </c>
       <c r="P795" t="n">
-        <v>11000</v>
+        <v>124545</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>611</v>
+        <v>277</v>
       </c>
       <c r="T795" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -64035,41 +64035,41 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="N796" t="n">
-        <v>90000</v>
+        <v>5700</v>
       </c>
       <c r="O796" t="n">
-        <v>90000</v>
+        <v>6000</v>
       </c>
       <c r="P796" t="n">
-        <v>90000</v>
+        <v>5803</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>3750</v>
+        <v>387</v>
       </c>
       <c r="T796" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -64120,36 +64120,36 @@
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="N797" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O797" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P797" t="n">
-        <v>9000</v>
+        <v>19556</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>500</v>
+        <v>1304</v>
       </c>
       <c r="T797" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="798">
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -64195,25 +64195,25 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N798" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P798" t="n">
-        <v>6455</v>
+        <v>7526</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="T798" t="n">
         <v>15</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -64275,41 +64275,41 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="N799" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O799" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="P799" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>2083</v>
+        <v>556</v>
       </c>
       <c r="T799" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="800">
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44343</v>
+        <v>44505</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -64364,32 +64364,32 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>380</v>
+        <v>155</v>
       </c>
       <c r="N800" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O800" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P800" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="T800" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="801">
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -64440,20 +64440,20 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N801" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O801" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P801" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T801" t="n">
         <v>15</v>
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -64520,24 +64520,24 @@
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N802" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O802" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P802" t="n">
-        <v>11111</v>
+        <v>6000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>741</v>
+        <v>400</v>
       </c>
       <c r="T802" t="n">
         <v>15</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -64595,38 +64595,38 @@
       </c>
       <c r="K803" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="N803" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O803" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P803" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>1333</v>
+        <v>611</v>
       </c>
       <c r="T803" t="n">
         <v>18</v>
@@ -64647,7 +64647,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -64675,7 +64675,7 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
@@ -64684,16 +64684,16 @@
         </is>
       </c>
       <c r="M804" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N804" t="n">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="O804" t="n">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="P804" t="n">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1542</v>
+        <v>3750</v>
       </c>
       <c r="T804" t="n">
         <v>24</v>
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -64764,32 +64764,32 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N805" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O805" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P805" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="T805" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -64835,29 +64835,29 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="N806" t="n">
-        <v>200000</v>
+        <v>6000</v>
       </c>
       <c r="O806" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P806" t="n">
-        <v>200000</v>
+        <v>6455</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R806" t="inlineStr">
@@ -64866,10 +64866,10 @@
         </is>
       </c>
       <c r="S806" t="n">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="T806" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="807">
@@ -64887,7 +64887,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -64915,41 +64915,41 @@
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="N807" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="O807" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="P807" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>600</v>
+        <v>2083</v>
       </c>
       <c r="T807" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="808">
@@ -64967,7 +64967,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -65000,24 +65000,24 @@
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="N808" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O808" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P808" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R808" t="inlineStr">
@@ -65026,10 +65026,10 @@
         </is>
       </c>
       <c r="S808" t="n">
-        <v>333</v>
+        <v>778</v>
       </c>
       <c r="T808" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="809">
@@ -65047,7 +65047,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -65080,20 +65080,20 @@
       </c>
       <c r="L809" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M809" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="N809" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O809" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P809" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
@@ -65106,7 +65106,7 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="T809" t="n">
         <v>15</v>
@@ -65127,7 +65127,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -65160,24 +65160,24 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="N810" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="O810" t="n">
-        <v>130000</v>
+        <v>12000</v>
       </c>
       <c r="P810" t="n">
-        <v>130000</v>
+        <v>11111</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R810" t="inlineStr">
@@ -65186,10 +65186,10 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>289</v>
+        <v>741</v>
       </c>
       <c r="T810" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="811">
@@ -65207,7 +65207,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -65235,41 +65235,41 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N811" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="O811" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="P811" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S811" t="n">
-        <v>267</v>
+        <v>1333</v>
       </c>
       <c r="T811" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="812">
@@ -65287,7 +65287,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -65315,41 +65315,41 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N812" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="O812" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="P812" t="n">
-        <v>10000</v>
+        <v>37000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S812" t="n">
-        <v>556</v>
+        <v>1542</v>
       </c>
       <c r="T812" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="813">
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N813" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O813" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P813" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T813" t="n">
         <v>15</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -65484,16 +65484,16 @@
         </is>
       </c>
       <c r="M814" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N814" t="n">
-        <v>292000</v>
+        <v>200000</v>
       </c>
       <c r="O814" t="n">
-        <v>315000</v>
+        <v>200000</v>
       </c>
       <c r="P814" t="n">
-        <v>303500</v>
+        <v>200000</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         </is>
       </c>
       <c r="S814" t="n">
-        <v>674</v>
+        <v>444</v>
       </c>
       <c r="T814" t="n">
         <v>450</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -65564,20 +65564,20 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>500</v>
+        <v>185</v>
       </c>
       <c r="N815" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O815" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P815" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -65586,10 +65586,10 @@
         </is>
       </c>
       <c r="S815" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T815" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="816">
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -65640,24 +65640,24 @@
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="N816" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O816" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P816" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -65666,7 +65666,7 @@
         </is>
       </c>
       <c r="S816" t="n">
-        <v>700</v>
+        <v>333</v>
       </c>
       <c r="T816" t="n">
         <v>15</v>
@@ -65687,7 +65687,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -65720,24 +65720,24 @@
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N817" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O817" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P817" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R817" t="inlineStr">
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>733</v>
+        <v>467</v>
       </c>
       <c r="T817" t="n">
         <v>15</v>
@@ -65767,7 +65767,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -65804,20 +65804,20 @@
         </is>
       </c>
       <c r="M818" t="n">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="N818" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="O818" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="P818" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R818" t="inlineStr">
@@ -65826,10 +65826,10 @@
         </is>
       </c>
       <c r="S818" t="n">
-        <v>1000</v>
+        <v>289</v>
       </c>
       <c r="T818" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="819">
@@ -65847,7 +65847,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -65880,24 +65880,24 @@
       </c>
       <c r="L819" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M819" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N819" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O819" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P819" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R819" t="inlineStr">
@@ -65906,10 +65906,10 @@
         </is>
       </c>
       <c r="S819" t="n">
-        <v>889</v>
+        <v>267</v>
       </c>
       <c r="T819" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="820">
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -65960,24 +65960,24 @@
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N820" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O820" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P820" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
@@ -65986,10 +65986,10 @@
         </is>
       </c>
       <c r="S820" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T820" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -66040,24 +66040,24 @@
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M821" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N821" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O821" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="n">
-        <v>12315</v>
+        <v>10000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R821" t="inlineStr">
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>821</v>
+        <v>667</v>
       </c>
       <c r="T821" t="n">
         <v>15</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -66120,24 +66120,24 @@
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="N822" t="n">
-        <v>12000</v>
+        <v>292000</v>
       </c>
       <c r="O822" t="n">
-        <v>12000</v>
+        <v>315000</v>
       </c>
       <c r="P822" t="n">
-        <v>12000</v>
+        <v>303500</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
@@ -66146,10 +66146,10 @@
         </is>
       </c>
       <c r="S822" t="n">
-        <v>800</v>
+        <v>674</v>
       </c>
       <c r="T822" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="823">
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -66204,20 +66204,20 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N823" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O823" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P823" t="n">
-        <v>7571</v>
+        <v>15000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
@@ -66226,10 +66226,10 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>505</v>
+        <v>833</v>
       </c>
       <c r="T823" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="824">
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -66284,20 +66284,20 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="N824" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O824" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="P824" t="n">
-        <v>150000</v>
+        <v>10500</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,10 +66306,10 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="T824" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -66360,24 +66360,24 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N825" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O825" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P825" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,7 +66386,7 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>400</v>
+        <v>733</v>
       </c>
       <c r="T825" t="n">
         <v>15</v>
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66440,24 +66440,24 @@
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>5</v>
+        <v>285</v>
       </c>
       <c r="N826" t="n">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="O826" t="n">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="P826" t="n">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
@@ -66466,10 +66466,10 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>289</v>
+        <v>1000</v>
       </c>
       <c r="T826" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -66520,24 +66520,24 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N827" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O827" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P827" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
@@ -66546,10 +66546,10 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>333</v>
+        <v>889</v>
       </c>
       <c r="T827" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -66600,24 +66600,24 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="N828" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O828" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P828" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,7 +66626,7 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T828" t="n">
         <v>15</v>
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -66675,41 +66675,41 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="N829" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O829" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="P829" t="n">
-        <v>30000</v>
+        <v>12315</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>1667</v>
+        <v>821</v>
       </c>
       <c r="T829" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -66760,20 +66760,20 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="N830" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O830" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P830" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -66840,20 +66840,20 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="N831" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O831" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="P831" t="n">
-        <v>18278</v>
+        <v>7571</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>1219</v>
+        <v>505</v>
       </c>
       <c r="T831" t="n">
         <v>15</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66920,24 +66920,24 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="N832" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="O832" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="P832" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T832" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67004,16 +67004,16 @@
         </is>
       </c>
       <c r="M833" t="n">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="N833" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O833" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P833" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
@@ -67026,7 +67026,7 @@
         </is>
       </c>
       <c r="S833" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T833" t="n">
         <v>15</v>
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67080,24 +67080,24 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="N834" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="O834" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="P834" t="n">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
@@ -67106,10 +67106,10 @@
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1000</v>
+        <v>289</v>
       </c>
       <c r="T834" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67160,20 +67160,20 @@
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M835" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="N835" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O835" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P835" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T835" t="n">
         <v>15</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67240,36 +67240,36 @@
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="N836" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="O836" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="P836" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67315,41 +67315,41 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
       <c r="N837" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="O837" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="P837" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T837" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67407,13 +67407,13 @@
         <v>380</v>
       </c>
       <c r="N838" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O838" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P838" t="n">
-        <v>7474</v>
+        <v>18000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67426,7 +67426,7 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>498</v>
+        <v>1200</v>
       </c>
       <c r="T838" t="n">
         <v>15</v>
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -67480,24 +67480,24 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="N839" t="n">
-        <v>150000</v>
+        <v>18000</v>
       </c>
       <c r="O839" t="n">
-        <v>150000</v>
+        <v>18500</v>
       </c>
       <c r="P839" t="n">
-        <v>150000</v>
+        <v>18278</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>333</v>
+        <v>1219</v>
       </c>
       <c r="T839" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -67560,24 +67560,24 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N840" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O840" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P840" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
@@ -67586,7 +67586,7 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T840" t="n">
         <v>15</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67640,24 +67640,24 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N841" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O841" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P841" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R841" t="inlineStr">
@@ -67666,10 +67666,10 @@
         </is>
       </c>
       <c r="S841" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T841" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="842">
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -67720,20 +67720,20 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="N842" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O842" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P842" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67746,7 +67746,7 @@
         </is>
       </c>
       <c r="S842" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T842" t="n">
         <v>15</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -67800,24 +67800,24 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="N843" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O843" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P843" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,7 +67826,7 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T843" t="n">
         <v>15</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -67880,36 +67880,36 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="N844" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O844" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P844" t="n">
-        <v>7532</v>
+        <v>24000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S844" t="n">
-        <v>502</v>
+        <v>1333</v>
       </c>
       <c r="T844" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -67960,36 +67960,36 @@
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N845" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="O845" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="P845" t="n">
-        <v>11000</v>
+        <v>22500</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>611</v>
+        <v>1500</v>
       </c>
       <c r="T845" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68040,20 +68040,20 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N846" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O846" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P846" t="n">
-        <v>12000</v>
+        <v>7474</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68066,7 +68066,7 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>800</v>
+        <v>498</v>
       </c>
       <c r="T846" t="n">
         <v>15</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68120,24 +68120,24 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N847" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O847" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P847" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
@@ -68146,10 +68146,10 @@
         </is>
       </c>
       <c r="S847" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T847" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="848">
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68200,20 +68200,20 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N848" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O848" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P848" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68226,7 +68226,7 @@
         </is>
       </c>
       <c r="S848" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T848" t="n">
         <v>15</v>
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44494</v>
+        <v>44473</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68280,24 +68280,24 @@
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P849" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
@@ -68306,10 +68306,10 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T849" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -68364,32 +68364,32 @@
         </is>
       </c>
       <c r="M850" t="n">
+        <v>215</v>
+      </c>
+      <c r="N850" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O850" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P850" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q850" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R850" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S850" t="n">
+        <v>533</v>
+      </c>
+      <c r="T850" t="n">
         <v>15</v>
-      </c>
-      <c r="N850" t="n">
-        <v>150000</v>
-      </c>
-      <c r="O850" t="n">
-        <v>150000</v>
-      </c>
-      <c r="P850" t="n">
-        <v>150000</v>
-      </c>
-      <c r="Q850" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R850" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S850" t="n">
-        <v>333</v>
-      </c>
-      <c r="T850" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="851">
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -68440,36 +68440,36 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N851" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O851" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P851" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="T851" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -68515,41 +68515,41 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="N852" t="n">
-        <v>70000</v>
+        <v>7000</v>
       </c>
       <c r="O852" t="n">
-        <v>70000</v>
+        <v>8000</v>
       </c>
       <c r="P852" t="n">
-        <v>70000</v>
+        <v>7532</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>2917</v>
+        <v>502</v>
       </c>
       <c r="T852" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44342</v>
+        <v>44484</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -68600,11 +68600,11 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>125</v>
+        <v>380</v>
       </c>
       <c r="N853" t="n">
         <v>11000</v>
@@ -68617,19 +68617,19 @@
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>733</v>
+        <v>611</v>
       </c>
       <c r="T853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -68684,16 +68684,16 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="N854" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O854" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P854" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
@@ -68706,7 +68706,7 @@
         </is>
       </c>
       <c r="S854" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T854" t="n">
         <v>15</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -68760,24 +68760,24 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N855" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O855" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P855" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
@@ -68789,7 +68789,7 @@
         <v>800</v>
       </c>
       <c r="T855" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="856">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44328</v>
+        <v>44181</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -68840,20 +68840,20 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N856" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="O856" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P856" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
@@ -68862,11 +68862,11 @@
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="T856" t="n">
         <v>15</v>
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -68920,33 +68920,33 @@
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="N857" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O857" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P857" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T857" t="n">
         <v>15</v>
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -69004,20 +69004,20 @@
         </is>
       </c>
       <c r="M858" t="n">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="N858" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="O858" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="P858" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
@@ -69026,10 +69026,10 @@
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T858" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -69080,36 +69080,36 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N859" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O859" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P859" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>867</v>
+        <v>611</v>
       </c>
       <c r="T859" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="860">
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -69155,41 +69155,41 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="N860" t="n">
-        <v>13000</v>
+        <v>70000</v>
       </c>
       <c r="O860" t="n">
-        <v>13000</v>
+        <v>70000</v>
       </c>
       <c r="P860" t="n">
-        <v>13000</v>
+        <v>70000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>867</v>
+        <v>2917</v>
       </c>
       <c r="T860" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -69240,20 +69240,20 @@
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="N861" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O861" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P861" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69266,7 +69266,7 @@
         </is>
       </c>
       <c r="S861" t="n">
-        <v>900</v>
+        <v>733</v>
       </c>
       <c r="T861" t="n">
         <v>15</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -69320,36 +69320,36 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="N862" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O862" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P862" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T862" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -69395,41 +69395,41 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="N863" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O863" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P863" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="T863" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -69475,25 +69475,25 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N864" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="O864" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="P864" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
@@ -69502,11 +69502,11 @@
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>1667</v>
+        <v>1100</v>
       </c>
       <c r="T864" t="n">
         <v>15</v>
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -69560,24 +69560,24 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N865" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O865" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P865" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
@@ -69586,10 +69586,10 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T865" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="866">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -69640,24 +69640,24 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>345</v>
+        <v>128</v>
       </c>
       <c r="N866" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O866" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P866" t="n">
-        <v>13268</v>
+        <v>15000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
@@ -69666,7 +69666,7 @@
         </is>
       </c>
       <c r="S866" t="n">
-        <v>885</v>
+        <v>1000</v>
       </c>
       <c r="T866" t="n">
         <v>15</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -69720,20 +69720,20 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P867" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69746,7 +69746,7 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>667</v>
+        <v>867</v>
       </c>
       <c r="T867" t="n">
         <v>15</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -69795,41 +69795,41 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="N868" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="O868" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="P868" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>1458</v>
+        <v>867</v>
       </c>
       <c r="T868" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -69880,20 +69880,20 @@
       </c>
       <c r="L869" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M869" t="n">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="N869" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O869" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="P869" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69906,7 +69906,7 @@
         </is>
       </c>
       <c r="S869" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T869" t="n">
         <v>15</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -69960,33 +69960,33 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>380</v>
+        <v>255</v>
       </c>
       <c r="N870" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O870" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P870" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>1389</v>
+        <v>1222</v>
       </c>
       <c r="T870" t="n">
         <v>18</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -70035,25 +70035,25 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>410</v>
+        <v>185</v>
       </c>
       <c r="N871" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O871" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P871" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
@@ -70062,11 +70062,11 @@
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>1222</v>
+        <v>722</v>
       </c>
       <c r="T871" t="n">
         <v>18</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N872" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O872" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P872" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70142,11 +70142,11 @@
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="T872" t="n">
         <v>15</v>
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -70204,32 +70204,32 @@
         </is>
       </c>
       <c r="M873" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N873" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O873" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P873" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T873" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -70280,24 +70280,24 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="N874" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O874" t="n">
-        <v>23000</v>
+        <v>13500</v>
       </c>
       <c r="P874" t="n">
-        <v>23000</v>
+        <v>13268</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
@@ -70306,10 +70306,10 @@
         </is>
       </c>
       <c r="S874" t="n">
-        <v>1278</v>
+        <v>885</v>
       </c>
       <c r="T874" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -70360,24 +70360,24 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N875" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O875" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P875" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T875" t="n">
         <v>15</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -70435,41 +70435,41 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="N876" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="O876" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="P876" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>1333</v>
+        <v>1458</v>
       </c>
       <c r="T876" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -70520,20 +70520,20 @@
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="N877" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="O877" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="P877" t="n">
-        <v>23000</v>
+        <v>19500</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
@@ -70546,7 +70546,7 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>1533</v>
+        <v>1300</v>
       </c>
       <c r="T877" t="n">
         <v>15</v>
@@ -70567,7 +70567,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -70600,11 +70600,11 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N878" t="n">
         <v>25000</v>
@@ -70647,7 +70647,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -70684,7 +70684,7 @@
         </is>
       </c>
       <c r="M879" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="N879" t="n">
         <v>22000</v>
@@ -70697,19 +70697,19 @@
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>1467</v>
+        <v>1222</v>
       </c>
       <c r="T879" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="880">
@@ -70727,7 +70727,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -70760,33 +70760,33 @@
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N880" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O880" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P880" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="T880" t="n">
         <v>15</v>
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -70840,33 +70840,33 @@
       </c>
       <c r="L881" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M881" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="N881" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O881" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P881" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T881" t="n">
         <v>15</v>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70915,38 +70915,38 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N882" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O882" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P882" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>1111</v>
+        <v>1278</v>
       </c>
       <c r="T882" t="n">
         <v>18</v>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -71000,20 +71000,20 @@
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="N883" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O883" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="P883" t="n">
-        <v>8627</v>
+        <v>13500</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
@@ -71026,7 +71026,7 @@
         </is>
       </c>
       <c r="S883" t="n">
-        <v>575</v>
+        <v>900</v>
       </c>
       <c r="T883" t="n">
         <v>15</v>
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -71080,33 +71080,33 @@
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="N884" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O884" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P884" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>444</v>
+        <v>1333</v>
       </c>
       <c r="T884" t="n">
         <v>18</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -71164,16 +71164,16 @@
         </is>
       </c>
       <c r="M885" t="n">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="N885" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="O885" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="P885" t="n">
-        <v>6476</v>
+        <v>23000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
@@ -71186,7 +71186,7 @@
         </is>
       </c>
       <c r="S885" t="n">
-        <v>432</v>
+        <v>1533</v>
       </c>
       <c r="T885" t="n">
         <v>15</v>
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -71244,32 +71244,32 @@
         </is>
       </c>
       <c r="M886" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N886" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="O886" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="P886" t="n">
-        <v>120000</v>
+        <v>25000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>267</v>
+        <v>1389</v>
       </c>
       <c r="T886" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="887">
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -71320,20 +71320,20 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N887" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="O887" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="P887" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
@@ -71342,11 +71342,11 @@
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>333</v>
+        <v>1467</v>
       </c>
       <c r="T887" t="n">
         <v>15</v>
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -71400,36 +71400,36 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N888" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O888" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P888" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S888" t="n">
-        <v>556</v>
+        <v>1467</v>
       </c>
       <c r="T888" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="889">
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -71475,41 +71475,41 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="N889" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O889" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P889" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>1875</v>
+        <v>1333</v>
       </c>
       <c r="T889" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -71555,41 +71555,41 @@
       </c>
       <c r="K890" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="N890" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="O890" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="P890" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>1875</v>
+        <v>1111</v>
       </c>
       <c r="T890" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="891">
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -71644,16 +71644,16 @@
         </is>
       </c>
       <c r="M891" t="n">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="N891" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O891" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P891" t="n">
-        <v>7000</v>
+        <v>8627</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
@@ -71666,7 +71666,7 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>467</v>
+        <v>575</v>
       </c>
       <c r="T891" t="n">
         <v>15</v>
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44383</v>
+        <v>44509</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -71724,20 +71724,20 @@
         </is>
       </c>
       <c r="M892" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="N892" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O892" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P892" t="n">
-        <v>9591</v>
+        <v>8000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
@@ -71746,7 +71746,7 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="T892" t="n">
         <v>18</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -71804,20 +71804,20 @@
         </is>
       </c>
       <c r="M893" t="n">
-        <v>165</v>
+        <v>420</v>
       </c>
       <c r="N893" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O893" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P893" t="n">
-        <v>6500</v>
+        <v>6476</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
@@ -71826,7 +71826,7 @@
         </is>
       </c>
       <c r="S893" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T893" t="n">
         <v>15</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -71880,24 +71880,24 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="N894" t="n">
-        <v>18000</v>
+        <v>120000</v>
       </c>
       <c r="O894" t="n">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="P894" t="n">
-        <v>19042</v>
+        <v>120000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R894" t="inlineStr">
@@ -71906,10 +71906,10 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1269</v>
+        <v>267</v>
       </c>
       <c r="T894" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="895">
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -71960,24 +71960,24 @@
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N895" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="O895" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="P895" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>1222</v>
+        <v>333</v>
       </c>
       <c r="T895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -72040,36 +72040,36 @@
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N896" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O896" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P896" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="897">
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -72115,41 +72115,41 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="N897" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="O897" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="P897" t="n">
-        <v>20000</v>
+        <v>45000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>1333</v>
+        <v>1875</v>
       </c>
       <c r="T897" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -72195,41 +72195,41 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N898" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="O898" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="P898" t="n">
-        <v>13000</v>
+        <v>45000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>867</v>
+        <v>1875</v>
       </c>
       <c r="T898" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="899">
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -72280,20 +72280,20 @@
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N899" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O899" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P899" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
@@ -72302,11 +72302,11 @@
       </c>
       <c r="R899" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="T899" t="n">
         <v>15</v>
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -72360,20 +72360,20 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N900" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O900" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P900" t="n">
-        <v>21000</v>
+        <v>9591</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
@@ -72382,11 +72382,11 @@
       </c>
       <c r="R900" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1167</v>
+        <v>533</v>
       </c>
       <c r="T900" t="n">
         <v>18</v>
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -72435,41 +72435,41 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="N901" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="O901" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="P901" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>1250</v>
+        <v>433</v>
       </c>
       <c r="T901" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902">
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -72520,20 +72520,20 @@
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>265</v>
+        <v>355</v>
       </c>
       <c r="N902" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="O902" t="n">
-        <v>18500</v>
+        <v>20000</v>
       </c>
       <c r="P902" t="n">
-        <v>18500</v>
+        <v>19042</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
@@ -72546,7 +72546,7 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>1233</v>
+        <v>1269</v>
       </c>
       <c r="T902" t="n">
         <v>15</v>
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -72600,33 +72600,33 @@
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="N903" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O903" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P903" t="n">
-        <v>23961</v>
+        <v>22000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>1331</v>
+        <v>1222</v>
       </c>
       <c r="T903" t="n">
         <v>18</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72680,20 +72680,20 @@
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="N904" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O904" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="P904" t="n">
-        <v>18215</v>
+        <v>15000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
@@ -72702,11 +72702,11 @@
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>1214</v>
+        <v>1000</v>
       </c>
       <c r="T904" t="n">
         <v>15</v>
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -72764,20 +72764,20 @@
         </is>
       </c>
       <c r="M905" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N905" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O905" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P905" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72789,7 +72789,7 @@
         <v>1333</v>
       </c>
       <c r="T905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906">
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -72840,36 +72840,36 @@
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="N906" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O906" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P906" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S906" t="n">
-        <v>1333</v>
+        <v>867</v>
       </c>
       <c r="T906" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="907">
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -72920,20 +72920,20 @@
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N907" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O907" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P907" t="n">
-        <v>6455</v>
+        <v>18000</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72942,11 +72942,11 @@
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>430</v>
+        <v>1200</v>
       </c>
       <c r="T907" t="n">
         <v>15</v>
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -73000,20 +73000,20 @@
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N908" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O908" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P908" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73022,11 +73022,11 @@
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>444</v>
+        <v>1167</v>
       </c>
       <c r="T908" t="n">
         <v>18</v>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -73075,41 +73075,41 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N909" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="O909" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="P909" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>222</v>
+        <v>1250</v>
       </c>
       <c r="T909" t="n">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="910">
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -73160,20 +73160,20 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="N910" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="O910" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="P910" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73186,7 +73186,7 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>533</v>
+        <v>1233</v>
       </c>
       <c r="T910" t="n">
         <v>15</v>
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -73235,25 +73235,25 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>30</v>
+        <v>385</v>
       </c>
       <c r="N911" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="O911" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P911" t="n">
-        <v>35000</v>
+        <v>23961</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73262,11 +73262,11 @@
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>1944</v>
+        <v>1331</v>
       </c>
       <c r="T911" t="n">
         <v>18</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -73320,20 +73320,20 @@
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="N912" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O912" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="P912" t="n">
-        <v>15000</v>
+        <v>18215</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73346,7 +73346,7 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>1000</v>
+        <v>1214</v>
       </c>
       <c r="T912" t="n">
         <v>15</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -73400,36 +73400,36 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N913" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O913" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="P913" t="n">
-        <v>13222</v>
+        <v>24000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S913" t="n">
-        <v>881</v>
+        <v>1333</v>
       </c>
       <c r="T913" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="914">
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -73480,36 +73480,36 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="N914" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="O914" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P914" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>933</v>
+        <v>1333</v>
       </c>
       <c r="T914" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="915">
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -73560,24 +73560,24 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N915" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O915" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P915" t="n">
-        <v>13000</v>
+        <v>6455</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
@@ -73586,7 +73586,7 @@
         </is>
       </c>
       <c r="S915" t="n">
-        <v>867</v>
+        <v>430</v>
       </c>
       <c r="T915" t="n">
         <v>15</v>
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -73644,20 +73644,20 @@
         </is>
       </c>
       <c r="M916" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N916" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O916" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P916" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R916" t="inlineStr">
@@ -73666,10 +73666,10 @@
         </is>
       </c>
       <c r="S916" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T916" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="917">
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -73720,24 +73720,24 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="N917" t="n">
-        <v>14000</v>
+        <v>100000</v>
       </c>
       <c r="O917" t="n">
-        <v>15000</v>
+        <v>100000</v>
       </c>
       <c r="P917" t="n">
-        <v>14500</v>
+        <v>100000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R917" t="inlineStr">
@@ -73746,10 +73746,10 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>806</v>
+        <v>222</v>
       </c>
       <c r="T917" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="918">
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -73800,24 +73800,24 @@
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
@@ -73826,7 +73826,7 @@
         </is>
       </c>
       <c r="S918" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T918" t="n">
         <v>15</v>
@@ -73847,7 +73847,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -73884,20 +73884,20 @@
         </is>
       </c>
       <c r="M919" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N919" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="O919" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="P919" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R919" t="inlineStr">
@@ -73906,10 +73906,10 @@
         </is>
       </c>
       <c r="S919" t="n">
-        <v>1667</v>
+        <v>1944</v>
       </c>
       <c r="T919" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="920">
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -73955,41 +73955,41 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N920" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="O920" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="P920" t="n">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="T920" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="921">
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -74044,20 +74044,20 @@
         </is>
       </c>
       <c r="M921" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="N921" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O921" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P921" t="n">
-        <v>7455</v>
+        <v>13222</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R921" t="inlineStr">
@@ -74066,7 +74066,7 @@
         </is>
       </c>
       <c r="S921" t="n">
-        <v>497</v>
+        <v>881</v>
       </c>
       <c r="T921" t="n">
         <v>15</v>
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -74120,24 +74120,24 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N922" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O922" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P922" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R922" t="inlineStr">
@@ -74146,10 +74146,10 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>556</v>
+        <v>933</v>
       </c>
       <c r="T922" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="923">
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -74200,20 +74200,20 @@
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N923" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O923" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P923" t="n">
-        <v>7385</v>
+        <v>13000</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74226,7 +74226,7 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>492</v>
+        <v>867</v>
       </c>
       <c r="T923" t="n">
         <v>15</v>
@@ -74247,7 +74247,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -74280,20 +74280,20 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="N924" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O924" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P924" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
@@ -74306,7 +74306,7 @@
         </is>
       </c>
       <c r="S924" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T924" t="n">
         <v>15</v>
@@ -74327,68 +74327,708 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E925" t="n">
+        <v>9</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G925" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I925" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M925" t="n">
+        <v>600</v>
+      </c>
+      <c r="N925" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O925" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P925" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q925" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R925" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S925" t="n">
+        <v>806</v>
+      </c>
+      <c r="T925" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>10</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D926" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E926" t="n">
+        <v>9</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G926" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I926" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M926" t="n">
+        <v>30</v>
+      </c>
+      <c r="N926" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O926" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P926" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q926" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R926" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S926" t="n">
+        <v>800</v>
+      </c>
+      <c r="T926" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>10</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D927" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E927" t="n">
+        <v>9</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G927" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I927" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M927" t="n">
+        <v>80</v>
+      </c>
+      <c r="N927" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O927" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P927" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q927" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R927" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S927" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T927" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>10</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D928" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E928" t="n">
+        <v>9</v>
+      </c>
+      <c r="F928" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G928" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I928" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>Tahití</t>
+        </is>
+      </c>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M928" t="n">
+        <v>60</v>
+      </c>
+      <c r="N928" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O928" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P928" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q928" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R928" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S928" t="n">
+        <v>1667</v>
+      </c>
+      <c r="T928" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>10</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D929" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E925" t="n">
-        <v>9</v>
-      </c>
-      <c r="F925" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G925" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H925" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I925" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J925" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L925" t="inlineStr">
+      <c r="E929" t="n">
+        <v>9</v>
+      </c>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G929" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I929" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M929" t="n">
+        <v>220</v>
+      </c>
+      <c r="N929" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O929" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P929" t="n">
+        <v>7455</v>
+      </c>
+      <c r="Q929" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R929" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S929" t="n">
+        <v>497</v>
+      </c>
+      <c r="T929" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>10</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D930" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E930" t="n">
+        <v>9</v>
+      </c>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G930" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I930" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M930" t="n">
+        <v>180</v>
+      </c>
+      <c r="N930" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O930" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P930" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q930" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R930" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S930" t="n">
+        <v>556</v>
+      </c>
+      <c r="T930" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>10</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D931" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E931" t="n">
+        <v>9</v>
+      </c>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G931" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I931" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M931" t="n">
+        <v>130</v>
+      </c>
+      <c r="N931" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O931" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P931" t="n">
+        <v>7385</v>
+      </c>
+      <c r="Q931" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R931" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S931" t="n">
+        <v>492</v>
+      </c>
+      <c r="T931" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>10</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D932" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E932" t="n">
+        <v>9</v>
+      </c>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G932" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I932" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M932" t="n">
+        <v>80</v>
+      </c>
+      <c r="N932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P932" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q932" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R932" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S932" t="n">
+        <v>400</v>
+      </c>
+      <c r="T932" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>10</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D933" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E933" t="n">
+        <v>9</v>
+      </c>
+      <c r="F933" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G933" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I933" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L933" t="inlineStr">
         <is>
           <t>Especial amarillo</t>
         </is>
       </c>
-      <c r="M925" t="n">
+      <c r="M933" t="n">
         <v>50</v>
       </c>
-      <c r="N925" t="n">
+      <c r="N933" t="n">
         <v>11000</v>
       </c>
-      <c r="O925" t="n">
+      <c r="O933" t="n">
         <v>11000</v>
       </c>
-      <c r="P925" t="n">
+      <c r="P933" t="n">
         <v>11000</v>
       </c>
-      <c r="Q925" t="inlineStr">
+      <c r="Q933" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R925" t="inlineStr">
+      <c r="R933" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S925" t="n">
+      <c r="S933" t="n">
         <v>611</v>
       </c>
-      <c r="T925" t="n">
+      <c r="T933" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T938"/>
+  <dimension ref="A1:T939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70920,20 +70920,20 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="N882" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="O882" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="P882" t="n">
-        <v>19500</v>
+        <v>9361</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
@@ -70946,7 +70946,7 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>1300</v>
+        <v>624</v>
       </c>
       <c r="T882" t="n">
         <v>15</v>
@@ -71007,29 +71007,29 @@
         <v>380</v>
       </c>
       <c r="N883" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="O883" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P883" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>1389</v>
+        <v>1300</v>
       </c>
       <c r="T883" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="884">
@@ -71084,29 +71084,29 @@
         </is>
       </c>
       <c r="M884" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="N884" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O884" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P884" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>1222</v>
+        <v>1389</v>
       </c>
       <c r="T884" t="n">
         <v>18</v>
@@ -71160,24 +71160,24 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="N885" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O885" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P885" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
@@ -71186,10 +71186,10 @@
         </is>
       </c>
       <c r="S885" t="n">
-        <v>1200</v>
+        <v>1222</v>
       </c>
       <c r="T885" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -71240,20 +71240,20 @@
       </c>
       <c r="L886" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M886" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N886" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O886" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P886" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
@@ -71266,7 +71266,7 @@
         </is>
       </c>
       <c r="S886" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T886" t="n">
         <v>15</v>
@@ -71324,20 +71324,20 @@
         </is>
       </c>
       <c r="M887" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N887" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O887" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P887" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
@@ -71346,10 +71346,10 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>1278</v>
+        <v>1000</v>
       </c>
       <c r="T887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="888">
@@ -71400,24 +71400,24 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N888" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="O888" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="P888" t="n">
-        <v>13500</v>
+        <v>23000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
@@ -71426,10 +71426,10 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>900</v>
+        <v>1278</v>
       </c>
       <c r="T888" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="889">
@@ -71480,36 +71480,36 @@
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N889" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="O889" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="P889" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>1333</v>
+        <v>900</v>
       </c>
       <c r="T889" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890">
@@ -71527,7 +71527,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -71560,36 +71560,36 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="N890" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O890" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P890" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>1533</v>
+        <v>1333</v>
       </c>
       <c r="T890" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="891">
@@ -71644,32 +71644,32 @@
         </is>
       </c>
       <c r="M891" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="N891" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O891" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P891" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S891" t="n">
-        <v>1389</v>
+        <v>1533</v>
       </c>
       <c r="T891" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="892">
@@ -71720,24 +71720,24 @@
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M892" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N892" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O892" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P892" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
@@ -71746,10 +71746,10 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>1467</v>
+        <v>1389</v>
       </c>
       <c r="T892" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="893">
@@ -71804,7 +71804,7 @@
         </is>
       </c>
       <c r="M893" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N893" t="n">
         <v>22000</v>
@@ -71817,7 +71817,7 @@
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
@@ -71880,20 +71880,20 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N894" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O894" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P894" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71906,7 +71906,7 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="T894" t="n">
         <v>15</v>
@@ -71955,16 +71955,16 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N895" t="n">
         <v>20000</v>
@@ -71977,19 +71977,19 @@
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S895" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="T895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -72035,41 +72035,41 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="N896" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O896" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P896" t="n">
-        <v>8627</v>
+        <v>20000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>575</v>
+        <v>1111</v>
       </c>
       <c r="T896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="897">
@@ -72124,20 +72124,20 @@
         </is>
       </c>
       <c r="M897" t="n">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="N897" t="n">
         <v>8000</v>
       </c>
       <c r="O897" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P897" t="n">
-        <v>8000</v>
+        <v>8627</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
@@ -72146,10 +72146,10 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="T897" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -72204,20 +72204,20 @@
         </is>
       </c>
       <c r="M898" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="N898" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O898" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P898" t="n">
-        <v>6476</v>
+        <v>8000</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R898" t="inlineStr">
@@ -72226,10 +72226,10 @@
         </is>
       </c>
       <c r="S898" t="n">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="T898" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="899">
@@ -72284,20 +72284,20 @@
         </is>
       </c>
       <c r="M899" t="n">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="N899" t="n">
-        <v>120000</v>
+        <v>6000</v>
       </c>
       <c r="O899" t="n">
-        <v>120000</v>
+        <v>7000</v>
       </c>
       <c r="P899" t="n">
-        <v>120000</v>
+        <v>6476</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
@@ -72306,10 +72306,10 @@
         </is>
       </c>
       <c r="S899" t="n">
-        <v>267</v>
+        <v>432</v>
       </c>
       <c r="T899" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="900">
@@ -72360,24 +72360,24 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N900" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="O900" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="P900" t="n">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
@@ -72386,10 +72386,10 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T900" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="901">
@@ -72440,24 +72440,24 @@
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N901" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O901" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P901" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
@@ -72466,10 +72466,10 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T901" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="902">
@@ -72515,41 +72515,41 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N902" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O902" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P902" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>1875</v>
+        <v>556</v>
       </c>
       <c r="T902" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903">
@@ -72595,7 +72595,7 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72675,41 +72675,41 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="N904" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="O904" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="P904" t="n">
-        <v>7000</v>
+        <v>45000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>467</v>
+        <v>1875</v>
       </c>
       <c r="T904" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="905">
@@ -72764,20 +72764,20 @@
         </is>
       </c>
       <c r="M905" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N905" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O905" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P905" t="n">
-        <v>9591</v>
+        <v>7000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="906">
@@ -72844,20 +72844,20 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="N906" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O906" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="P906" t="n">
-        <v>6500</v>
+        <v>9591</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
@@ -72866,10 +72866,10 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>433</v>
+        <v>533</v>
       </c>
       <c r="T906" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="907">
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -72920,24 +72920,24 @@
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="N907" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O907" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P907" t="n">
-        <v>19042</v>
+        <v>6500</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
@@ -72946,7 +72946,7 @@
         </is>
       </c>
       <c r="S907" t="n">
-        <v>1269</v>
+        <v>433</v>
       </c>
       <c r="T907" t="n">
         <v>15</v>
@@ -73004,20 +73004,20 @@
         </is>
       </c>
       <c r="M908" t="n">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="N908" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O908" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P908" t="n">
-        <v>22000</v>
+        <v>19042</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R908" t="inlineStr">
@@ -73026,10 +73026,10 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>1222</v>
+        <v>1269</v>
       </c>
       <c r="T908" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="909">
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -73080,36 +73080,36 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="N909" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="O909" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P909" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="T909" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="910">
@@ -73160,20 +73160,20 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N910" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O910" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P910" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73186,7 +73186,7 @@
         </is>
       </c>
       <c r="S910" t="n">
-        <v>1333</v>
+        <v>1000</v>
       </c>
       <c r="T910" t="n">
         <v>15</v>
@@ -73240,20 +73240,20 @@
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N911" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O911" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P911" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73266,7 +73266,7 @@
         </is>
       </c>
       <c r="S911" t="n">
-        <v>867</v>
+        <v>1333</v>
       </c>
       <c r="T911" t="n">
         <v>15</v>
@@ -73320,20 +73320,20 @@
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N912" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O912" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P912" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73346,7 +73346,7 @@
         </is>
       </c>
       <c r="S912" t="n">
-        <v>1200</v>
+        <v>867</v>
       </c>
       <c r="T912" t="n">
         <v>15</v>
@@ -73404,20 +73404,20 @@
         </is>
       </c>
       <c r="M913" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N913" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O913" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P913" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
@@ -73426,10 +73426,10 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>1167</v>
+        <v>1200</v>
       </c>
       <c r="T913" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="914">
@@ -73475,41 +73475,41 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N914" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="O914" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="P914" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>1250</v>
+        <v>1167</v>
       </c>
       <c r="T914" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="915">
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -73555,41 +73555,41 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="N915" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="O915" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="P915" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="T915" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="916">
@@ -73644,32 +73644,32 @@
         </is>
       </c>
       <c r="M916" t="n">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="N916" t="n">
-        <v>23000</v>
+        <v>18500</v>
       </c>
       <c r="O916" t="n">
-        <v>25000</v>
+        <v>18500</v>
       </c>
       <c r="P916" t="n">
-        <v>23961</v>
+        <v>18500</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>1331</v>
+        <v>1233</v>
       </c>
       <c r="T916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="917">
@@ -73720,36 +73720,36 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="N917" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O917" t="n">
-        <v>18500</v>
+        <v>25000</v>
       </c>
       <c r="P917" t="n">
-        <v>18215</v>
+        <v>23961</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S917" t="n">
-        <v>1214</v>
+        <v>1331</v>
       </c>
       <c r="T917" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="918">
@@ -73804,32 +73804,32 @@
         </is>
       </c>
       <c r="M918" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="N918" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O918" t="n">
-        <v>24000</v>
+        <v>18500</v>
       </c>
       <c r="P918" t="n">
-        <v>24000</v>
+        <v>18215</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S918" t="n">
-        <v>1333</v>
+        <v>1214</v>
       </c>
       <c r="T918" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="919">
@@ -73880,11 +73880,11 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N919" t="n">
         <v>24000</v>
@@ -73902,7 +73902,7 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S919" t="n">
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -73960,36 +73960,36 @@
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="N920" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="O920" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P920" t="n">
-        <v>6455</v>
+        <v>24000</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>430</v>
+        <v>1333</v>
       </c>
       <c r="T920" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="921">
@@ -74044,20 +74044,20 @@
         </is>
       </c>
       <c r="M921" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N921" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O921" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P921" t="n">
-        <v>8000</v>
+        <v>6455</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R921" t="inlineStr">
@@ -74066,10 +74066,10 @@
         </is>
       </c>
       <c r="S921" t="n">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="T921" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="922">
@@ -74120,24 +74120,24 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N922" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="O922" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="P922" t="n">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R922" t="inlineStr">
@@ -74146,10 +74146,10 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T922" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="923">
@@ -74200,24 +74200,24 @@
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N923" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="O923" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="P923" t="n">
-        <v>8000</v>
+        <v>100000</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R923" t="inlineStr">
@@ -74226,10 +74226,10 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>533</v>
+        <v>222</v>
       </c>
       <c r="T923" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="924">
@@ -74275,41 +74275,41 @@
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N924" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="O924" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="P924" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S924" t="n">
-        <v>1944</v>
+        <v>533</v>
       </c>
       <c r="T924" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="925">
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -74355,41 +74355,41 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M925" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N925" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="O925" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="P925" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="T925" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="926">
@@ -74444,20 +74444,20 @@
         </is>
       </c>
       <c r="M926" t="n">
-        <v>450</v>
+        <v>65</v>
       </c>
       <c r="N926" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O926" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P926" t="n">
-        <v>13222</v>
+        <v>15000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R926" t="inlineStr">
@@ -74466,7 +74466,7 @@
         </is>
       </c>
       <c r="S926" t="n">
-        <v>881</v>
+        <v>1000</v>
       </c>
       <c r="T926" t="n">
         <v>15</v>
@@ -74520,24 +74520,24 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>110</v>
+        <v>450</v>
       </c>
       <c r="N927" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O927" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="P927" t="n">
-        <v>14000</v>
+        <v>13222</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R927" t="inlineStr">
@@ -74546,7 +74546,7 @@
         </is>
       </c>
       <c r="S927" t="n">
-        <v>933</v>
+        <v>881</v>
       </c>
       <c r="T927" t="n">
         <v>15</v>
@@ -74604,20 +74604,20 @@
         </is>
       </c>
       <c r="M928" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N928" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O928" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P928" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R928" t="inlineStr">
@@ -74626,7 +74626,7 @@
         </is>
       </c>
       <c r="S928" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T928" t="n">
         <v>15</v>
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -74680,24 +74680,24 @@
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M929" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P929" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R929" t="inlineStr">
@@ -74706,7 +74706,7 @@
         </is>
       </c>
       <c r="S929" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T929" t="n">
         <v>15</v>
@@ -74764,20 +74764,20 @@
         </is>
       </c>
       <c r="M930" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N930" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O930" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P930" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R930" t="inlineStr">
@@ -74786,10 +74786,10 @@
         </is>
       </c>
       <c r="S930" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="T930" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="931">
@@ -74840,24 +74840,24 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M931" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="N931" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O931" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P931" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R931" t="inlineStr">
@@ -74866,10 +74866,10 @@
         </is>
       </c>
       <c r="S931" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="T931" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="932">
@@ -74915,41 +74915,41 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M932" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N932" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="O932" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="P932" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T932" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="933">
@@ -74995,7 +74995,7 @@
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L933" t="inlineStr">
@@ -75004,7 +75004,7 @@
         </is>
       </c>
       <c r="M933" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N933" t="n">
         <v>40000</v>
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -75075,41 +75075,41 @@
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="N934" t="n">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="O934" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="P934" t="n">
-        <v>7455</v>
+        <v>40000</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R934" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S934" t="n">
-        <v>497</v>
+        <v>1667</v>
       </c>
       <c r="T934" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="935">
@@ -75164,20 +75164,20 @@
         </is>
       </c>
       <c r="M935" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N935" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O935" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P935" t="n">
-        <v>10000</v>
+        <v>7455</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R935" t="inlineStr">
@@ -75186,10 +75186,10 @@
         </is>
       </c>
       <c r="S935" t="n">
-        <v>556</v>
+        <v>497</v>
       </c>
       <c r="T935" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="936">
@@ -75244,20 +75244,20 @@
         </is>
       </c>
       <c r="M936" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="N936" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O936" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P936" t="n">
-        <v>7385</v>
+        <v>10000</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R936" t="inlineStr">
@@ -75266,10 +75266,10 @@
         </is>
       </c>
       <c r="S936" t="n">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="T936" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="937">
@@ -75320,24 +75320,24 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N937" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O937" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P937" t="n">
-        <v>6000</v>
+        <v>7385</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R937" t="inlineStr">
@@ -75346,7 +75346,7 @@
         </is>
       </c>
       <c r="S937" t="n">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="T937" t="n">
         <v>15</v>
@@ -75400,35 +75400,115 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M938" t="n">
+        <v>80</v>
+      </c>
+      <c r="N938" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O938" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P938" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q938" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R938" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S938" t="n">
+        <v>400</v>
+      </c>
+      <c r="T938" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>10</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E939" t="n">
+        <v>9</v>
+      </c>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G939" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I939" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L939" t="inlineStr">
+        <is>
           <t>Especial amarillo</t>
         </is>
       </c>
-      <c r="M938" t="n">
+      <c r="M939" t="n">
         <v>50</v>
       </c>
-      <c r="N938" t="n">
+      <c r="N939" t="n">
         <v>11000</v>
       </c>
-      <c r="O938" t="n">
+      <c r="O939" t="n">
         <v>11000</v>
       </c>
-      <c r="P938" t="n">
+      <c r="P939" t="n">
         <v>11000</v>
       </c>
-      <c r="Q938" t="inlineStr">
+      <c r="Q939" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R938" t="inlineStr">
+      <c r="R939" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S938" t="n">
+      <c r="S939" t="n">
         <v>611</v>
       </c>
-      <c r="T938" t="n">
+      <c r="T939" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T949"/>
+  <dimension ref="A1:T953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -66200,20 +66200,20 @@
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N823" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O823" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P823" t="n">
-        <v>19556</v>
+        <v>9000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1304</v>
+        <v>600</v>
       </c>
       <c r="T823" t="n">
         <v>15</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -66284,20 +66284,20 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N824" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O824" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P824" t="n">
-        <v>7455</v>
+        <v>13000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
@@ -66306,10 +66306,10 @@
         </is>
       </c>
       <c r="S824" t="n">
-        <v>497</v>
+        <v>722</v>
       </c>
       <c r="T824" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -66360,24 +66360,24 @@
       </c>
       <c r="L825" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M825" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N825" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O825" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P825" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
@@ -66386,10 +66386,10 @@
         </is>
       </c>
       <c r="S825" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T825" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="826">
@@ -66407,7 +66407,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -66435,41 +66435,41 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="N826" t="n">
-        <v>7000</v>
+        <v>35000</v>
       </c>
       <c r="O826" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="P826" t="n">
-        <v>7385</v>
+        <v>35000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S826" t="n">
-        <v>492</v>
+        <v>1458</v>
       </c>
       <c r="T826" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -66520,20 +66520,20 @@
       </c>
       <c r="L827" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M827" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N827" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O827" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P827" t="n">
-        <v>6000</v>
+        <v>19556</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66546,7 +66546,7 @@
         </is>
       </c>
       <c r="S827" t="n">
-        <v>400</v>
+        <v>1304</v>
       </c>
       <c r="T827" t="n">
         <v>15</v>
@@ -66600,24 +66600,24 @@
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="N828" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O828" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P828" t="n">
-        <v>11000</v>
+        <v>7455</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
@@ -66626,10 +66626,10 @@
         </is>
       </c>
       <c r="S828" t="n">
-        <v>611</v>
+        <v>497</v>
       </c>
       <c r="T828" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -66684,20 +66684,20 @@
         </is>
       </c>
       <c r="M829" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="N829" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O829" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P829" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
@@ -66706,10 +66706,10 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>1467</v>
+        <v>556</v>
       </c>
       <c r="T829" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -66760,24 +66760,24 @@
       </c>
       <c r="L830" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M830" t="n">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="N830" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O830" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P830" t="n">
-        <v>22000</v>
+        <v>7385</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>1467</v>
+        <v>492</v>
       </c>
       <c r="T830" t="n">
         <v>15</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -66840,20 +66840,20 @@
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N831" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O831" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P831" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T831" t="n">
         <v>15</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -66920,24 +66920,24 @@
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N832" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O832" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="P832" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
@@ -66946,10 +66946,10 @@
         </is>
       </c>
       <c r="S832" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="T832" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -67000,11 +67000,11 @@
       </c>
       <c r="L833" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M833" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N833" t="n">
         <v>22000</v>
@@ -67017,19 +67017,19 @@
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>1222</v>
+        <v>1467</v>
       </c>
       <c r="T833" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -67080,11 +67080,11 @@
       </c>
       <c r="L834" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M834" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="N834" t="n">
         <v>22000</v>
@@ -67097,19 +67097,19 @@
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1222</v>
+        <v>1467</v>
       </c>
       <c r="T834" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -67164,16 +67164,16 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N835" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O835" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P835" t="n">
-        <v>11556</v>
+        <v>15000</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="T835" t="n">
         <v>15</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -67244,20 +67244,20 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="N836" t="n">
-        <v>225000</v>
+        <v>13500</v>
       </c>
       <c r="O836" t="n">
-        <v>230000</v>
+        <v>13500</v>
       </c>
       <c r="P836" t="n">
-        <v>226923</v>
+        <v>13500</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
@@ -67266,10 +67266,10 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>504</v>
+        <v>900</v>
       </c>
       <c r="T836" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="837">
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -67320,33 +67320,33 @@
       </c>
       <c r="L837" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M837" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N837" t="n">
-        <v>14500</v>
+        <v>22000</v>
       </c>
       <c r="O837" t="n">
-        <v>14500</v>
+        <v>22000</v>
       </c>
       <c r="P837" t="n">
-        <v>14500</v>
+        <v>22000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>806</v>
+        <v>1222</v>
       </c>
       <c r="T837" t="n">
         <v>18</v>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -67400,36 +67400,36 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N838" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O838" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P838" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S838" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="T838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="839">
@@ -67480,24 +67480,24 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N839" t="n">
         <v>11000</v>
       </c>
       <c r="O839" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P839" t="n">
-        <v>11000</v>
+        <v>11556</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>611</v>
+        <v>770</v>
       </c>
       <c r="T839" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="840">
@@ -67527,7 +67527,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -67560,24 +67560,24 @@
       </c>
       <c r="L840" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M840" t="n">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="N840" t="n">
-        <v>21000</v>
+        <v>225000</v>
       </c>
       <c r="O840" t="n">
-        <v>22000</v>
+        <v>230000</v>
       </c>
       <c r="P840" t="n">
-        <v>21462</v>
+        <v>226923</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
@@ -67586,10 +67586,10 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>1431</v>
+        <v>504</v>
       </c>
       <c r="T840" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="841">
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -67640,20 +67640,20 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N841" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="O841" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="P841" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67666,7 +67666,7 @@
         </is>
       </c>
       <c r="S841" t="n">
-        <v>1389</v>
+        <v>806</v>
       </c>
       <c r="T841" t="n">
         <v>18</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -67720,20 +67720,20 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M842" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N842" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O842" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P842" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67746,7 +67746,7 @@
         </is>
       </c>
       <c r="S842" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="T842" t="n">
         <v>15</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -67804,20 +67804,20 @@
         </is>
       </c>
       <c r="M843" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N843" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O843" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P843" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
@@ -67826,10 +67826,10 @@
         </is>
       </c>
       <c r="S843" t="n">
-        <v>1333</v>
+        <v>611</v>
       </c>
       <c r="T843" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="844">
@@ -67880,24 +67880,24 @@
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="N844" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O844" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P844" t="n">
-        <v>20000</v>
+        <v>21462</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
@@ -67906,7 +67906,7 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>1333</v>
+        <v>1431</v>
       </c>
       <c r="T844" t="n">
         <v>15</v>
@@ -67955,41 +67955,41 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M845" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P845" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>1458</v>
+        <v>1389</v>
       </c>
       <c r="T845" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="846">
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -68040,24 +68040,24 @@
       </c>
       <c r="L846" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M846" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N846" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="O846" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P846" t="n">
-        <v>6556</v>
+        <v>21000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
@@ -68066,7 +68066,7 @@
         </is>
       </c>
       <c r="S846" t="n">
-        <v>437</v>
+        <v>1400</v>
       </c>
       <c r="T846" t="n">
         <v>15</v>
@@ -68087,7 +68087,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -68120,20 +68120,20 @@
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N847" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O847" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P847" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68146,7 +68146,7 @@
         </is>
       </c>
       <c r="S847" t="n">
-        <v>333</v>
+        <v>1333</v>
       </c>
       <c r="T847" t="n">
         <v>15</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -68200,24 +68200,24 @@
       </c>
       <c r="L848" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M848" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N848" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O848" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P848" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R848" t="inlineStr">
@@ -68226,10 +68226,10 @@
         </is>
       </c>
       <c r="S848" t="n">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="T848" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="849">
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -68275,41 +68275,41 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M849" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="N849" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="O849" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="P849" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>500</v>
+        <v>1458</v>
       </c>
       <c r="T849" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -68355,16 +68355,16 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M850" t="n">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="N850" t="n">
         <v>6000</v>
@@ -68373,7 +68373,7 @@
         <v>7000</v>
       </c>
       <c r="P850" t="n">
-        <v>6455</v>
+        <v>6556</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68386,7 +68386,7 @@
         </is>
       </c>
       <c r="S850" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="T850" t="n">
         <v>15</v>
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -68435,41 +68435,41 @@
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N851" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="O851" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="P851" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>2083</v>
+        <v>333</v>
       </c>
       <c r="T851" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -68520,24 +68520,24 @@
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N852" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O852" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P852" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
@@ -68546,10 +68546,10 @@
         </is>
       </c>
       <c r="S852" t="n">
-        <v>1067</v>
+        <v>556</v>
       </c>
       <c r="T852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -68600,36 +68600,36 @@
       </c>
       <c r="L853" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M853" t="n">
-        <v>435</v>
+        <v>255</v>
       </c>
       <c r="N853" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O853" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P853" t="n">
-        <v>12966</v>
+        <v>9000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>864</v>
+        <v>500</v>
       </c>
       <c r="T853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -68675,7 +68675,7 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
@@ -68684,32 +68684,32 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="N854" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O854" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P854" t="n">
-        <v>20000</v>
+        <v>6455</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>1111</v>
+        <v>430</v>
       </c>
       <c r="T854" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="855">
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -68755,41 +68755,41 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="N855" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="O855" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="P855" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>800</v>
+        <v>2083</v>
       </c>
       <c r="T855" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="856">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -68840,11 +68840,11 @@
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M856" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N856" t="n">
         <v>16000</v>
@@ -68857,7 +68857,7 @@
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
@@ -68866,10 +68866,10 @@
         </is>
       </c>
       <c r="S856" t="n">
-        <v>889</v>
+        <v>1067</v>
       </c>
       <c r="T856" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="857">
@@ -68887,7 +68887,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -68915,41 +68915,41 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="N857" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O857" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P857" t="n">
-        <v>18000</v>
+        <v>12966</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R857" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S857" t="n">
-        <v>1000</v>
+        <v>864</v>
       </c>
       <c r="T857" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="858">
@@ -68967,7 +68967,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -68995,41 +68995,41 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>700</v>
+        <v>55</v>
       </c>
       <c r="N858" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O858" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P858" t="n">
-        <v>15857</v>
+        <v>20000</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>1057</v>
+        <v>1111</v>
       </c>
       <c r="T858" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="859">
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -69080,20 +69080,20 @@
       </c>
       <c r="L859" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M859" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N859" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O859" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P859" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
@@ -69102,11 +69102,11 @@
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T859" t="n">
         <v>15</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -69160,24 +69160,24 @@
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N860" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O860" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P860" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R860" t="inlineStr">
@@ -69186,10 +69186,10 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T860" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="861">
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -69235,38 +69235,38 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M861" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N861" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O861" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P861" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T861" t="n">
         <v>18</v>
@@ -69320,36 +69320,36 @@
       </c>
       <c r="L862" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M862" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N862" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O862" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P862" t="n">
-        <v>19000</v>
+        <v>15857</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="T862" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -69400,20 +69400,20 @@
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N863" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O863" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P863" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69422,11 +69422,11 @@
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>533</v>
+        <v>900</v>
       </c>
       <c r="T863" t="n">
         <v>15</v>
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -69480,36 +69480,36 @@
       </c>
       <c r="L864" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M864" t="n">
-        <v>405</v>
+        <v>200</v>
       </c>
       <c r="N864" t="n">
         <v>10000</v>
       </c>
       <c r="O864" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P864" t="n">
-        <v>10383</v>
+        <v>10000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="T864" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -69560,24 +69560,24 @@
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N865" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O865" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P865" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R865" t="inlineStr">
@@ -69586,10 +69586,10 @@
         </is>
       </c>
       <c r="S865" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="T865" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="866">
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -69640,36 +69640,36 @@
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="N866" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="O866" t="n">
         <v>19000</v>
       </c>
       <c r="P866" t="n">
-        <v>18787</v>
+        <v>19000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>1252</v>
+        <v>1056</v>
       </c>
       <c r="T866" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="867">
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -69720,20 +69720,20 @@
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N867" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O867" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="P867" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>1100</v>
+        <v>533</v>
       </c>
       <c r="T867" t="n">
         <v>15</v>
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -69800,36 +69800,36 @@
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="N868" t="n">
-        <v>400000</v>
+        <v>10000</v>
       </c>
       <c r="O868" t="n">
-        <v>400000</v>
+        <v>11000</v>
       </c>
       <c r="P868" t="n">
-        <v>400000</v>
+        <v>10383</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>889</v>
+        <v>577</v>
       </c>
       <c r="T868" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -69884,29 +69884,29 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="N869" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O869" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P869" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R869" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S869" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T869" t="n">
         <v>15</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -69960,20 +69960,20 @@
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>155</v>
+        <v>435</v>
       </c>
       <c r="N870" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="O870" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P870" t="n">
-        <v>13500</v>
+        <v>18787</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69986,7 +69986,7 @@
         </is>
       </c>
       <c r="S870" t="n">
-        <v>900</v>
+        <v>1252</v>
       </c>
       <c r="T870" t="n">
         <v>15</v>
@@ -70040,36 +70040,36 @@
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="N871" t="n">
-        <v>40000</v>
+        <v>16500</v>
       </c>
       <c r="O871" t="n">
-        <v>40000</v>
+        <v>16500</v>
       </c>
       <c r="P871" t="n">
-        <v>40000</v>
+        <v>16500</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>2222</v>
+        <v>1100</v>
       </c>
       <c r="T871" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="872">
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -70120,24 +70120,24 @@
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="N872" t="n">
-        <v>8000</v>
+        <v>400000</v>
       </c>
       <c r="O872" t="n">
-        <v>9000</v>
+        <v>400000</v>
       </c>
       <c r="P872" t="n">
-        <v>8405</v>
+        <v>400000</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R872" t="inlineStr">
@@ -70146,10 +70146,10 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>560</v>
+        <v>889</v>
       </c>
       <c r="T872" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="873">
@@ -70167,7 +70167,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -70200,36 +70200,36 @@
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="N873" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O873" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P873" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T873" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="874">
@@ -70247,7 +70247,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -70280,33 +70280,33 @@
       </c>
       <c r="L874" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M874" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="N874" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O874" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P874" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T874" t="n">
         <v>15</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -70360,36 +70360,36 @@
       </c>
       <c r="L875" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M875" t="n">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="N875" t="n">
-        <v>315000</v>
+        <v>40000</v>
       </c>
       <c r="O875" t="n">
-        <v>315000</v>
+        <v>40000</v>
       </c>
       <c r="P875" t="n">
-        <v>315000</v>
+        <v>40000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>700</v>
+        <v>2222</v>
       </c>
       <c r="T875" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="876">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -70447,17 +70447,17 @@
         <v>185</v>
       </c>
       <c r="N876" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O876" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P876" t="n">
-        <v>14000</v>
+        <v>8405</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R876" t="inlineStr">
@@ -70466,10 +70466,10 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>778</v>
+        <v>560</v>
       </c>
       <c r="T876" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="877">
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -70524,20 +70524,20 @@
         </is>
       </c>
       <c r="M877" t="n">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="N877" t="n">
         <v>8000</v>
       </c>
       <c r="O877" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P877" t="n">
-        <v>8532</v>
+        <v>8000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
@@ -70546,10 +70546,10 @@
         </is>
       </c>
       <c r="S877" t="n">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="T877" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="878">
@@ -70600,24 +70600,24 @@
       </c>
       <c r="L878" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M878" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="N878" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="O878" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="P878" t="n">
-        <v>247500</v>
+        <v>10000</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R878" t="inlineStr">
@@ -70626,10 +70626,10 @@
         </is>
       </c>
       <c r="S878" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T878" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="879">
@@ -70675,41 +70675,41 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M879" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="N879" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="O879" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="P879" t="n">
-        <v>40000</v>
+        <v>315000</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>1667</v>
+        <v>700</v>
       </c>
       <c r="T879" t="n">
-        <v>24</v>
+        <v>450</v>
       </c>
     </row>
     <row r="880">
@@ -70755,41 +70755,41 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="N880" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="O880" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="P880" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1667</v>
+        <v>778</v>
       </c>
       <c r="T880" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="881">
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -70844,20 +70844,20 @@
         </is>
       </c>
       <c r="M881" t="n">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="N881" t="n">
-        <v>140000</v>
+        <v>8000</v>
       </c>
       <c r="O881" t="n">
-        <v>140000</v>
+        <v>9000</v>
       </c>
       <c r="P881" t="n">
-        <v>140000</v>
+        <v>8532</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
@@ -70866,10 +70866,10 @@
         </is>
       </c>
       <c r="S881" t="n">
-        <v>311</v>
+        <v>569</v>
       </c>
       <c r="T881" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="882">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -70920,24 +70920,24 @@
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M882" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="N882" t="n">
-        <v>5000</v>
+        <v>247500</v>
       </c>
       <c r="O882" t="n">
-        <v>6000</v>
+        <v>247500</v>
       </c>
       <c r="P882" t="n">
-        <v>5455</v>
+        <v>247500</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
@@ -70946,10 +70946,10 @@
         </is>
       </c>
       <c r="S882" t="n">
-        <v>364</v>
+        <v>550</v>
       </c>
       <c r="T882" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -70995,41 +70995,41 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M883" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N883" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="O883" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="P883" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="T883" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="884">
@@ -71047,7 +71047,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -71075,41 +71075,41 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="N884" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O884" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P884" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="Q884" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R884" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S884" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="T884" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="885">
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -71160,36 +71160,36 @@
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="N885" t="n">
-        <v>16500</v>
+        <v>140000</v>
       </c>
       <c r="O885" t="n">
-        <v>17000</v>
+        <v>140000</v>
       </c>
       <c r="P885" t="n">
-        <v>16792</v>
+        <v>140000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>1119</v>
+        <v>311</v>
       </c>
       <c r="T885" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -71244,20 +71244,20 @@
         </is>
       </c>
       <c r="M886" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N886" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O886" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P886" t="n">
-        <v>7000</v>
+        <v>5455</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
@@ -71266,7 +71266,7 @@
         </is>
       </c>
       <c r="S886" t="n">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="T886" t="n">
         <v>15</v>
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44391</v>
+        <v>44468</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -71320,24 +71320,24 @@
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N887" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O887" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P887" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
@@ -71346,10 +71346,10 @@
         </is>
       </c>
       <c r="S887" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T887" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="888">
@@ -71367,7 +71367,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -71400,24 +71400,24 @@
       </c>
       <c r="L888" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M888" t="n">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="N888" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O888" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P888" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q888" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R888" t="inlineStr">
@@ -71426,7 +71426,7 @@
         </is>
       </c>
       <c r="S888" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T888" t="n">
         <v>15</v>
@@ -71447,7 +71447,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -71480,36 +71480,36 @@
       </c>
       <c r="L889" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M889" t="n">
-        <v>3</v>
+        <v>445</v>
       </c>
       <c r="N889" t="n">
-        <v>130000</v>
+        <v>16500</v>
       </c>
       <c r="O889" t="n">
-        <v>130000</v>
+        <v>17000</v>
       </c>
       <c r="P889" t="n">
-        <v>130000</v>
+        <v>16792</v>
       </c>
       <c r="Q889" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S889" t="n">
-        <v>289</v>
+        <v>1119</v>
       </c>
       <c r="T889" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="890">
@@ -71560,24 +71560,24 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P890" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R890" t="inlineStr">
@@ -71586,7 +71586,7 @@
         </is>
       </c>
       <c r="S890" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="T890" t="n">
         <v>15</v>
@@ -71640,24 +71640,24 @@
       </c>
       <c r="L891" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M891" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="N891" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O891" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P891" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q891" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R891" t="inlineStr">
@@ -71666,10 +71666,10 @@
         </is>
       </c>
       <c r="S891" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T891" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="892">
@@ -71720,24 +71720,24 @@
       </c>
       <c r="L892" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M892" t="n">
         <v>100</v>
       </c>
       <c r="N892" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O892" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P892" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R892" t="inlineStr">
@@ -71746,10 +71746,10 @@
         </is>
       </c>
       <c r="S892" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T892" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="893">
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -71800,24 +71800,24 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>340</v>
+        <v>3</v>
       </c>
       <c r="N893" t="n">
-        <v>18000</v>
+        <v>130000</v>
       </c>
       <c r="O893" t="n">
-        <v>18500</v>
+        <v>130000</v>
       </c>
       <c r="P893" t="n">
-        <v>18272</v>
+        <v>130000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R893" t="inlineStr">
@@ -71826,10 +71826,10 @@
         </is>
       </c>
       <c r="S893" t="n">
-        <v>1218</v>
+        <v>289</v>
       </c>
       <c r="T893" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="894">
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -71880,20 +71880,20 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="N894" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="O894" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="P894" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71902,11 +71902,11 @@
       </c>
       <c r="R894" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S894" t="n">
-        <v>1100</v>
+        <v>333</v>
       </c>
       <c r="T894" t="n">
         <v>15</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -71960,24 +71960,24 @@
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N895" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O895" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P895" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R895" t="inlineStr">
@@ -71986,10 +71986,10 @@
         </is>
       </c>
       <c r="S895" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T895" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="896">
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -72040,24 +72040,24 @@
       </c>
       <c r="L896" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M896" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P896" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
@@ -72066,10 +72066,10 @@
         </is>
       </c>
       <c r="S896" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="T896" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="897">
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -72120,24 +72120,24 @@
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N897" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O897" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="P897" t="n">
-        <v>8000</v>
+        <v>18272</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
@@ -72146,7 +72146,7 @@
         </is>
       </c>
       <c r="S897" t="n">
-        <v>533</v>
+        <v>1218</v>
       </c>
       <c r="T897" t="n">
         <v>15</v>
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -72200,20 +72200,20 @@
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N898" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="O898" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="P898" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q898" t="inlineStr">
         <is>
@@ -72222,11 +72222,11 @@
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S898" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="T898" t="n">
         <v>15</v>
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -72280,24 +72280,24 @@
       </c>
       <c r="L899" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M899" t="n">
-        <v>460</v>
+        <v>200</v>
       </c>
       <c r="N899" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O899" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P899" t="n">
-        <v>20543</v>
+        <v>11000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
@@ -72306,10 +72306,10 @@
         </is>
       </c>
       <c r="S899" t="n">
-        <v>1370</v>
+        <v>611</v>
       </c>
       <c r="T899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="900">
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -72360,24 +72360,24 @@
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N900" t="n">
-        <v>23500</v>
+        <v>11000</v>
       </c>
       <c r="O900" t="n">
-        <v>23500</v>
+        <v>11000</v>
       </c>
       <c r="P900" t="n">
-        <v>23500</v>
+        <v>11000</v>
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
@@ -72386,10 +72386,10 @@
         </is>
       </c>
       <c r="S900" t="n">
-        <v>1306</v>
+        <v>550</v>
       </c>
       <c r="T900" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -72444,20 +72444,20 @@
         </is>
       </c>
       <c r="M901" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N901" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O901" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P901" t="n">
-        <v>12329</v>
+        <v>8000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
@@ -72466,7 +72466,7 @@
         </is>
       </c>
       <c r="S901" t="n">
-        <v>822</v>
+        <v>533</v>
       </c>
       <c r="T901" t="n">
         <v>15</v>
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -72520,24 +72520,24 @@
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="N902" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O902" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P902" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
@@ -72546,10 +72546,10 @@
         </is>
       </c>
       <c r="S902" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T902" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -72604,20 +72604,20 @@
         </is>
       </c>
       <c r="M903" t="n">
-        <v>700</v>
+        <v>460</v>
       </c>
       <c r="N903" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O903" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P903" t="n">
-        <v>10464</v>
+        <v>20543</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
@@ -72626,7 +72626,7 @@
         </is>
       </c>
       <c r="S903" t="n">
-        <v>698</v>
+        <v>1370</v>
       </c>
       <c r="T903" t="n">
         <v>15</v>
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -72675,41 +72675,41 @@
       </c>
       <c r="K904" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N904" t="n">
-        <v>50000</v>
+        <v>23500</v>
       </c>
       <c r="O904" t="n">
-        <v>50000</v>
+        <v>23500</v>
       </c>
       <c r="P904" t="n">
-        <v>50000</v>
+        <v>23500</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>2083</v>
+        <v>1306</v>
       </c>
       <c r="T904" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="905">
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -72764,16 +72764,16 @@
         </is>
       </c>
       <c r="M905" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N905" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O905" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P905" t="n">
-        <v>9000</v>
+        <v>12329</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
@@ -72786,7 +72786,7 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>600</v>
+        <v>822</v>
       </c>
       <c r="T905" t="n">
         <v>15</v>
@@ -72807,7 +72807,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -72835,41 +72835,41 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M906" t="n">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="N906" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="O906" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="P906" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R906" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S906" t="n">
-        <v>1458</v>
+        <v>1000</v>
       </c>
       <c r="T906" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="907">
@@ -72887,7 +72887,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -72915,38 +72915,38 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M907" t="n">
-        <v>45</v>
+        <v>700</v>
       </c>
       <c r="N907" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O907" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P907" t="n">
-        <v>25000</v>
+        <v>10464</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>1667</v>
+        <v>698</v>
       </c>
       <c r="T907" t="n">
         <v>15</v>
@@ -72967,7 +72967,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -72995,41 +72995,41 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="N908" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="O908" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="P908" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R908" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S908" t="n">
-        <v>1111</v>
+        <v>2083</v>
       </c>
       <c r="T908" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="909">
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -73080,24 +73080,24 @@
       </c>
       <c r="L909" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M909" t="n">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="N909" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O909" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P909" t="n">
-        <v>13268</v>
+        <v>9000</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
@@ -73106,7 +73106,7 @@
         </is>
       </c>
       <c r="S909" t="n">
-        <v>885</v>
+        <v>600</v>
       </c>
       <c r="T909" t="n">
         <v>15</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -73155,41 +73155,41 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="N910" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="O910" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="P910" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>667</v>
+        <v>1458</v>
       </c>
       <c r="T910" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="911">
@@ -73235,7 +73235,7 @@
       </c>
       <c r="K911" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L911" t="inlineStr">
@@ -73247,29 +73247,29 @@
         <v>45</v>
       </c>
       <c r="N911" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="O911" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P911" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>1458</v>
+        <v>1667</v>
       </c>
       <c r="T911" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="912">
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -73324,32 +73324,32 @@
         </is>
       </c>
       <c r="M912" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N912" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O912" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P912" t="n">
-        <v>6417</v>
+        <v>20000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S912" t="n">
-        <v>428</v>
+        <v>1111</v>
       </c>
       <c r="T912" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="913">
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -73400,24 +73400,24 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="N913" t="n">
-        <v>150000</v>
+        <v>13000</v>
       </c>
       <c r="O913" t="n">
-        <v>150000</v>
+        <v>13500</v>
       </c>
       <c r="P913" t="n">
-        <v>150000</v>
+        <v>13268</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
@@ -73426,10 +73426,10 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>333</v>
+        <v>885</v>
       </c>
       <c r="T913" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="914">
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -73480,24 +73480,24 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N914" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O914" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P914" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R914" t="inlineStr">
@@ -73506,10 +73506,10 @@
         </is>
       </c>
       <c r="S914" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T914" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="915">
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -73555,41 +73555,41 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N915" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="O915" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="P915" t="n">
-        <v>5000</v>
+        <v>35000</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>333</v>
+        <v>1458</v>
       </c>
       <c r="T915" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="916">
@@ -73635,41 +73635,41 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M916" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N916" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="O916" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="P916" t="n">
-        <v>30000</v>
+        <v>6417</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>1667</v>
+        <v>428</v>
       </c>
       <c r="T916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="917">
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -73720,24 +73720,24 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N917" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="O917" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="P917" t="n">
-        <v>12000</v>
+        <v>150000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R917" t="inlineStr">
@@ -73746,10 +73746,10 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T917" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="918">
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -73800,24 +73800,24 @@
       </c>
       <c r="L918" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M918" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P918" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
@@ -73826,10 +73826,10 @@
         </is>
       </c>
       <c r="S918" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T918" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="919">
@@ -73847,7 +73847,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -73880,20 +73880,20 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
@@ -73906,7 +73906,7 @@
         </is>
       </c>
       <c r="S919" t="n">
-        <v>800</v>
+        <v>333</v>
       </c>
       <c r="T919" t="n">
         <v>15</v>
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -73955,41 +73955,41 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="N920" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O920" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="P920" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="T920" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="921">
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -74040,24 +74040,24 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N921" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O921" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P921" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R921" t="inlineStr">
@@ -74066,10 +74066,10 @@
         </is>
       </c>
       <c r="S921" t="n">
-        <v>1222</v>
+        <v>800</v>
       </c>
       <c r="T921" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="922">
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -74120,24 +74120,24 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N922" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O922" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P922" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R922" t="inlineStr">
@@ -74146,10 +74146,10 @@
         </is>
       </c>
       <c r="S922" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T922" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="923">
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -74200,24 +74200,24 @@
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N923" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O923" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P923" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R923" t="inlineStr">
@@ -74226,7 +74226,7 @@
         </is>
       </c>
       <c r="S923" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T923" t="n">
         <v>15</v>
@@ -74280,20 +74280,20 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N924" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O924" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P924" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
@@ -74306,7 +74306,7 @@
         </is>
       </c>
       <c r="S924" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T924" t="n">
         <v>15</v>
@@ -74355,41 +74355,41 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M925" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N925" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="O925" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="P925" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>1667</v>
+        <v>1222</v>
       </c>
       <c r="T925" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="926">
@@ -74435,41 +74435,41 @@
       </c>
       <c r="K926" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M926" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N926" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="O926" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="P926" t="n">
-        <v>40000</v>
+        <v>18000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R926" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S926" t="n">
-        <v>1667</v>
+        <v>1000</v>
       </c>
       <c r="T926" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="927">
@@ -74487,7 +74487,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -74520,24 +74520,24 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N927" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="O927" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P927" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R927" t="inlineStr">
@@ -74546,7 +74546,7 @@
         </is>
       </c>
       <c r="S927" t="n">
-        <v>1467</v>
+        <v>1200</v>
       </c>
       <c r="T927" t="n">
         <v>15</v>
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -74600,36 +74600,36 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M928" t="n">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="N928" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O928" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P928" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R928" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S928" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T928" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="929">
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -74675,41 +74675,41 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M929" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N929" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="O929" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="P929" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>1222</v>
+        <v>1667</v>
       </c>
       <c r="T929" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="930">
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -74755,41 +74755,41 @@
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N930" t="n">
-        <v>18500</v>
+        <v>40000</v>
       </c>
       <c r="O930" t="n">
-        <v>18500</v>
+        <v>40000</v>
       </c>
       <c r="P930" t="n">
-        <v>18500</v>
+        <v>40000</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>1028</v>
+        <v>1667</v>
       </c>
       <c r="T930" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="931">
@@ -74840,36 +74840,36 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M931" t="n">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="N931" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O931" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P931" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R931" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S931" t="n">
-        <v>1944</v>
+        <v>1467</v>
       </c>
       <c r="T931" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="932">
@@ -74887,7 +74887,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -74924,32 +74924,32 @@
         </is>
       </c>
       <c r="M932" t="n">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N932" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O932" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P932" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T932" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="933">
@@ -74967,7 +74967,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -75004,32 +75004,32 @@
         </is>
       </c>
       <c r="M933" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N933" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O933" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P933" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S933" t="n">
-        <v>1333</v>
+        <v>1222</v>
       </c>
       <c r="T933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="934">
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -75080,36 +75080,36 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N934" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="O934" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="P934" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R934" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S934" t="n">
-        <v>867</v>
+        <v>1028</v>
       </c>
       <c r="T934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="935">
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -75160,36 +75160,36 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M935" t="n">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="N935" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="O935" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="P935" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>1200</v>
+        <v>1944</v>
       </c>
       <c r="T935" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="936">
@@ -75240,24 +75240,24 @@
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M936" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N936" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O936" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P936" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R936" t="inlineStr">
@@ -75266,10 +75266,10 @@
         </is>
       </c>
       <c r="S936" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T936" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="937">
@@ -75315,41 +75315,41 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N937" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="O937" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P937" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R937" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S937" t="n">
-        <v>1250</v>
+        <v>1333</v>
       </c>
       <c r="T937" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="938">
@@ -75367,7 +75367,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -75400,20 +75400,20 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M938" t="n">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="N938" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O938" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P938" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75422,11 +75422,11 @@
       </c>
       <c r="R938" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S938" t="n">
-        <v>533</v>
+        <v>867</v>
       </c>
       <c r="T938" t="n">
         <v>15</v>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -75480,20 +75480,20 @@
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M939" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N939" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O939" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P939" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75502,11 +75502,11 @@
       </c>
       <c r="R939" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S939" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T939" t="n">
         <v>15</v>
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -75560,36 +75560,36 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M940" t="n">
         <v>200</v>
       </c>
       <c r="N940" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O940" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P940" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S940" t="n">
-        <v>1000</v>
+        <v>1167</v>
       </c>
       <c r="T940" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="941">
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -75635,41 +75635,41 @@
       </c>
       <c r="K941" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L941" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M941" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="N941" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="O941" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="P941" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>1333</v>
+        <v>1250</v>
       </c>
       <c r="T941" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="942">
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -75720,20 +75720,20 @@
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="N942" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O942" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P942" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75746,7 +75746,7 @@
         </is>
       </c>
       <c r="S942" t="n">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="T942" t="n">
         <v>15</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -75800,20 +75800,20 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M943" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N943" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O943" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P943" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75826,7 +75826,7 @@
         </is>
       </c>
       <c r="S943" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T943" t="n">
         <v>15</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -75884,20 +75884,20 @@
         </is>
       </c>
       <c r="M944" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N944" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="O944" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="P944" t="n">
-        <v>170000</v>
+        <v>15000</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R944" t="inlineStr">
@@ -75906,10 +75906,10 @@
         </is>
       </c>
       <c r="S944" t="n">
-        <v>378</v>
+        <v>1000</v>
       </c>
       <c r="T944" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="945">
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -75960,24 +75960,24 @@
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M945" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N945" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O945" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P945" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R945" t="inlineStr">
@@ -75986,10 +75986,10 @@
         </is>
       </c>
       <c r="S945" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="T945" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="946">
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -76040,20 +76040,20 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M946" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="N946" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O946" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P946" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76062,11 +76062,11 @@
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>500</v>
+        <v>867</v>
       </c>
       <c r="T946" t="n">
         <v>15</v>
@@ -76115,41 +76115,41 @@
       </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M947" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="N947" t="n">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="O947" t="n">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="P947" t="n">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>2222</v>
+        <v>600</v>
       </c>
       <c r="T947" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="948">
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -76200,24 +76200,24 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M948" t="n">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="N948" t="n">
-        <v>21000</v>
+        <v>170000</v>
       </c>
       <c r="O948" t="n">
-        <v>22000</v>
+        <v>170000</v>
       </c>
       <c r="P948" t="n">
-        <v>21446</v>
+        <v>170000</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R948" t="inlineStr">
@@ -76226,10 +76226,10 @@
         </is>
       </c>
       <c r="S948" t="n">
-        <v>1430</v>
+        <v>378</v>
       </c>
       <c r="T948" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="949">
@@ -76247,68 +76247,388 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E949" t="n">
+        <v>9</v>
+      </c>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G949" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I949" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M949" t="n">
+        <v>380</v>
+      </c>
+      <c r="N949" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O949" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P949" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q949" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R949" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S949" t="n">
+        <v>667</v>
+      </c>
+      <c r="T949" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>10</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D950" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E950" t="n">
+        <v>9</v>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G950" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I950" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M950" t="n">
+        <v>210</v>
+      </c>
+      <c r="N950" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O950" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P950" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q950" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R950" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S950" t="n">
+        <v>500</v>
+      </c>
+      <c r="T950" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>10</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D951" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E951" t="n">
+        <v>9</v>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G951" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I951" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M951" t="n">
+        <v>55</v>
+      </c>
+      <c r="N951" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O951" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P951" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q951" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R951" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="S951" t="n">
+        <v>2222</v>
+      </c>
+      <c r="T951" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>10</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D952" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E949" t="n">
-        <v>9</v>
-      </c>
-      <c r="F949" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G949" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H949" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I949" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J949" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K949" t="inlineStr">
+      <c r="E952" t="n">
+        <v>9</v>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G952" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I952" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M952" t="n">
+        <v>280</v>
+      </c>
+      <c r="N952" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O952" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P952" t="n">
+        <v>21446</v>
+      </c>
+      <c r="Q952" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R952" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S952" t="n">
+        <v>1430</v>
+      </c>
+      <c r="T952" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>10</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D953" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E953" t="n">
+        <v>9</v>
+      </c>
+      <c r="F953" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G953" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I953" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr">
         <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L949" t="inlineStr">
+      <c r="L953" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M949" t="n">
+      <c r="M953" t="n">
         <v>40</v>
       </c>
-      <c r="N949" t="n">
+      <c r="N953" t="n">
         <v>35000</v>
       </c>
-      <c r="O949" t="n">
+      <c r="O953" t="n">
         <v>35000</v>
       </c>
-      <c r="P949" t="n">
+      <c r="P953" t="n">
         <v>35000</v>
       </c>
-      <c r="Q949" t="inlineStr">
+      <c r="Q953" t="inlineStr">
         <is>
           <t>$/caja 24 kilos</t>
         </is>
       </c>
-      <c r="R949" t="inlineStr">
+      <c r="R953" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S949" t="n">
+      <c r="S953" t="n">
         <v>1458</v>
       </c>
-      <c r="T949" t="n">
+      <c r="T953" t="n">
         <v>24</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1045"/>
+  <dimension ref="A1:T1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -76124,16 +76124,16 @@
         </is>
       </c>
       <c r="M947" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="N947" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O947" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P947" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76146,7 +76146,7 @@
         </is>
       </c>
       <c r="S947" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T947" t="n">
         <v>15</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E948" t="n">
         <v>9</v>
@@ -76204,20 +76204,20 @@
         </is>
       </c>
       <c r="M948" t="n">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="N948" t="n">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="O948" t="n">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="P948" t="n">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R948" t="inlineStr">
@@ -76226,10 +76226,10 @@
         </is>
       </c>
       <c r="S948" t="n">
-        <v>333</v>
+        <v>1111</v>
       </c>
       <c r="T948" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="949">
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -76280,24 +76280,24 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M949" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="N949" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="O949" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="P949" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R949" t="inlineStr">
@@ -76306,10 +76306,10 @@
         </is>
       </c>
       <c r="S949" t="n">
-        <v>400</v>
+        <v>1278</v>
       </c>
       <c r="T949" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="950">
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -76355,41 +76355,41 @@
       </c>
       <c r="K950" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M950" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N950" t="n">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="O950" t="n">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="P950" t="n">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>400</v>
+        <v>2083</v>
       </c>
       <c r="T950" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="951">
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -76435,41 +76435,41 @@
       </c>
       <c r="K951" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M951" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N951" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="O951" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="P951" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>667</v>
+        <v>2083</v>
       </c>
       <c r="T951" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="952">
@@ -76520,24 +76520,24 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M952" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N952" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O952" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P952" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R952" t="inlineStr">
@@ -76546,10 +76546,10 @@
         </is>
       </c>
       <c r="S952" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="T952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="953">
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -76604,20 +76604,20 @@
         </is>
       </c>
       <c r="M953" t="n">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="N953" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="O953" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="P953" t="n">
-        <v>6000</v>
+        <v>150000</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R953" t="inlineStr">
@@ -76626,10 +76626,10 @@
         </is>
       </c>
       <c r="S953" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="T953" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="954">
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -76684,32 +76684,32 @@
         </is>
       </c>
       <c r="M954" t="n">
+        <v>100</v>
+      </c>
+      <c r="N954" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O954" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P954" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q954" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R954" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S954" t="n">
+        <v>400</v>
+      </c>
+      <c r="T954" t="n">
         <v>15</v>
-      </c>
-      <c r="N954" t="n">
-        <v>120000</v>
-      </c>
-      <c r="O954" t="n">
-        <v>120000</v>
-      </c>
-      <c r="P954" t="n">
-        <v>120000</v>
-      </c>
-      <c r="Q954" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R954" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S954" t="n">
-        <v>267</v>
-      </c>
-      <c r="T954" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="955">
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -76760,36 +76760,36 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="N955" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O955" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P955" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="T955" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="956">
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -76840,24 +76840,24 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N956" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O956" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P956" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R956" t="inlineStr">
@@ -76866,7 +76866,7 @@
         </is>
       </c>
       <c r="S956" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="T956" t="n">
         <v>15</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -76920,24 +76920,24 @@
       </c>
       <c r="L957" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M957" t="n">
-        <v>135</v>
+        <v>600</v>
       </c>
       <c r="N957" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O957" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P957" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R957" t="inlineStr">
@@ -76946,10 +76946,10 @@
         </is>
       </c>
       <c r="S957" t="n">
-        <v>267</v>
+        <v>583</v>
       </c>
       <c r="T957" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="958">
@@ -77000,24 +77000,24 @@
       </c>
       <c r="L958" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M958" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="N958" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O958" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P958" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R958" t="inlineStr">
@@ -77026,7 +77026,7 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T958" t="n">
         <v>15</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -77084,20 +77084,20 @@
         </is>
       </c>
       <c r="M959" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="N959" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="O959" t="n">
-        <v>8000</v>
+        <v>120000</v>
       </c>
       <c r="P959" t="n">
-        <v>7455</v>
+        <v>120000</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R959" t="inlineStr">
@@ -77106,10 +77106,10 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>497</v>
+        <v>267</v>
       </c>
       <c r="T959" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="960">
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -77164,16 +77164,16 @@
         </is>
       </c>
       <c r="M960" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="N960" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O960" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P960" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77182,11 +77182,11 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S960" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T960" t="n">
         <v>18</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -77244,16 +77244,16 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="N961" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O961" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P961" t="n">
-        <v>7385</v>
+        <v>5000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77266,7 +77266,7 @@
         </is>
       </c>
       <c r="S961" t="n">
-        <v>492</v>
+        <v>333</v>
       </c>
       <c r="T961" t="n">
         <v>15</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -77324,16 +77324,16 @@
         </is>
       </c>
       <c r="M962" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="N962" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O962" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P962" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77346,7 +77346,7 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>400</v>
+        <v>267</v>
       </c>
       <c r="T962" t="n">
         <v>15</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -77400,24 +77400,24 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N963" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O963" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P963" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R963" t="inlineStr">
@@ -77426,10 +77426,10 @@
         </is>
       </c>
       <c r="S963" t="n">
-        <v>611</v>
+        <v>200</v>
       </c>
       <c r="T963" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="964">
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -77484,16 +77484,16 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="N964" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O964" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P964" t="n">
-        <v>17484</v>
+        <v>7455</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77506,7 +77506,7 @@
         </is>
       </c>
       <c r="S964" t="n">
-        <v>1166</v>
+        <v>497</v>
       </c>
       <c r="T964" t="n">
         <v>15</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -77564,16 +77564,16 @@
         </is>
       </c>
       <c r="M965" t="n">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N965" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O965" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P965" t="n">
-        <v>23636</v>
+        <v>10000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77586,7 +77586,7 @@
         </is>
       </c>
       <c r="S965" t="n">
-        <v>1313</v>
+        <v>556</v>
       </c>
       <c r="T965" t="n">
         <v>18</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -77640,33 +77640,33 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="N966" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O966" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P966" t="n">
-        <v>21000</v>
+        <v>7385</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>1400</v>
+        <v>492</v>
       </c>
       <c r="T966" t="n">
         <v>15</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -77720,20 +77720,20 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N967" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O967" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="P967" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77742,11 +77742,11 @@
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1267</v>
+        <v>400</v>
       </c>
       <c r="T967" t="n">
         <v>15</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -77800,33 +77800,33 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N968" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="O968" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="P968" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>1944</v>
+        <v>611</v>
       </c>
       <c r="T968" t="n">
         <v>18</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -77875,41 +77875,41 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="N969" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="O969" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P969" t="n">
-        <v>28286</v>
+        <v>17484</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="T969" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="970">
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -77964,20 +77964,20 @@
         </is>
       </c>
       <c r="M970" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="N970" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O970" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P970" t="n">
-        <v>10479</v>
+        <v>23636</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R970" t="inlineStr">
@@ -77986,10 +77986,10 @@
         </is>
       </c>
       <c r="S970" t="n">
-        <v>699</v>
+        <v>1313</v>
       </c>
       <c r="T970" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="971">
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -78040,36 +78040,36 @@
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N971" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O971" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P971" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>778</v>
+        <v>1400</v>
       </c>
       <c r="T971" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="972">
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -78120,20 +78120,20 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N972" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O972" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P972" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78142,11 +78142,11 @@
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>600</v>
+        <v>1267</v>
       </c>
       <c r="T972" t="n">
         <v>15</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -78200,36 +78200,36 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N973" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="O973" t="n">
-        <v>19500</v>
+        <v>35000</v>
       </c>
       <c r="P973" t="n">
-        <v>19250</v>
+        <v>35000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>1283</v>
+        <v>1944</v>
       </c>
       <c r="T973" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="974">
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -78275,41 +78275,41 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="N974" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O974" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P974" t="n">
-        <v>22000</v>
+        <v>28286</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>1222</v>
+        <v>1179</v>
       </c>
       <c r="T974" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="975">
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -78360,36 +78360,36 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N975" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="O975" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="P975" t="n">
-        <v>35000</v>
+        <v>10479</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>1944</v>
+        <v>699</v>
       </c>
       <c r="T975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="976">
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -78440,33 +78440,33 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N976" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="O976" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="P976" t="n">
-        <v>27500</v>
+        <v>14000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>1528</v>
+        <v>778</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N977" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O977" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P977" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>1667</v>
+        <v>600</v>
       </c>
       <c r="T977" t="n">
         <v>15</v>
@@ -78595,41 +78595,41 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="N978" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O978" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P978" t="n">
-        <v>25000</v>
+        <v>19250</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>1389</v>
+        <v>1283</v>
       </c>
       <c r="T978" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="979">
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -78680,36 +78680,36 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="N979" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O979" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P979" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>533</v>
+        <v>1222</v>
       </c>
       <c r="T979" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="980">
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E980" t="n">
         <v>9</v>
@@ -78760,36 +78760,36 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N980" t="n">
-        <v>150000</v>
+        <v>35000</v>
       </c>
       <c r="O980" t="n">
-        <v>150000</v>
+        <v>35000</v>
       </c>
       <c r="P980" t="n">
-        <v>150000</v>
+        <v>35000</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>333</v>
+        <v>1944</v>
       </c>
       <c r="T980" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="981">
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -78840,33 +78840,33 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N981" t="n">
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="O981" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="P981" t="n">
-        <v>11000</v>
+        <v>27500</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>611</v>
+        <v>1528</v>
       </c>
       <c r="T981" t="n">
         <v>18</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -78915,41 +78915,41 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N982" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="O982" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="P982" t="n">
-        <v>70000</v>
+        <v>25000</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>2917</v>
+        <v>1667</v>
       </c>
       <c r="T982" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="983">
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -78995,41 +78995,41 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M983" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N983" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O983" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P983" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>1267</v>
+        <v>1389</v>
       </c>
       <c r="T983" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="984">
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E984" t="n">
         <v>9</v>
@@ -79080,24 +79080,24 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>2</v>
+        <v>450</v>
       </c>
       <c r="N984" t="n">
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="O984" t="n">
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="P984" t="n">
-        <v>450000</v>
+        <v>8000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R984" t="inlineStr">
@@ -79106,10 +79106,10 @@
         </is>
       </c>
       <c r="S984" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T984" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="985">
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E985" t="n">
         <v>9</v>
@@ -79160,36 +79160,36 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="N985" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="O985" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="P985" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T985" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="986">
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E986" t="n">
         <v>9</v>
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79244,32 +79244,32 @@
         </is>
       </c>
       <c r="M986" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N986" t="n">
-        <v>70000</v>
+        <v>11000</v>
       </c>
       <c r="O986" t="n">
-        <v>70000</v>
+        <v>11000</v>
       </c>
       <c r="P986" t="n">
-        <v>70000</v>
+        <v>11000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>2917</v>
+        <v>611</v>
       </c>
       <c r="T986" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="987">
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44390</v>
+        <v>44494</v>
       </c>
       <c r="E987" t="n">
         <v>9</v>
@@ -79315,41 +79315,41 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="N987" t="n">
-        <v>6000</v>
+        <v>70000</v>
       </c>
       <c r="O987" t="n">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="P987" t="n">
-        <v>6556</v>
+        <v>70000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>437</v>
+        <v>2917</v>
       </c>
       <c r="T987" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="988">
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E988" t="n">
         <v>9</v>
@@ -79400,24 +79400,24 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N988" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O988" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="P988" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
@@ -79426,7 +79426,7 @@
         </is>
       </c>
       <c r="S988" t="n">
-        <v>333</v>
+        <v>1267</v>
       </c>
       <c r="T988" t="n">
         <v>15</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E989" t="n">
         <v>9</v>
@@ -79480,24 +79480,24 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="N989" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="O989" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="P989" t="n">
-        <v>10000</v>
+        <v>450000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R989" t="inlineStr">
@@ -79506,10 +79506,10 @@
         </is>
       </c>
       <c r="S989" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T989" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="990">
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E990" t="n">
         <v>9</v>
@@ -79560,36 +79560,36 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P990" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T990" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="991">
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E991" t="n">
         <v>9</v>
@@ -79644,16 +79644,16 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N991" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="O991" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="P991" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>2083</v>
+        <v>2917</v>
       </c>
       <c r="T991" t="n">
         <v>24</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -79724,16 +79724,16 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N992" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O992" t="n">
-        <v>19500</v>
+        <v>7000</v>
       </c>
       <c r="P992" t="n">
-        <v>19231</v>
+        <v>6556</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>1282</v>
+        <v>437</v>
       </c>
       <c r="T992" t="n">
         <v>15</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E993" t="n">
         <v>9</v>
@@ -79804,20 +79804,20 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N993" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O993" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P993" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,10 +79826,10 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T993" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E994" t="n">
         <v>9</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M994" t="n">
         <v>100</v>
       </c>
       <c r="N994" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O994" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P994" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79902,11 +79902,11 @@
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>1267</v>
+        <v>667</v>
       </c>
       <c r="T994" t="n">
         <v>15</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -79960,24 +79960,24 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N995" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O995" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P995" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R995" t="inlineStr">
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -80035,7 +80035,7 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
@@ -80044,16 +80044,16 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N996" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="O996" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="P996" t="n">
-        <v>27000</v>
+        <v>50000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>1125</v>
+        <v>2083</v>
       </c>
       <c r="T996" t="n">
         <v>24</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E997" t="n">
         <v>9</v>
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="N997" t="n">
         <v>19000</v>
       </c>
       <c r="O997" t="n">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="P997" t="n">
-        <v>19524</v>
+        <v>19231</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>1302</v>
+        <v>1282</v>
       </c>
       <c r="T997" t="n">
         <v>15</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E998" t="n">
         <v>9</v>
@@ -80200,33 +80200,33 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N998" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O998" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P998" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>1389</v>
+        <v>944</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E999" t="n">
         <v>9</v>
@@ -80284,29 +80284,29 @@
         </is>
       </c>
       <c r="M999" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N999" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O999" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P999" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>1200</v>
+        <v>1267</v>
       </c>
       <c r="T999" t="n">
         <v>15</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1000" t="n">
         <v>9</v>
@@ -80360,24 +80360,24 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1000" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O1000" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P1000" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
@@ -80386,10 +80386,10 @@
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1001" t="n">
         <v>9</v>
@@ -80435,41 +80435,41 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="N1001" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O1001" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P1001" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>1389</v>
+        <v>1125</v>
       </c>
       <c r="T1001" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1002">
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -80524,16 +80524,16 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="N1002" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O1002" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P1002" t="n">
-        <v>9000</v>
+        <v>19524</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80546,7 +80546,7 @@
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>600</v>
+        <v>1302</v>
       </c>
       <c r="T1002" t="n">
         <v>15</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -80595,16 +80595,16 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="N1003" t="n">
         <v>25000</v>
@@ -80622,7 +80622,7 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1003" t="n">
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1004" t="n">
         <v>9</v>
@@ -80684,29 +80684,29 @@
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="N1004" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O1004" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="P1004" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T1004" t="n">
         <v>15</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1005" t="n">
         <v>9</v>
@@ -80760,36 +80760,36 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
+        <v>100</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1005" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1005" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1005" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T1005" t="n">
         <v>15</v>
-      </c>
-      <c r="N1005" t="n">
-        <v>400000</v>
-      </c>
-      <c r="O1005" t="n">
-        <v>400000</v>
-      </c>
-      <c r="P1005" t="n">
-        <v>400000</v>
-      </c>
-      <c r="Q1005" t="inlineStr">
-        <is>
-          <t>$/bins (450 kilos)</t>
-        </is>
-      </c>
-      <c r="R1005" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1005" t="n">
-        <v>889</v>
-      </c>
-      <c r="T1005" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="1006">
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -80840,36 +80840,36 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N1006" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O1006" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P1006" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="T1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1007">
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -80920,33 +80920,33 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="N1007" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O1007" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P1007" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T1007" t="n">
         <v>15</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -80995,38 +80995,38 @@
       </c>
       <c r="K1008" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="N1008" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="O1008" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="P1008" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>2222</v>
+        <v>1389</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1009" t="n">
         <v>9</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N1009" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="O1009" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="P1009" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="T1009" t="n">
         <v>15</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1010" t="n">
         <v>9</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N1010" t="n">
-        <v>170000</v>
+        <v>400000</v>
       </c>
       <c r="O1010" t="n">
-        <v>170000</v>
+        <v>400000</v>
       </c>
       <c r="P1010" t="n">
-        <v>170000</v>
+        <v>400000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>378</v>
+        <v>889</v>
       </c>
       <c r="T1010" t="n">
         <v>450</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1011" t="n">
         <v>9</v>
@@ -81240,36 +81240,36 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="N1011" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1011" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1011" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T1011" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -81320,33 +81320,33 @@
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="N1012" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="O1012" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P1012" t="n">
-        <v>9225</v>
+        <v>13500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>615</v>
+        <v>900</v>
       </c>
       <c r="T1012" t="n">
         <v>15</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -81400,36 +81400,36 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="N1013" t="n">
-        <v>7500</v>
+        <v>40000</v>
       </c>
       <c r="O1013" t="n">
-        <v>7500</v>
+        <v>40000</v>
       </c>
       <c r="P1013" t="n">
-        <v>7500</v>
+        <v>40000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>500</v>
+        <v>2222</v>
       </c>
       <c r="T1013" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1014">
@@ -81475,41 +81475,41 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="N1014" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="O1014" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="P1014" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>1250</v>
+        <v>667</v>
       </c>
       <c r="T1014" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1015">
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1015" t="n">
         <v>9</v>
@@ -81564,20 +81564,20 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="N1015" t="n">
-        <v>7000</v>
+        <v>170000</v>
       </c>
       <c r="O1015" t="n">
-        <v>8000</v>
+        <v>170000</v>
       </c>
       <c r="P1015" t="n">
-        <v>7500</v>
+        <v>170000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="T1015" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1016">
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1016" t="n">
         <v>9</v>
@@ -81644,16 +81644,16 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="N1016" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1016" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1016" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1017" t="n">
         <v>9</v>
@@ -81720,24 +81720,24 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="N1017" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O1017" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1017" t="n">
-        <v>7417</v>
+        <v>9225</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,7 +81746,7 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>494</v>
+        <v>615</v>
       </c>
       <c r="T1017" t="n">
         <v>15</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1018" t="n">
         <v>9</v>
@@ -81795,41 +81795,41 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N1018" t="n">
-        <v>55000</v>
+        <v>7500</v>
       </c>
       <c r="O1018" t="n">
-        <v>55000</v>
+        <v>7500</v>
       </c>
       <c r="P1018" t="n">
-        <v>55000</v>
+        <v>7500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>2292</v>
+        <v>500</v>
       </c>
       <c r="T1018" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1019">
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1019" t="n">
         <v>9</v>
@@ -81875,7 +81875,7 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
@@ -81884,20 +81884,20 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N1019" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="O1019" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="P1019" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
@@ -81906,10 +81906,10 @@
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="T1019" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1020">
@@ -81955,41 +81955,41 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="N1020" t="n">
-        <v>80000</v>
+        <v>7000</v>
       </c>
       <c r="O1020" t="n">
-        <v>80000</v>
+        <v>8000</v>
       </c>
       <c r="P1020" t="n">
-        <v>80000</v>
+        <v>7500</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>3333</v>
+        <v>500</v>
       </c>
       <c r="T1020" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1021">
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -82044,20 +82044,20 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N1021" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1021" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1021" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
@@ -82066,10 +82066,10 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="T1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1022">
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1022" t="n">
         <v>9</v>
@@ -82124,20 +82124,20 @@
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="N1022" t="n">
-        <v>150000</v>
+        <v>7000</v>
       </c>
       <c r="O1022" t="n">
-        <v>150000</v>
+        <v>8000</v>
       </c>
       <c r="P1022" t="n">
-        <v>150000</v>
+        <v>7417</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>333</v>
+        <v>494</v>
       </c>
       <c r="T1022" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023">
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1023" t="n">
         <v>9</v>
@@ -82195,41 +82195,41 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N1023" t="n">
-        <v>9000</v>
+        <v>55000</v>
       </c>
       <c r="O1023" t="n">
-        <v>10000</v>
+        <v>55000</v>
       </c>
       <c r="P1023" t="n">
-        <v>9500</v>
+        <v>55000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>475</v>
+        <v>2292</v>
       </c>
       <c r="T1023" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1024">
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1024" t="n">
         <v>9</v>
@@ -82275,41 +82275,41 @@
       </c>
       <c r="K1024" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="N1024" t="n">
-        <v>6000</v>
+        <v>45000</v>
       </c>
       <c r="O1024" t="n">
-        <v>6000</v>
+        <v>45000</v>
       </c>
       <c r="P1024" t="n">
-        <v>6000</v>
+        <v>45000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="T1024" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1025">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1025" t="n">
         <v>9</v>
@@ -82355,41 +82355,41 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N1025" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="O1025" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="P1025" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>333</v>
+        <v>3333</v>
       </c>
       <c r="T1025" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1026">
@@ -82440,20 +82440,20 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P1026" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82466,7 +82466,7 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="T1026" t="n">
         <v>15</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1027" t="n">
         <v>9</v>
@@ -82524,20 +82524,20 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="N1027" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="O1027" t="n">
-        <v>7500</v>
+        <v>150000</v>
       </c>
       <c r="P1027" t="n">
-        <v>7162</v>
+        <v>150000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
@@ -82546,10 +82546,10 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="T1027" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1028">
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1028" t="n">
         <v>9</v>
@@ -82604,20 +82604,20 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="N1028" t="n">
-        <v>120000</v>
+        <v>9000</v>
       </c>
       <c r="O1028" t="n">
-        <v>130000</v>
+        <v>10000</v>
       </c>
       <c r="P1028" t="n">
-        <v>124545</v>
+        <v>9500</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
@@ -82626,10 +82626,10 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>277</v>
+        <v>475</v>
       </c>
       <c r="T1028" t="n">
-        <v>450</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1029">
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1029" t="n">
         <v>9</v>
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N1029" t="n">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="O1029" t="n">
         <v>6000</v>
       </c>
       <c r="P1029" t="n">
-        <v>5803</v>
+        <v>6000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="T1029" t="n">
         <v>15</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1030" t="n">
         <v>9</v>
@@ -82760,24 +82760,24 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="N1030" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O1030" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P1030" t="n">
-        <v>8510</v>
+        <v>5000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>567</v>
+        <v>333</v>
       </c>
       <c r="T1030" t="n">
         <v>15</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1031" t="n">
         <v>9</v>
@@ -82840,36 +82840,36 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1031" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1031" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1031" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1031" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1032">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1032" t="n">
         <v>9</v>
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>385</v>
+        <v>185</v>
       </c>
       <c r="N1032" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O1032" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P1032" t="n">
-        <v>15000</v>
+        <v>7162</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>1000</v>
+        <v>477</v>
       </c>
       <c r="T1032" t="n">
         <v>15</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1033" t="n">
         <v>9</v>
@@ -83000,36 +83000,36 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>120000</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>124545</v>
+      </c>
+      <c r="Q1033" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1033" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1033" t="n">
+        <v>277</v>
+      </c>
+      <c r="T1033" t="n">
         <v>450</v>
-      </c>
-      <c r="N1033" t="n">
-        <v>13500</v>
-      </c>
-      <c r="O1033" t="n">
-        <v>13500</v>
-      </c>
-      <c r="P1033" t="n">
-        <v>13500</v>
-      </c>
-      <c r="Q1033" t="inlineStr">
-        <is>
-          <t>$/bandeja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R1033" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1033" t="n">
-        <v>900</v>
-      </c>
-      <c r="T1033" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="1034">
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1034" t="n">
         <v>9</v>
@@ -83080,20 +83080,20 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="N1034" t="n">
-        <v>13500</v>
+        <v>5700</v>
       </c>
       <c r="O1034" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="P1034" t="n">
-        <v>13500</v>
+        <v>5803</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>900</v>
+        <v>387</v>
       </c>
       <c r="T1034" t="n">
         <v>15</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1035" t="n">
         <v>9</v>
@@ -83160,36 +83160,36 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N1035" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O1035" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P1035" t="n">
-        <v>22000</v>
+        <v>8510</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>1222</v>
+        <v>567</v>
       </c>
       <c r="T1035" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1036" t="n">
         <v>9</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="N1036" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O1036" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P1036" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83315,41 +83315,41 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="N1037" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O1037" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P1037" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1222</v>
+        <v>1000</v>
       </c>
       <c r="T1037" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1038" t="n">
         <v>9</v>
@@ -83395,41 +83395,41 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="N1038" t="n">
-        <v>50000</v>
+        <v>13500</v>
       </c>
       <c r="O1038" t="n">
-        <v>50000</v>
+        <v>13500</v>
       </c>
       <c r="P1038" t="n">
-        <v>50000</v>
+        <v>13500</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>2083</v>
+        <v>900</v>
       </c>
       <c r="T1038" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1039" t="n">
         <v>9</v>
@@ -83480,24 +83480,24 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N1039" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="O1039" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="P1039" t="n">
-        <v>8250</v>
+        <v>13500</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
@@ -83506,7 +83506,7 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="T1039" t="n">
         <v>15</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1040" t="n">
         <v>9</v>
@@ -83560,36 +83560,36 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c r="N1040" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="O1040" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="P1040" t="n">
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>444</v>
+        <v>1222</v>
       </c>
       <c r="T1040" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1041">
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1041" t="n">
         <v>9</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="N1041" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O1041" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P1041" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1042" t="n">
         <v>9</v>
@@ -83715,38 +83715,38 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="N1042" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O1042" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P1042" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83795,41 +83795,41 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="N1043" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="O1043" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="P1043" t="n">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>467</v>
+        <v>2083</v>
       </c>
       <c r="T1043" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1044">
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="N1044" t="n">
-        <v>40000</v>
+        <v>8250</v>
       </c>
       <c r="O1044" t="n">
-        <v>40000</v>
+        <v>8250</v>
       </c>
       <c r="P1044" t="n">
-        <v>40000</v>
+        <v>8250</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>2222</v>
+        <v>550</v>
       </c>
       <c r="T1044" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1045">
@@ -83955,40 +83955,440 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>200000</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>200000</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q1045" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1045" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1045" t="n">
+        <v>444</v>
+      </c>
+      <c r="T1045" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1046" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1046" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1046" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1046" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1046" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1046" t="n">
+        <v>410</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1046" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1046" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1046" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1046" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1047" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1047" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1047" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1047" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1047" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1047" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1047" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1047" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1047" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1047" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1048" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1048" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1048" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1048" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1048" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1048" t="n">
+        <v>125</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q1048" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1048" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1048" t="n">
+        <v>467</v>
+      </c>
+      <c r="T1048" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1049" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1049" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1049" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1049" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1049" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L1045" t="inlineStr">
+      <c r="L1049" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1045" t="n">
+      <c r="M1049" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q1049" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1049" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="S1049" t="n">
+        <v>2222</v>
+      </c>
+      <c r="T1049" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1050" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1050" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1050" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1050" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1050" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1050" t="n">
         <v>55</v>
       </c>
-      <c r="N1045" t="n">
+      <c r="N1050" t="n">
         <v>30000</v>
       </c>
-      <c r="O1045" t="n">
+      <c r="O1050" t="n">
         <v>30000</v>
       </c>
-      <c r="P1045" t="n">
+      <c r="P1050" t="n">
         <v>30000</v>
       </c>
-      <c r="Q1045" t="inlineStr">
+      <c r="Q1050" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R1045" t="inlineStr">
+      <c r="R1050" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="S1045" t="n">
+      <c r="S1050" t="n">
         <v>1667</v>
       </c>
-      <c r="T1045" t="n">
+      <c r="T1050" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1064"/>
+  <dimension ref="A1:T1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -80924,32 +80924,32 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N1007" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O1007" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P1007" t="n">
-        <v>20000</v>
+        <v>18500</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>1111</v>
+        <v>1233</v>
       </c>
       <c r="T1007" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -81000,33 +81000,33 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N1008" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O1008" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P1008" t="n">
-        <v>17847</v>
+        <v>22500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>992</v>
+        <v>1250</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E1009" t="n">
         <v>9</v>
@@ -81080,24 +81080,24 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N1009" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="O1009" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="P1009" t="n">
-        <v>22000</v>
+        <v>450000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
@@ -81106,10 +81106,10 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>1467</v>
+        <v>1000</v>
       </c>
       <c r="T1009" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1010">
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1010" t="n">
         <v>9</v>
@@ -81160,24 +81160,24 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>215</v>
+        <v>380</v>
       </c>
       <c r="N1010" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O1010" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P1010" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81186,10 +81186,10 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>1467</v>
+        <v>1111</v>
       </c>
       <c r="T1010" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1011">
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1011" t="n">
         <v>9</v>
@@ -81244,20 +81244,20 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>165</v>
+        <v>360</v>
       </c>
       <c r="N1011" t="n">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="O1011" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P1011" t="n">
-        <v>7000</v>
+        <v>17847</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
@@ -81266,10 +81266,10 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>467</v>
+        <v>992</v>
       </c>
       <c r="T1011" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -81324,20 +81324,20 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="N1012" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O1012" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P1012" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
@@ -81346,10 +81346,10 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>556</v>
+        <v>1467</v>
       </c>
       <c r="T1012" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1013">
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -81400,24 +81400,24 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="N1013" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="O1013" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="P1013" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>400</v>
+        <v>1467</v>
       </c>
       <c r="T1013" t="n">
         <v>15</v>
@@ -81480,20 +81480,20 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="N1014" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1014" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1014" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="T1014" t="n">
         <v>15</v>
@@ -81560,24 +81560,24 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="N1015" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1015" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1015" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>267</v>
+        <v>556</v>
       </c>
       <c r="T1015" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1016">
@@ -81635,41 +81635,41 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="N1016" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="O1016" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="P1016" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>1875</v>
+        <v>400</v>
       </c>
       <c r="T1016" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1017" t="n">
         <v>9</v>
@@ -81720,24 +81720,24 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="N1017" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O1017" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P1017" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
@@ -81746,10 +81746,10 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T1017" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1018" t="n">
         <v>9</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N1018" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="O1018" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P1018" t="n">
-        <v>8777</v>
+        <v>4000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81826,7 +81826,7 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>585</v>
+        <v>267</v>
       </c>
       <c r="T1018" t="n">
         <v>15</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1019" t="n">
         <v>9</v>
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="N1019" t="n">
-        <v>6000</v>
+        <v>45000</v>
       </c>
       <c r="O1019" t="n">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="P1019" t="n">
-        <v>7837</v>
+        <v>45000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>522</v>
+        <v>1875</v>
       </c>
       <c r="T1019" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1020" t="n">
         <v>9</v>
@@ -81964,20 +81964,20 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="N1020" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O1020" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P1020" t="n">
-        <v>6333</v>
+        <v>14000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
@@ -81986,10 +81986,10 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>422</v>
+        <v>778</v>
       </c>
       <c r="T1020" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1021">
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44414</v>
+        <v>44162</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -82044,20 +82044,20 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="N1021" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O1021" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1021" t="n">
-        <v>10000</v>
+        <v>8777</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
@@ -82066,10 +82066,10 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>556</v>
+        <v>585</v>
       </c>
       <c r="T1021" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1022">
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1022" t="n">
         <v>9</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="N1022" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1022" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1022" t="n">
-        <v>5000</v>
+        <v>7837</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>333</v>
+        <v>522</v>
       </c>
       <c r="T1022" t="n">
         <v>15</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1023" t="n">
         <v>9</v>
@@ -82200,20 +82200,20 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="N1023" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O1023" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P1023" t="n">
-        <v>15000</v>
+        <v>6333</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>1000</v>
+        <v>422</v>
       </c>
       <c r="T1023" t="n">
         <v>15</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1024" t="n">
         <v>9</v>
@@ -82280,24 +82280,24 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="N1024" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O1024" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P1024" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1024" t="inlineStr">
@@ -82306,10 +82306,10 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="T1024" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1025">
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1025" t="n">
         <v>9</v>
@@ -82360,33 +82360,33 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="N1025" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O1025" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P1025" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>933</v>
+        <v>333</v>
       </c>
       <c r="T1025" t="n">
         <v>15</v>
@@ -82440,36 +82440,36 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N1026" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O1026" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P1026" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T1026" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1027">
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1027" t="n">
         <v>9</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N1027" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O1027" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P1027" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T1027" t="n">
         <v>15</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1028" t="n">
         <v>9</v>
@@ -82600,33 +82600,33 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N1028" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1028" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1028" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="T1028" t="n">
         <v>15</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1029" t="n">
         <v>9</v>
@@ -82680,36 +82680,36 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1029" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="T1029" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1030">
@@ -82760,36 +82760,36 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1030" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O1030" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P1030" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>1167</v>
+        <v>1000</v>
       </c>
       <c r="T1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1031">
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1031" t="n">
         <v>9</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N1031" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O1031" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P1031" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>1133</v>
+        <v>867</v>
       </c>
       <c r="T1031" t="n">
         <v>15</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1032" t="n">
         <v>9</v>
@@ -82920,24 +82920,24 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N1032" t="n">
         <v>18000</v>
       </c>
       <c r="O1032" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1032" t="n">
-        <v>18429</v>
+        <v>18000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
@@ -82946,10 +82946,10 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>1024</v>
+        <v>1200</v>
       </c>
       <c r="T1032" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1033">
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1033" t="n">
         <v>9</v>
@@ -83000,36 +83000,36 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N1033" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O1033" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P1033" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>1133</v>
+        <v>1167</v>
       </c>
       <c r="T1033" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1034">
@@ -83080,24 +83080,24 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
         <v>30</v>
       </c>
       <c r="N1034" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O1034" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P1034" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1034" t="inlineStr">
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>1067</v>
+        <v>1133</v>
       </c>
       <c r="T1034" t="n">
         <v>15</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1035" t="n">
         <v>9</v>
@@ -83164,20 +83164,20 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N1035" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O1035" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P1035" t="n">
-        <v>14330</v>
+        <v>18429</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
@@ -83186,10 +83186,10 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>955</v>
+        <v>1024</v>
       </c>
       <c r="T1035" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1036" t="n">
         <v>9</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N1036" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O1036" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P1036" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>1200</v>
+        <v>1133</v>
       </c>
       <c r="T1036" t="n">
         <v>15</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44428</v>
+        <v>44189</v>
       </c>
       <c r="E1037" t="n">
         <v>9</v>
@@ -83320,24 +83320,24 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="N1037" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O1037" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P1037" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>400</v>
+        <v>1067</v>
       </c>
       <c r="T1037" t="n">
         <v>15</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1038" t="n">
         <v>9</v>
@@ -83404,32 +83404,32 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N1038" t="n">
-        <v>140000</v>
+        <v>13500</v>
       </c>
       <c r="O1038" t="n">
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="P1038" t="n">
-        <v>144286</v>
+        <v>14330</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>321</v>
+        <v>955</v>
       </c>
       <c r="T1038" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1039">
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1039" t="n">
         <v>9</v>
@@ -83480,24 +83480,24 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="N1039" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O1039" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="P1039" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
@@ -83506,7 +83506,7 @@
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T1039" t="n">
         <v>15</v>
@@ -83560,20 +83560,20 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N1040" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1040" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1040" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="T1040" t="n">
         <v>15</v>
@@ -83640,36 +83640,36 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="N1041" t="n">
-        <v>3000</v>
+        <v>140000</v>
       </c>
       <c r="O1041" t="n">
-        <v>3000</v>
+        <v>150000</v>
       </c>
       <c r="P1041" t="n">
-        <v>3000</v>
+        <v>144286</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="T1041" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1042">
@@ -83715,7 +83715,7 @@
       </c>
       <c r="K1042" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1042" t="inlineStr">
@@ -83724,32 +83724,32 @@
         </is>
       </c>
       <c r="M1042" t="n">
+        <v>125</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q1042" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1042" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1042" t="n">
+        <v>333</v>
+      </c>
+      <c r="T1042" t="n">
         <v>15</v>
-      </c>
-      <c r="N1042" t="n">
-        <v>30000</v>
-      </c>
-      <c r="O1042" t="n">
-        <v>30000</v>
-      </c>
-      <c r="P1042" t="n">
-        <v>30000</v>
-      </c>
-      <c r="Q1042" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1042" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="S1042" t="n">
-        <v>1667</v>
-      </c>
-      <c r="T1042" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="1043">
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1043" t="n">
         <v>9</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N1043" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1043" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P1043" t="n">
-        <v>16500</v>
+        <v>4000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>1100</v>
+        <v>267</v>
       </c>
       <c r="T1043" t="n">
         <v>15</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1044" t="n">
         <v>9</v>
@@ -83880,20 +83880,20 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1044" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O1044" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="P1044" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="T1044" t="n">
         <v>15</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1045" t="n">
         <v>9</v>
@@ -83960,36 +83960,36 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N1045" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="O1045" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="P1045" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>1583</v>
+        <v>1667</v>
       </c>
       <c r="T1045" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1046">
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1046" t="n">
         <v>9</v>
@@ -84040,20 +84040,20 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="N1046" t="n">
         <v>15000</v>
       </c>
       <c r="O1046" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1046" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T1046" t="n">
         <v>15</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1047" t="n">
         <v>9</v>
@@ -84120,20 +84120,20 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N1047" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O1047" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P1047" t="n">
-        <v>13222</v>
+        <v>10000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>881</v>
+        <v>667</v>
       </c>
       <c r="T1047" t="n">
         <v>15</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1048" t="n">
         <v>9</v>
@@ -84195,41 +84195,41 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="N1048" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="O1048" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="P1048" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>933</v>
+        <v>1583</v>
       </c>
       <c r="T1048" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1049">
@@ -84280,24 +84280,24 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="N1049" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1049" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1049" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T1049" t="n">
         <v>15</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1050" t="n">
         <v>9</v>
@@ -84360,24 +84360,24 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N1050" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="O1050" t="n">
-        <v>23000</v>
+        <v>13500</v>
       </c>
       <c r="P1050" t="n">
-        <v>22500</v>
+        <v>13222</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>1500</v>
+        <v>881</v>
       </c>
       <c r="T1050" t="n">
         <v>15</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1051" t="n">
         <v>9</v>
@@ -84444,20 +84444,20 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="N1051" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="O1051" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P1051" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>1467</v>
+        <v>933</v>
       </c>
       <c r="T1051" t="n">
         <v>15</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1052" t="n">
         <v>9</v>
@@ -84520,24 +84520,24 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N1052" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O1052" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P1052" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>1533</v>
+        <v>867</v>
       </c>
       <c r="T1052" t="n">
         <v>15</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1053" t="n">
         <v>9</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N1053" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="O1053" t="n">
-        <v>19500</v>
+        <v>23000</v>
       </c>
       <c r="P1053" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T1053" t="n">
         <v>15</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1054" t="n">
         <v>9</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N1054" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O1054" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P1054" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>1200</v>
+        <v>1467</v>
       </c>
       <c r="T1054" t="n">
         <v>15</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1055" t="n">
         <v>9</v>
@@ -84760,24 +84760,24 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="N1055" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O1055" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P1055" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>1200</v>
+        <v>1533</v>
       </c>
       <c r="T1055" t="n">
         <v>15</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1056" t="n">
         <v>9</v>
@@ -84844,16 +84844,16 @@
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N1056" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="O1056" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="P1056" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>1067</v>
+        <v>1300</v>
       </c>
       <c r="T1056" t="n">
         <v>15</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1057" t="n">
         <v>9</v>
@@ -84924,20 +84924,20 @@
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>390</v>
+        <v>155</v>
       </c>
       <c r="N1057" t="n">
         <v>18000</v>
       </c>
       <c r="O1057" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1057" t="n">
-        <v>18538</v>
+        <v>18000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
@@ -84946,10 +84946,10 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>1030</v>
+        <v>1200</v>
       </c>
       <c r="T1057" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1058">
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44392</v>
+        <v>44274</v>
       </c>
       <c r="E1058" t="n">
         <v>9</v>
@@ -85000,24 +85000,24 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="N1058" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1058" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1058" t="n">
-        <v>7571</v>
+        <v>18000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1058" t="inlineStr">
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>505</v>
+        <v>1200</v>
       </c>
       <c r="T1058" t="n">
         <v>15</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1059" t="n">
         <v>9</v>
@@ -85084,20 +85084,20 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="N1059" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="O1059" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="P1059" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
@@ -85106,10 +85106,10 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>333</v>
+        <v>1067</v>
       </c>
       <c r="T1059" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1060">
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1060" t="n">
         <v>9</v>
@@ -85160,24 +85160,24 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="N1060" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O1060" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="P1060" t="n">
-        <v>6000</v>
+        <v>18538</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>400</v>
+        <v>1030</v>
       </c>
       <c r="T1060" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1061">
@@ -85240,24 +85240,24 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="N1061" t="n">
-        <v>130000</v>
+        <v>7000</v>
       </c>
       <c r="O1061" t="n">
-        <v>130000</v>
+        <v>8000</v>
       </c>
       <c r="P1061" t="n">
-        <v>130000</v>
+        <v>7571</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,10 +85266,10 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>289</v>
+        <v>505</v>
       </c>
       <c r="T1061" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1062">
@@ -85320,24 +85320,24 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="N1062" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1062" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="P1062" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
@@ -85349,7 +85349,7 @@
         <v>333</v>
       </c>
       <c r="T1062" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1063">
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="N1063" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O1063" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1063" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>667</v>
+        <v>400</v>
       </c>
       <c r="T1063" t="n">
         <v>15</v>
@@ -85475,40 +85475,280 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1064" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>130000</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>130000</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>130000</v>
+      </c>
+      <c r="Q1064" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1064" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1064" t="n">
+        <v>289</v>
+      </c>
+      <c r="T1064" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1065" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1065" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1065" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1065" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1065" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q1065" t="inlineStr">
+        <is>
+          <t>$/malla 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1065" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1065" t="n">
+        <v>333</v>
+      </c>
+      <c r="T1065" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1066" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1066" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1066" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1066" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>Especial amarillo</t>
+        </is>
+      </c>
+      <c r="M1066" t="n">
+        <v>240</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1066" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1066" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1066" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1067" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1067" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1067" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1067" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L1064" t="inlineStr">
+      <c r="L1067" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1064" t="n">
+      <c r="M1067" t="n">
         <v>20</v>
       </c>
-      <c r="N1064" t="n">
+      <c r="N1067" t="n">
         <v>30000</v>
       </c>
-      <c r="O1064" t="n">
+      <c r="O1067" t="n">
         <v>30000</v>
       </c>
-      <c r="P1064" t="n">
+      <c r="P1067" t="n">
         <v>30000</v>
       </c>
-      <c r="Q1064" t="inlineStr">
+      <c r="Q1067" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R1064" t="inlineStr">
+      <c r="R1067" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S1064" t="n">
+      <c r="S1067" t="n">
         <v>1667</v>
       </c>
-      <c r="T1064" t="n">
+      <c r="T1067" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1086"/>
+  <dimension ref="A1:T1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1077" t="n">
         <v>9</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>320</v>
+        <v>125</v>
       </c>
       <c r="N1077" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O1077" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P1077" t="n">
-        <v>11531</v>
+        <v>19000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>769</v>
+        <v>1267</v>
       </c>
       <c r="T1077" t="n">
         <v>15</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1078" t="n">
         <v>9</v>
@@ -86600,24 +86600,24 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="N1078" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1078" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1078" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>800</v>
+        <v>1133</v>
       </c>
       <c r="T1078" t="n">
         <v>15</v>
@@ -86675,41 +86675,41 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="N1079" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O1079" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P1079" t="n">
-        <v>17000</v>
+        <v>11531</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>944</v>
+        <v>769</v>
       </c>
       <c r="T1079" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1080">
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1080" t="n">
         <v>9</v>
@@ -86760,36 +86760,36 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="N1080" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O1080" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1080" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T1080" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1081" t="n">
         <v>9</v>
@@ -86835,38 +86835,38 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="N1081" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O1081" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P1081" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="N1082" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O1082" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P1082" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1083" t="n">
         <v>9</v>
@@ -87004,20 +87004,20 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="N1083" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1083" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1083" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,10 +87026,10 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>1067</v>
+        <v>1000</v>
       </c>
       <c r="T1083" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1084" t="n">
         <v>9</v>
@@ -87080,24 +87080,24 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="N1084" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O1084" t="n">
         <v>17000</v>
       </c>
       <c r="P1084" t="n">
-        <v>16385</v>
+        <v>17000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1085" t="n">
         <v>9</v>
@@ -87164,20 +87164,20 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="N1085" t="n">
-        <v>315000</v>
+        <v>16000</v>
       </c>
       <c r="O1085" t="n">
-        <v>315000</v>
+        <v>16000</v>
       </c>
       <c r="P1085" t="n">
-        <v>315000</v>
+        <v>16000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
@@ -87186,10 +87186,10 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>700</v>
+        <v>1067</v>
       </c>
       <c r="T1085" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,68 +87207,228 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1086" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1086" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1086" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1086" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1086" t="n">
+        <v>325</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>16385</v>
+      </c>
+      <c r="Q1086" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1086" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1086" t="n">
+        <v>910</v>
+      </c>
+      <c r="T1086" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1087" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1086" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1086" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1086" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1086" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1086" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1086" t="inlineStr">
+      <c r="E1087" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1087" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1087" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1087" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1087" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1087" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M1086" t="n">
+      <c r="M1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q1087" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1087" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1087" t="n">
+        <v>700</v>
+      </c>
+      <c r="T1087" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1088" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1088" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1088" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1088" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1088" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1088" t="n">
         <v>285</v>
       </c>
-      <c r="N1086" t="n">
+      <c r="N1088" t="n">
         <v>7500</v>
       </c>
-      <c r="O1086" t="n">
+      <c r="O1088" t="n">
         <v>8000</v>
       </c>
-      <c r="P1086" t="n">
+      <c r="P1088" t="n">
         <v>7719</v>
       </c>
-      <c r="Q1086" t="inlineStr">
+      <c r="Q1088" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="R1086" t="inlineStr">
+      <c r="R1088" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1086" t="n">
+      <c r="S1088" t="n">
         <v>515</v>
       </c>
-      <c r="T1086" t="n">
+      <c r="T1088" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1116"/>
+  <dimension ref="A1:T1117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1053" t="n">
         <v>9</v>
@@ -84600,11 +84600,11 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N1053" t="n">
         <v>15000</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="N1054" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O1054" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P1054" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T1054" t="n">
         <v>15</v>
@@ -84764,7 +84764,7 @@
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N1055" t="n">
         <v>13500</v>
@@ -84777,7 +84777,7 @@
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
@@ -84840,36 +84840,36 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N1056" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O1056" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P1056" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>1222</v>
+        <v>900</v>
       </c>
       <c r="T1056" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1057">
@@ -84920,11 +84920,11 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="N1057" t="n">
         <v>22000</v>
@@ -84937,12 +84937,12 @@
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1057" t="n">
@@ -84995,16 +84995,16 @@
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="N1058" t="n">
         <v>22000</v>
@@ -85022,7 +85022,7 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1058" t="n">
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1059" t="n">
         <v>9</v>
@@ -85075,41 +85075,41 @@
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N1059" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O1059" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P1059" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="T1059" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1060">
@@ -85164,20 +85164,20 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N1060" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O1060" t="n">
-        <v>157500</v>
+        <v>9000</v>
       </c>
       <c r="P1060" t="n">
-        <v>153750</v>
+        <v>9000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
@@ -85186,10 +85186,10 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>342</v>
+        <v>600</v>
       </c>
       <c r="T1060" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1061">
@@ -85244,20 +85244,20 @@
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="N1061" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1061" t="n">
-        <v>5000</v>
+        <v>157500</v>
       </c>
       <c r="P1061" t="n">
-        <v>5000</v>
+        <v>153750</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,10 +85266,10 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="T1061" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1062">
@@ -85320,24 +85320,24 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N1062" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1062" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P1062" t="n">
-        <v>6556</v>
+        <v>5000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="T1062" t="n">
         <v>15</v>
@@ -85404,20 +85404,20 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N1063" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1063" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1063" t="n">
-        <v>4000</v>
+        <v>6556</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="T1063" t="n">
         <v>15</v>
@@ -85480,24 +85480,24 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N1064" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1064" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1064" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T1064" t="n">
         <v>15</v>
@@ -85555,41 +85555,41 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="N1065" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="O1065" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="P1065" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>2083</v>
+        <v>333</v>
       </c>
       <c r="T1065" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1066" t="n">
         <v>9</v>
@@ -85635,41 +85635,41 @@
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N1066" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="O1066" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="P1066" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>600</v>
+        <v>2083</v>
       </c>
       <c r="T1066" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1067">
@@ -85724,20 +85724,20 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1067" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O1067" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1067" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
@@ -85746,10 +85746,10 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T1067" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1068">
@@ -85800,24 +85800,24 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
         <v>200</v>
       </c>
       <c r="N1068" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O1068" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1068" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1068" t="inlineStr">
@@ -85826,10 +85826,10 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="T1068" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1069">
@@ -85875,41 +85875,41 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1069" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="O1069" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="P1069" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>1458</v>
+        <v>533</v>
       </c>
       <c r="T1069" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1070">
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1070" t="n">
         <v>9</v>
@@ -85955,41 +85955,41 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N1070" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="O1070" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="P1070" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>667</v>
+        <v>1458</v>
       </c>
       <c r="T1070" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1071">
@@ -86044,20 +86044,20 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N1071" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="O1071" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="P1071" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
@@ -86066,10 +86066,10 @@
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="T1071" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1072">
@@ -86124,20 +86124,20 @@
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N1072" t="n">
-        <v>9000</v>
+        <v>292000</v>
       </c>
       <c r="O1072" t="n">
-        <v>10000</v>
+        <v>292000</v>
       </c>
       <c r="P1072" t="n">
-        <v>9500</v>
+        <v>292000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
@@ -86146,10 +86146,10 @@
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="T1072" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1073">
@@ -86200,24 +86200,24 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N1073" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O1073" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1073" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
@@ -86226,7 +86226,7 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>800</v>
+        <v>633</v>
       </c>
       <c r="T1073" t="n">
         <v>15</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1074" t="n">
         <v>9</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="N1074" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O1074" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1074" t="n">
-        <v>19524</v>
+        <v>12000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86306,7 +86306,7 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>1302</v>
+        <v>800</v>
       </c>
       <c r="T1074" t="n">
         <v>15</v>
@@ -86360,36 +86360,36 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="N1075" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O1075" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P1075" t="n">
-        <v>25000</v>
+        <v>19524</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>1389</v>
+        <v>1302</v>
       </c>
       <c r="T1075" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1076">
@@ -86444,32 +86444,32 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N1076" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O1076" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P1076" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>1200</v>
+        <v>1389</v>
       </c>
       <c r="T1076" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1077">
@@ -86520,24 +86520,24 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1077" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O1077" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1077" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
@@ -86546,7 +86546,7 @@
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T1077" t="n">
         <v>15</v>
@@ -86600,36 +86600,36 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1078" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O1078" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P1078" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T1078" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1079">
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1079" t="n">
         <v>9</v>
@@ -86680,36 +86680,36 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N1079" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O1079" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="P1079" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>1300</v>
+        <v>1389</v>
       </c>
       <c r="T1079" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1080">
@@ -86764,20 +86764,20 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="N1080" t="n">
-        <v>21600</v>
+        <v>19500</v>
       </c>
       <c r="O1080" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="P1080" t="n">
-        <v>21829</v>
+        <v>19500</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
@@ -86786,10 +86786,10 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>1213</v>
+        <v>1300</v>
       </c>
       <c r="T1080" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1081" t="n">
         <v>9</v>
@@ -86840,24 +86840,24 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>270</v>
+        <v>445</v>
       </c>
       <c r="N1081" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="O1081" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P1081" t="n">
-        <v>6556</v>
+        <v>21829</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
@@ -86866,10 +86866,10 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>437</v>
+        <v>1213</v>
       </c>
       <c r="T1081" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1082">
@@ -86924,20 +86924,20 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N1082" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1082" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1082" t="n">
-        <v>5000</v>
+        <v>6556</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="T1082" t="n">
         <v>15</v>
@@ -87000,24 +87000,24 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1083" t="n">
         <v>100</v>
       </c>
       <c r="N1083" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O1083" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P1083" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T1083" t="n">
         <v>15</v>
@@ -87084,7 +87084,7 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1084" t="n">
         <v>10000</v>
@@ -87097,7 +87097,7 @@
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
@@ -87106,10 +87106,10 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1084" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1085">
@@ -87155,41 +87155,41 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N1085" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O1085" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="P1085" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>2083</v>
+        <v>556</v>
       </c>
       <c r="T1085" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1086" t="n">
         <v>9</v>
@@ -87235,41 +87235,41 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>420</v>
+        <v>5</v>
       </c>
       <c r="N1086" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="O1086" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="P1086" t="n">
-        <v>9476</v>
+        <v>50000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>632</v>
+        <v>2083</v>
       </c>
       <c r="T1086" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1087">
@@ -87315,41 +87315,41 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="N1087" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O1087" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1087" t="n">
-        <v>20000</v>
+        <v>9476</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>1111</v>
+        <v>632</v>
       </c>
       <c r="T1087" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1088">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1088" t="n">
         <v>9</v>
@@ -87395,41 +87395,41 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="N1088" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1088" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1088" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="T1088" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -87484,32 +87484,32 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="N1089" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O1089" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P1089" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T1089" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1090">
@@ -87560,36 +87560,36 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="N1090" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O1090" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P1090" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T1090" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1091">
@@ -87644,7 +87644,7 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="N1091" t="n">
         <v>18000</v>
@@ -87657,7 +87657,7 @@
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
@@ -87720,36 +87720,36 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N1092" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="O1092" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="P1092" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T1092" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1093">
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="N1093" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O1093" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="P1093" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1094" t="n">
         <v>9</v>
@@ -87880,36 +87880,36 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="N1094" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O1094" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P1094" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>533</v>
+        <v>1333</v>
       </c>
       <c r="T1094" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095">
@@ -87964,32 +87964,32 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N1095" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O1095" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1095" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T1095" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1096">
@@ -88044,29 +88044,29 @@
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N1096" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O1096" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1096" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T1096" t="n">
         <v>18</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1097" t="n">
         <v>9</v>
@@ -88124,20 +88124,20 @@
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N1097" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1097" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1097" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
@@ -88146,10 +88146,10 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1098">
@@ -88204,20 +88204,20 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N1098" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1098" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1098" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
@@ -88226,10 +88226,10 @@
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="T1098" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1099">
@@ -88280,24 +88280,24 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="N1099" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1099" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1099" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
@@ -88306,10 +88306,10 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="T1099" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1100">
@@ -88355,41 +88355,41 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N1100" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="O1100" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="P1100" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T1100" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1101">
@@ -88435,7 +88435,7 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
@@ -88444,7 +88444,7 @@
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1101" t="n">
         <v>40000</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1102" t="n">
         <v>9</v>
@@ -88515,41 +88515,41 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="N1102" t="n">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="O1102" t="n">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="P1102" t="n">
-        <v>6526</v>
+        <v>40000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>435</v>
+        <v>1667</v>
       </c>
       <c r="T1102" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1103">
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N1103" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O1103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P1103" t="n">
-        <v>8000</v>
+        <v>6526</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88626,7 +88626,7 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="T1103" t="n">
         <v>15</v>
@@ -88684,20 +88684,20 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N1104" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1104" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1104" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
@@ -88706,10 +88706,10 @@
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T1104" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1105" t="n">
         <v>9</v>
@@ -88760,24 +88760,24 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="N1105" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1105" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P1105" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
@@ -88786,10 +88786,10 @@
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>1267</v>
+        <v>556</v>
       </c>
       <c r="T1105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1106">
@@ -88840,20 +88840,20 @@
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N1106" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1106" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P1106" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88866,7 +88866,7 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>1133</v>
+        <v>1267</v>
       </c>
       <c r="T1106" t="n">
         <v>15</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1107" t="n">
         <v>9</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>320</v>
+        <v>155</v>
       </c>
       <c r="N1107" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O1107" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1107" t="n">
-        <v>11531</v>
+        <v>17000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88946,7 +88946,7 @@
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>769</v>
+        <v>1133</v>
       </c>
       <c r="T1107" t="n">
         <v>15</v>
@@ -89004,20 +89004,20 @@
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N1108" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1108" t="n">
         <v>12000</v>
       </c>
       <c r="P1108" t="n">
-        <v>12000</v>
+        <v>11531</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
@@ -89026,7 +89026,7 @@
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="T1108" t="n">
         <v>15</v>
@@ -89075,41 +89075,41 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N1109" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O1109" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P1109" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1110" t="n">
         <v>9</v>
@@ -89155,38 +89155,38 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="N1110" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O1110" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P1110" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T1110" t="n">
         <v>18</v>
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="N1111" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1111" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1111" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89320,20 +89320,20 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N1112" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O1112" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P1112" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T1112" t="n">
         <v>18</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1113" t="n">
         <v>9</v>
@@ -89400,24 +89400,24 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N1113" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O1113" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P1113" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
@@ -89426,10 +89426,10 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>1067</v>
+        <v>944</v>
       </c>
       <c r="T1113" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1114">
@@ -89484,20 +89484,20 @@
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="N1114" t="n">
         <v>16000</v>
       </c>
       <c r="O1114" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P1114" t="n">
-        <v>16385</v>
+        <v>16000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
@@ -89506,10 +89506,10 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>910</v>
+        <v>1067</v>
       </c>
       <c r="T1114" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1115">
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1115" t="n">
         <v>9</v>
@@ -89564,20 +89564,20 @@
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="N1115" t="n">
-        <v>315000</v>
+        <v>16000</v>
       </c>
       <c r="O1115" t="n">
-        <v>315000</v>
+        <v>17000</v>
       </c>
       <c r="P1115" t="n">
-        <v>315000</v>
+        <v>16385</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
@@ -89586,10 +89586,10 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>700</v>
+        <v>910</v>
       </c>
       <c r="T1115" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1116">
@@ -89644,31 +89644,111 @@
         </is>
       </c>
       <c r="M1116" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q1116" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1116" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1116" t="n">
+        <v>700</v>
+      </c>
+      <c r="T1116" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1117" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1117" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1117" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1117" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1117" t="n">
         <v>285</v>
       </c>
-      <c r="N1116" t="n">
+      <c r="N1117" t="n">
         <v>7500</v>
       </c>
-      <c r="O1116" t="n">
+      <c r="O1117" t="n">
         <v>8000</v>
       </c>
-      <c r="P1116" t="n">
+      <c r="P1117" t="n">
         <v>7719</v>
       </c>
-      <c r="Q1116" t="inlineStr">
+      <c r="Q1117" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="R1116" t="inlineStr">
+      <c r="R1117" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1116" t="n">
+      <c r="S1117" t="n">
         <v>515</v>
       </c>
-      <c r="T1116" t="n">
+      <c r="T1117" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1151"/>
+  <dimension ref="A1:T1154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1142" t="n">
         <v>9</v>
@@ -91724,32 +91724,32 @@
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="N1142" t="n">
-        <v>11000</v>
+        <v>40000</v>
       </c>
       <c r="O1142" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="P1142" t="n">
-        <v>11531</v>
+        <v>40000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>769</v>
+        <v>1667</v>
       </c>
       <c r="T1142" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1143" t="n">
         <v>9</v>
@@ -91804,20 +91804,20 @@
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1143" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O1143" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P1143" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
@@ -91826,10 +91826,10 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>800</v>
+        <v>1444</v>
       </c>
       <c r="T1143" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1144" t="n">
         <v>9</v>
@@ -91875,41 +91875,41 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N1144" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O1144" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P1144" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>944</v>
+        <v>1600</v>
       </c>
       <c r="T1144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1145">
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -91960,36 +91960,36 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="N1145" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O1145" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1145" t="n">
-        <v>20000</v>
+        <v>11531</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>1111</v>
+        <v>769</v>
       </c>
       <c r="T1145" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -92040,24 +92040,24 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N1146" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O1146" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P1146" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
@@ -92066,10 +92066,10 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T1146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,7 +92124,7 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="N1147" t="n">
         <v>17000</v>
@@ -92137,12 +92137,12 @@
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1147" t="n">
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1148" t="n">
         <v>9</v>
@@ -92204,32 +92204,32 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="N1148" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O1148" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P1148" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>1067</v>
+        <v>1111</v>
       </c>
       <c r="T1148" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1149" t="n">
         <v>9</v>
@@ -92284,20 +92284,20 @@
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="N1149" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1149" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P1149" t="n">
-        <v>16385</v>
+        <v>18000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="T1149" t="n">
         <v>18</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1150" t="n">
         <v>9</v>
@@ -92360,24 +92360,24 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N1150" t="n">
-        <v>315000</v>
+        <v>17000</v>
       </c>
       <c r="O1150" t="n">
-        <v>315000</v>
+        <v>17000</v>
       </c>
       <c r="P1150" t="n">
-        <v>315000</v>
+        <v>17000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
@@ -92386,10 +92386,10 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="T1150" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1151">
@@ -92407,68 +92407,308 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1151" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1151" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1151" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1151" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1151" t="n">
+        <v>210</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q1151" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1151" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1151" t="n">
+        <v>1067</v>
+      </c>
+      <c r="T1151" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1152" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1152" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1152" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1152" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1152" t="n">
+        <v>325</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>16385</v>
+      </c>
+      <c r="Q1152" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1152" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1152" t="n">
+        <v>910</v>
+      </c>
+      <c r="T1152" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1153" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1151" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1151" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1151" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1151" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1151" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1151" t="inlineStr">
+      <c r="E1153" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1153" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1153" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1153" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1153" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1153" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M1151" t="n">
+      <c r="M1153" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q1153" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1153" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1153" t="n">
+        <v>700</v>
+      </c>
+      <c r="T1153" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1154" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1154" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1154" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1154" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1154" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1154" t="n">
         <v>285</v>
       </c>
-      <c r="N1151" t="n">
+      <c r="N1154" t="n">
         <v>7500</v>
       </c>
-      <c r="O1151" t="n">
+      <c r="O1154" t="n">
         <v>8000</v>
       </c>
-      <c r="P1151" t="n">
+      <c r="P1154" t="n">
         <v>7719</v>
       </c>
-      <c r="Q1151" t="inlineStr">
+      <c r="Q1154" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="R1151" t="inlineStr">
+      <c r="R1154" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1151" t="n">
+      <c r="S1154" t="n">
         <v>515</v>
       </c>
-      <c r="T1151" t="n">
+      <c r="T1154" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1185"/>
+  <dimension ref="A1:T1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -80524,32 +80524,32 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="N1002" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O1002" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P1002" t="n">
-        <v>22286</v>
+        <v>25000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>1486</v>
+        <v>1389</v>
       </c>
       <c r="T1002" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1003">
@@ -80604,20 +80604,20 @@
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N1003" t="n">
         <v>22000</v>
       </c>
       <c r="O1003" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P1003" t="n">
-        <v>22000</v>
+        <v>22286</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
@@ -80626,7 +80626,7 @@
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>1467</v>
+        <v>1486</v>
       </c>
       <c r="T1003" t="n">
         <v>15</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N1004" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O1004" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P1004" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>1333</v>
+        <v>1467</v>
       </c>
       <c r="T1004" t="n">
         <v>15</v>
@@ -80755,16 +80755,16 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N1005" t="n">
         <v>20000</v>
@@ -80777,19 +80777,19 @@
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="T1005" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1006">
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44524</v>
+        <v>44208</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -80835,41 +80835,41 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N1006" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O1006" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P1006" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>600</v>
+        <v>1111</v>
       </c>
       <c r="T1006" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1007">
@@ -80924,32 +80924,32 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N1007" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O1007" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1007" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T1007" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1008">
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44355</v>
+        <v>44524</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -81000,36 +81000,36 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="N1008" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="O1008" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1008" t="n">
-        <v>9057</v>
+        <v>13000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="T1008" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1009">
@@ -81084,20 +81084,20 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="N1009" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O1009" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1009" t="n">
-        <v>8532</v>
+        <v>9057</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
@@ -81106,7 +81106,7 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>569</v>
+        <v>604</v>
       </c>
       <c r="T1009" t="n">
         <v>15</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44530</v>
+        <v>44355</v>
       </c>
       <c r="E1010" t="n">
         <v>9</v>
@@ -81160,24 +81160,24 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="N1010" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O1010" t="n">
         <v>9000</v>
       </c>
       <c r="P1010" t="n">
-        <v>9000</v>
+        <v>8532</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="T1010" t="n">
         <v>15</v>
@@ -81244,20 +81244,20 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1011" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O1011" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P1011" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1011" t="inlineStr">
@@ -81266,10 +81266,10 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="T1011" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1012">
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44483</v>
+        <v>44530</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -81324,20 +81324,20 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N1012" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O1012" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1012" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1012" t="inlineStr">
@@ -81346,10 +81346,10 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="T1012" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1013">
@@ -81404,32 +81404,32 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="N1013" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O1013" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1013" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T1013" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1014">
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44294</v>
+        <v>44483</v>
       </c>
       <c r="E1014" t="n">
         <v>9</v>
@@ -81484,32 +81484,32 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N1014" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O1014" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P1014" t="n">
-        <v>14111</v>
+        <v>11000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>941</v>
+        <v>611</v>
       </c>
       <c r="T1014" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1015">
@@ -81564,20 +81564,20 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N1015" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O1015" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P1015" t="n">
-        <v>23583</v>
+        <v>14111</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
@@ -81586,10 +81586,10 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>1310</v>
+        <v>941</v>
       </c>
       <c r="T1015" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1016">
@@ -81640,24 +81640,24 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N1016" t="n">
-        <v>10500</v>
+        <v>23000</v>
       </c>
       <c r="O1016" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="P1016" t="n">
-        <v>10500</v>
+        <v>23583</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
@@ -81666,10 +81666,10 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>700</v>
+        <v>1310</v>
       </c>
       <c r="T1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1017">
@@ -81720,36 +81720,36 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="N1017" t="n">
-        <v>24000</v>
+        <v>10500</v>
       </c>
       <c r="O1017" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="P1017" t="n">
-        <v>24500</v>
+        <v>10500</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>1361</v>
+        <v>700</v>
       </c>
       <c r="T1017" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1018">
@@ -81800,36 +81800,36 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N1018" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O1018" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P1018" t="n">
-        <v>16000</v>
+        <v>24500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>1067</v>
+        <v>1361</v>
       </c>
       <c r="T1018" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1019">
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N1019" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="O1019" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="P1019" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>1458</v>
+        <v>1067</v>
       </c>
       <c r="T1019" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E1020" t="n">
         <v>9</v>
@@ -81955,41 +81955,41 @@
       </c>
       <c r="K1020" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N1020" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="O1020" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P1020" t="n">
-        <v>29500</v>
+        <v>35000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>1639</v>
+        <v>1458</v>
       </c>
       <c r="T1020" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1021">
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -82044,32 +82044,32 @@
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="N1021" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="O1021" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="P1021" t="n">
-        <v>16000</v>
+        <v>29500</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>1067</v>
+        <v>1639</v>
       </c>
       <c r="T1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1022">
@@ -82124,20 +82124,20 @@
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="N1022" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O1022" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P1022" t="n">
-        <v>18373</v>
+        <v>16000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
@@ -82146,10 +82146,10 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>1021</v>
+        <v>1067</v>
       </c>
       <c r="T1022" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1023">
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44489</v>
+        <v>44557</v>
       </c>
       <c r="E1023" t="n">
         <v>9</v>
@@ -82204,20 +82204,20 @@
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="N1023" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1023" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P1023" t="n">
-        <v>7556</v>
+        <v>18373</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
@@ -82226,10 +82226,10 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>504</v>
+        <v>1021</v>
       </c>
       <c r="T1023" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1024">
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="N1024" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1024" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1024" t="n">
-        <v>6000</v>
+        <v>7556</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="T1024" t="n">
         <v>15</v>
@@ -82360,24 +82360,24 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N1025" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O1025" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1025" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
@@ -82386,10 +82386,10 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="T1025" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1026">
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44264</v>
+        <v>44489</v>
       </c>
       <c r="E1026" t="n">
         <v>9</v>
@@ -82440,24 +82440,24 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N1026" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1026" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="P1026" t="n">
-        <v>19250</v>
+        <v>10000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1026" t="inlineStr">
@@ -82466,10 +82466,10 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>1283</v>
+        <v>556</v>
       </c>
       <c r="T1026" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1027">
@@ -82524,32 +82524,32 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N1027" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O1027" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="P1027" t="n">
-        <v>22000</v>
+        <v>19250</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>1222</v>
+        <v>1283</v>
       </c>
       <c r="T1027" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1028">
@@ -82600,33 +82600,33 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N1028" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="O1028" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P1028" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>1944</v>
+        <v>1222</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82680,20 +82680,20 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="N1029" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="O1029" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="P1029" t="n">
-        <v>27500</v>
+        <v>35000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>1528</v>
+        <v>1944</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82760,36 +82760,36 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="N1030" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O1030" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P1030" t="n">
-        <v>25000</v>
+        <v>27500</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>1667</v>
+        <v>1528</v>
       </c>
       <c r="T1030" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1031">
@@ -82835,16 +82835,16 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N1031" t="n">
         <v>25000</v>
@@ -82857,19 +82857,19 @@
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>1389</v>
+        <v>1667</v>
       </c>
       <c r="T1031" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1032">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44396</v>
+        <v>44264</v>
       </c>
       <c r="E1032" t="n">
         <v>9</v>
@@ -82915,41 +82915,41 @@
       </c>
       <c r="K1032" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="N1032" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O1032" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P1032" t="n">
-        <v>9333</v>
+        <v>25000</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>622</v>
+        <v>1389</v>
       </c>
       <c r="T1032" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1033">
@@ -83004,20 +83004,20 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="N1033" t="n">
-        <v>145000</v>
+        <v>9000</v>
       </c>
       <c r="O1033" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P1033" t="n">
-        <v>147500</v>
+        <v>9333</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1033" t="inlineStr">
@@ -83026,10 +83026,10 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>328</v>
+        <v>622</v>
       </c>
       <c r="T1033" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1034">
@@ -83080,24 +83080,24 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="N1034" t="n">
-        <v>7000</v>
+        <v>145000</v>
       </c>
       <c r="O1034" t="n">
-        <v>7000</v>
+        <v>150000</v>
       </c>
       <c r="P1034" t="n">
-        <v>7000</v>
+        <v>147500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1034" t="inlineStr">
@@ -83106,10 +83106,10 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>467</v>
+        <v>328</v>
       </c>
       <c r="T1034" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1035">
@@ -83164,20 +83164,20 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N1035" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1035" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1035" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>333</v>
+        <v>467</v>
       </c>
       <c r="T1035" t="n">
         <v>15</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="N1036" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1036" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1036" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83266,7 +83266,7 @@
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T1036" t="n">
         <v>15</v>
@@ -83315,41 +83315,41 @@
       </c>
       <c r="K1037" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="N1037" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="O1037" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="P1037" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1667</v>
+        <v>267</v>
       </c>
       <c r="T1037" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1038">
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E1038" t="n">
         <v>9</v>
@@ -83395,41 +83395,41 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="N1038" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="O1038" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="P1038" t="n">
-        <v>18000</v>
+        <v>40000</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>1200</v>
+        <v>1667</v>
       </c>
       <c r="T1038" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1039">
@@ -83484,29 +83484,29 @@
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="N1039" t="n">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="O1039" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1039" t="n">
-        <v>18787</v>
+        <v>18000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>1252</v>
+        <v>1200</v>
       </c>
       <c r="T1039" t="n">
         <v>15</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E1040" t="n">
         <v>9</v>
@@ -83560,33 +83560,33 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="N1040" t="n">
+        <v>18500</v>
+      </c>
+      <c r="O1040" t="n">
         <v>19000</v>
       </c>
-      <c r="O1040" t="n">
-        <v>19500</v>
-      </c>
       <c r="P1040" t="n">
-        <v>19231</v>
+        <v>18787</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>1282</v>
+        <v>1252</v>
       </c>
       <c r="T1040" t="n">
         <v>15</v>
@@ -83644,20 +83644,20 @@
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="N1041" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1041" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="P1041" t="n">
-        <v>17000</v>
+        <v>19231</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
@@ -83666,10 +83666,10 @@
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>944</v>
+        <v>1282</v>
       </c>
       <c r="T1041" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1042">
@@ -83720,36 +83720,36 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N1042" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O1042" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P1042" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>1267</v>
+        <v>944</v>
       </c>
       <c r="T1042" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1043">
@@ -83804,32 +83804,32 @@
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N1043" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1043" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P1043" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>944</v>
+        <v>1267</v>
       </c>
       <c r="T1043" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1044">
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N1044" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="O1044" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="P1044" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>1125</v>
+        <v>944</v>
       </c>
       <c r="T1044" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1045">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E1045" t="n">
         <v>9</v>
@@ -83955,7 +83955,7 @@
       </c>
       <c r="K1045" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1045" t="inlineStr">
@@ -83964,32 +83964,32 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N1045" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O1045" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P1045" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>1667</v>
+        <v>1125</v>
       </c>
       <c r="T1045" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1046">
@@ -84035,41 +84035,41 @@
       </c>
       <c r="K1046" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="N1046" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O1046" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P1046" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>1111</v>
+        <v>1667</v>
       </c>
       <c r="T1046" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1047">
@@ -84120,36 +84120,36 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="N1047" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O1047" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="P1047" t="n">
-        <v>13268</v>
+        <v>20000</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>885</v>
+        <v>1111</v>
       </c>
       <c r="T1047" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048">
@@ -84200,20 +84200,20 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>125</v>
+        <v>345</v>
       </c>
       <c r="N1048" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1048" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P1048" t="n">
-        <v>10000</v>
+        <v>13268</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>667</v>
+        <v>885</v>
       </c>
       <c r="T1048" t="n">
         <v>15</v>
@@ -84275,41 +84275,41 @@
       </c>
       <c r="K1049" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="N1049" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="O1049" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="P1049" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>1458</v>
+        <v>667</v>
       </c>
       <c r="T1049" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1050">
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44504</v>
+        <v>44330</v>
       </c>
       <c r="E1050" t="n">
         <v>9</v>
@@ -84355,41 +84355,41 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="N1050" t="n">
-        <v>7000</v>
+        <v>35000</v>
       </c>
       <c r="O1050" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="P1050" t="n">
-        <v>7524</v>
+        <v>35000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>502</v>
+        <v>1458</v>
       </c>
       <c r="T1050" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1051">
@@ -84444,20 +84444,20 @@
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>12</v>
+        <v>420</v>
       </c>
       <c r="N1051" t="n">
-        <v>170000</v>
+        <v>7000</v>
       </c>
       <c r="O1051" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P1051" t="n">
-        <v>170000</v>
+        <v>7524</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1051" t="inlineStr">
@@ -84466,10 +84466,10 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>378</v>
+        <v>502</v>
       </c>
       <c r="T1051" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1052">
@@ -84524,20 +84524,20 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="N1052" t="n">
-        <v>11000</v>
+        <v>170000</v>
       </c>
       <c r="O1052" t="n">
-        <v>12000</v>
+        <v>170000</v>
       </c>
       <c r="P1052" t="n">
-        <v>11455</v>
+        <v>170000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
@@ -84546,10 +84546,10 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>636</v>
+        <v>378</v>
       </c>
       <c r="T1052" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1053">
@@ -84604,20 +84604,20 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N1053" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O1053" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P1053" t="n">
-        <v>8500</v>
+        <v>11455</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>472</v>
+        <v>636</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84680,24 +84680,24 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1054" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O1054" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1054" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1054" t="inlineStr">
@@ -84706,10 +84706,10 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="T1054" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1055">
@@ -84755,41 +84755,41 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N1055" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="O1055" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="P1055" t="n">
-        <v>80000</v>
+        <v>6000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>3333</v>
+        <v>400</v>
       </c>
       <c r="T1055" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44572</v>
+        <v>44504</v>
       </c>
       <c r="E1056" t="n">
         <v>9</v>
@@ -84835,41 +84835,41 @@
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="N1056" t="n">
-        <v>19000</v>
+        <v>80000</v>
       </c>
       <c r="O1056" t="n">
-        <v>19000</v>
+        <v>80000</v>
       </c>
       <c r="P1056" t="n">
-        <v>19000</v>
+        <v>80000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>1267</v>
+        <v>3333</v>
       </c>
       <c r="T1056" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1057">
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E1057" t="n">
         <v>9</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="N1057" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O1057" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="P1057" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>1233</v>
+        <v>1267</v>
       </c>
       <c r="T1057" t="n">
         <v>15</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E1058" t="n">
         <v>9</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>128</v>
+        <v>375</v>
       </c>
       <c r="N1058" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O1058" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P1058" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>1000</v>
+        <v>1233</v>
       </c>
       <c r="T1058" t="n">
         <v>15</v>
@@ -85084,20 +85084,20 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="N1059" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1059" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1059" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1059" t="inlineStr">
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>867</v>
+        <v>1000</v>
       </c>
       <c r="T1059" t="n">
         <v>15</v>
@@ -85160,11 +85160,11 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N1060" t="n">
         <v>13000</v>
@@ -85240,24 +85240,24 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="N1061" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="O1061" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="P1061" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
@@ -85266,7 +85266,7 @@
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T1061" t="n">
         <v>15</v>
@@ -85320,36 +85320,36 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="N1062" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O1062" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P1062" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>1222</v>
+        <v>900</v>
       </c>
       <c r="T1062" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1063">
@@ -85395,38 +85395,38 @@
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="N1063" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O1063" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P1063" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E1064" t="n">
         <v>9</v>
@@ -85475,41 +85475,41 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="N1064" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O1064" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P1064" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>467</v>
+        <v>722</v>
       </c>
       <c r="T1064" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1065">
@@ -85564,20 +85564,20 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="N1065" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="O1065" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="P1065" t="n">
-        <v>200000</v>
+        <v>7000</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
@@ -85586,10 +85586,10 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="T1065" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1066">
@@ -85644,20 +85644,20 @@
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="N1066" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="O1066" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="P1066" t="n">
-        <v>12000</v>
+        <v>200000</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
@@ -85666,10 +85666,10 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T1066" t="n">
-        <v>20</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1067">
@@ -85720,24 +85720,24 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="N1067" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O1067" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P1067" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
@@ -85746,10 +85746,10 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>333</v>
+        <v>600</v>
       </c>
       <c r="T1067" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44487</v>
+        <v>44370</v>
       </c>
       <c r="E1068" t="n">
         <v>9</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="N1068" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O1068" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P1068" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85826,7 +85826,7 @@
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T1068" t="n">
         <v>15</v>
@@ -85880,20 +85880,20 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N1069" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1069" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1069" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1069" t="n">
         <v>15</v>
@@ -85960,24 +85960,24 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N1070" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O1070" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P1070" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
@@ -85986,10 +85986,10 @@
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>611</v>
+        <v>400</v>
       </c>
       <c r="T1070" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1071">
@@ -86035,41 +86035,41 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N1071" t="n">
-        <v>90000</v>
+        <v>11000</v>
       </c>
       <c r="O1071" t="n">
-        <v>90000</v>
+        <v>11000</v>
       </c>
       <c r="P1071" t="n">
-        <v>90000</v>
+        <v>11000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>3750</v>
+        <v>611</v>
       </c>
       <c r="T1071" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44174</v>
+        <v>44487</v>
       </c>
       <c r="E1072" t="n">
         <v>9</v>
@@ -86115,41 +86115,41 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="N1072" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="O1072" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="P1072" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>1000</v>
+        <v>3750</v>
       </c>
       <c r="T1072" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1073">
@@ -86204,7 +86204,7 @@
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N1073" t="n">
         <v>15000</v>
@@ -86217,7 +86217,7 @@
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1073" t="inlineStr">
@@ -86226,10 +86226,10 @@
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T1073" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1074">
@@ -86280,24 +86280,24 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N1074" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1074" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1074" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
@@ -86306,10 +86306,10 @@
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="T1074" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1075">
@@ -86364,7 +86364,7 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N1075" t="n">
         <v>12000</v>
@@ -86377,7 +86377,7 @@
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1075" t="inlineStr">
@@ -86440,7 +86440,7 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1076" t="n">
@@ -86457,7 +86457,7 @@
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
@@ -86515,41 +86515,41 @@
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="N1077" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="O1077" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="P1077" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>1458</v>
+        <v>800</v>
       </c>
       <c r="T1077" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1078">
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44200</v>
+        <v>44174</v>
       </c>
       <c r="E1078" t="n">
         <v>9</v>
@@ -86595,41 +86595,41 @@
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="N1078" t="n">
-        <v>22500</v>
+        <v>35000</v>
       </c>
       <c r="O1078" t="n">
-        <v>22500</v>
+        <v>35000</v>
       </c>
       <c r="P1078" t="n">
-        <v>22500</v>
+        <v>35000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1500</v>
+        <v>1458</v>
       </c>
       <c r="T1078" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1079">
@@ -86680,11 +86680,11 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="N1079" t="n">
         <v>22500</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E1080" t="n">
         <v>9</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="N1080" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="O1080" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="P1080" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>467</v>
+        <v>1500</v>
       </c>
       <c r="T1080" t="n">
         <v>15</v>
@@ -86844,20 +86844,20 @@
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N1081" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1081" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1081" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
@@ -86866,10 +86866,10 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>556</v>
+        <v>467</v>
       </c>
       <c r="T1081" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1082">
@@ -86924,20 +86924,20 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N1082" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1082" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1082" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
@@ -86946,10 +86946,10 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="T1082" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1083">
@@ -87000,24 +87000,24 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="N1083" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1083" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P1083" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="T1083" t="n">
         <v>15</v>
@@ -87084,20 +87084,20 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="N1084" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1084" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1084" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
@@ -87106,7 +87106,7 @@
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T1084" t="n">
         <v>15</v>
@@ -87155,41 +87155,41 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="N1085" t="n">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="O1085" t="n">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="P1085" t="n">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>1875</v>
+        <v>267</v>
       </c>
       <c r="T1085" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E1086" t="n">
         <v>9</v>
@@ -87235,41 +87235,41 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="N1086" t="n">
-        <v>18000</v>
+        <v>45000</v>
       </c>
       <c r="O1086" t="n">
-        <v>18500</v>
+        <v>45000</v>
       </c>
       <c r="P1086" t="n">
-        <v>18272</v>
+        <v>45000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>1218</v>
+        <v>1875</v>
       </c>
       <c r="T1086" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1087">
@@ -87324,29 +87324,29 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="N1087" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O1087" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="P1087" t="n">
-        <v>16500</v>
+        <v>18272</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>1100</v>
+        <v>1218</v>
       </c>
       <c r="T1087" t="n">
         <v>15</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E1088" t="n">
         <v>9</v>
@@ -87404,29 +87404,29 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="N1088" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="O1088" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="P1088" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>1433</v>
+        <v>1100</v>
       </c>
       <c r="T1088" t="n">
         <v>15</v>
@@ -87484,20 +87484,20 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="N1089" t="n">
-        <v>440000</v>
+        <v>21000</v>
       </c>
       <c r="O1089" t="n">
-        <v>440000</v>
+        <v>22000</v>
       </c>
       <c r="P1089" t="n">
-        <v>440000</v>
+        <v>21500</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
@@ -87506,10 +87506,10 @@
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1100</v>
+        <v>1433</v>
       </c>
       <c r="T1089" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1090">
@@ -87564,32 +87564,32 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="N1090" t="n">
-        <v>24000</v>
+        <v>440000</v>
       </c>
       <c r="O1090" t="n">
-        <v>24000</v>
+        <v>440000</v>
       </c>
       <c r="P1090" t="n">
-        <v>24000</v>
+        <v>440000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>1333</v>
+        <v>1100</v>
       </c>
       <c r="T1090" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1091">
@@ -87640,36 +87640,36 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1091" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O1091" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P1091" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>1267</v>
+        <v>1333</v>
       </c>
       <c r="T1091" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1092">
@@ -87720,24 +87720,24 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1092" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O1092" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P1092" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
@@ -87746,7 +87746,7 @@
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>1000</v>
+        <v>1267</v>
       </c>
       <c r="T1092" t="n">
         <v>15</v>
@@ -87800,36 +87800,36 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N1093" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="O1093" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="P1093" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1556</v>
+        <v>1000</v>
       </c>
       <c r="T1093" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1094">
@@ -87875,7 +87875,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -87884,16 +87884,16 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="N1094" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="O1094" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="P1094" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87902,11 +87902,11 @@
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>1111</v>
+        <v>1556</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E1095" t="n">
         <v>9</v>
@@ -87955,41 +87955,41 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>550</v>
+        <v>90</v>
       </c>
       <c r="N1095" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O1095" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P1095" t="n">
-        <v>5455</v>
+        <v>20000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>364</v>
+        <v>1111</v>
       </c>
       <c r="T1095" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1096">
@@ -88044,20 +88044,20 @@
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="N1096" t="n">
         <v>5000</v>
       </c>
       <c r="O1096" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P1096" t="n">
-        <v>5000</v>
+        <v>5455</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="T1096" t="n">
         <v>15</v>
@@ -88120,24 +88120,24 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="N1097" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1097" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1097" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="T1097" t="n">
         <v>15</v>
@@ -88204,7 +88204,7 @@
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N1098" t="n">
         <v>4000</v>
@@ -88217,7 +88217,7 @@
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
@@ -88280,24 +88280,24 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="N1099" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O1099" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P1099" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
@@ -88306,10 +88306,10 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>556</v>
+        <v>267</v>
       </c>
       <c r="T1099" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1100">
@@ -88355,41 +88355,41 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="N1100" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O1100" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="P1100" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>1875</v>
+        <v>556</v>
       </c>
       <c r="T1100" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E1101" t="n">
         <v>9</v>
@@ -88435,41 +88435,41 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="N1101" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="O1101" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="P1101" t="n">
-        <v>22000</v>
+        <v>45000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>1467</v>
+        <v>1875</v>
       </c>
       <c r="T1101" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1102">
@@ -88520,11 +88520,11 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="N1102" t="n">
         <v>22000</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44214</v>
+        <v>44272</v>
       </c>
       <c r="E1103" t="n">
         <v>9</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="N1103" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O1103" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P1103" t="n">
-        <v>24446</v>
+        <v>22000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88626,7 +88626,7 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>1630</v>
+        <v>1467</v>
       </c>
       <c r="T1103" t="n">
         <v>15</v>
@@ -88680,20 +88680,20 @@
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="N1104" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O1104" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P1104" t="n">
-        <v>23484</v>
+        <v>24446</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>1566</v>
+        <v>1630</v>
       </c>
       <c r="T1104" t="n">
         <v>15</v>
@@ -88777,7 +88777,7 @@
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
@@ -88840,33 +88840,33 @@
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="N1106" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O1106" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P1106" t="n">
-        <v>21000</v>
+        <v>23484</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>1400</v>
+        <v>1566</v>
       </c>
       <c r="T1106" t="n">
         <v>15</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N1107" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O1107" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P1107" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="T1107" t="n">
         <v>15</v>
@@ -89004,7 +89004,7 @@
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N1108" t="n">
         <v>20000</v>
@@ -89017,7 +89017,7 @@
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E1109" t="n">
         <v>9</v>
@@ -89080,33 +89080,33 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="N1109" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O1109" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P1109" t="n">
-        <v>14330</v>
+        <v>20000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>955</v>
+        <v>1333</v>
       </c>
       <c r="T1109" t="n">
         <v>15</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="N1110" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O1110" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1110" t="n">
-        <v>18000</v>
+        <v>14330</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>1200</v>
+        <v>955</v>
       </c>
       <c r="T1110" t="n">
         <v>15</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E1111" t="n">
         <v>9</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="N1111" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O1111" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1111" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89266,7 +89266,7 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T1111" t="n">
         <v>15</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1112" t="n">
         <v>9</v>
@@ -89320,11 +89320,11 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>385</v>
+        <v>200</v>
       </c>
       <c r="N1112" t="n">
         <v>15000</v>
@@ -89400,20 +89400,20 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="N1113" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O1113" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P1113" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T1113" t="n">
         <v>15</v>
@@ -89484,7 +89484,7 @@
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="N1114" t="n">
         <v>13500</v>
@@ -89497,7 +89497,7 @@
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
@@ -89560,36 +89560,36 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="N1115" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O1115" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P1115" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>1222</v>
+        <v>900</v>
       </c>
       <c r="T1115" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1116">
@@ -89640,11 +89640,11 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="N1116" t="n">
         <v>22000</v>
@@ -89657,12 +89657,12 @@
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1116" t="n">
@@ -89715,16 +89715,16 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="N1117" t="n">
         <v>22000</v>
@@ -89742,7 +89742,7 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1117" t="n">
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1118" t="n">
         <v>9</v>
@@ -89795,41 +89795,41 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N1118" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O1118" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P1118" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>600</v>
+        <v>1222</v>
       </c>
       <c r="T1118" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1119">
@@ -89884,20 +89884,20 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="N1119" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O1119" t="n">
-        <v>157500</v>
+        <v>9000</v>
       </c>
       <c r="P1119" t="n">
-        <v>153750</v>
+        <v>9000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
@@ -89906,10 +89906,10 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>342</v>
+        <v>600</v>
       </c>
       <c r="T1119" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1120">
@@ -89964,20 +89964,20 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="N1120" t="n">
-        <v>5000</v>
+        <v>150000</v>
       </c>
       <c r="O1120" t="n">
-        <v>5000</v>
+        <v>157500</v>
       </c>
       <c r="P1120" t="n">
-        <v>5000</v>
+        <v>153750</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1120" t="inlineStr">
@@ -89986,10 +89986,10 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="T1120" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1121">
@@ -90040,24 +90040,24 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="N1121" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1121" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P1121" t="n">
-        <v>6556</v>
+        <v>5000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>437</v>
+        <v>333</v>
       </c>
       <c r="T1121" t="n">
         <v>15</v>
@@ -90124,20 +90124,20 @@
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="N1122" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1122" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1122" t="n">
-        <v>4000</v>
+        <v>6556</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>267</v>
+        <v>437</v>
       </c>
       <c r="T1122" t="n">
         <v>15</v>
@@ -90200,24 +90200,24 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N1123" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1123" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1123" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="T1123" t="n">
         <v>15</v>
@@ -90275,41 +90275,41 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="N1124" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="O1124" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="P1124" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>2083</v>
+        <v>333</v>
       </c>
       <c r="T1124" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E1125" t="n">
         <v>9</v>
@@ -90355,41 +90355,41 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="N1125" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="O1125" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="P1125" t="n">
-        <v>23000</v>
+        <v>50000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>1533</v>
+        <v>2083</v>
       </c>
       <c r="T1125" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1126">
@@ -90444,32 +90444,32 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N1126" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="O1126" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="P1126" t="n">
-        <v>28545</v>
+        <v>23000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>1586</v>
+        <v>1533</v>
       </c>
       <c r="T1126" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1127">
@@ -90520,36 +90520,36 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="N1127" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="O1127" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="P1127" t="n">
-        <v>23000</v>
+        <v>28545</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>1533</v>
+        <v>1586</v>
       </c>
       <c r="T1127" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1128">
@@ -90604,20 +90604,20 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N1128" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="O1128" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P1128" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
@@ -90626,10 +90626,10 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>1667</v>
+        <v>1533</v>
       </c>
       <c r="T1128" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1129">
@@ -90680,20 +90680,20 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N1129" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O1129" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P1129" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90706,7 +90706,7 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T1129" t="n">
         <v>18</v>
@@ -90760,33 +90760,33 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1130" t="n">
         <v>80</v>
       </c>
       <c r="N1130" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="O1130" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="P1130" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>1889</v>
+        <v>1444</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90835,41 +90835,41 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N1131" t="n">
-        <v>45000</v>
+        <v>34000</v>
       </c>
       <c r="O1131" t="n">
-        <v>48000</v>
+        <v>34000</v>
       </c>
       <c r="P1131" t="n">
-        <v>46800</v>
+        <v>34000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>1950</v>
+        <v>1889</v>
       </c>
       <c r="T1131" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1132">
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44522</v>
+        <v>44615</v>
       </c>
       <c r="E1132" t="n">
         <v>9</v>
@@ -90915,41 +90915,41 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N1132" t="n">
-        <v>9000</v>
+        <v>45000</v>
       </c>
       <c r="O1132" t="n">
-        <v>9000</v>
+        <v>48000</v>
       </c>
       <c r="P1132" t="n">
-        <v>9000</v>
+        <v>46800</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>600</v>
+        <v>1950</v>
       </c>
       <c r="T1132" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1133">
@@ -91004,20 +91004,20 @@
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1133" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O1133" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1133" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
@@ -91026,10 +91026,10 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>722</v>
+        <v>600</v>
       </c>
       <c r="T1133" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1134">
@@ -91080,24 +91080,24 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
         <v>200</v>
       </c>
       <c r="N1134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O1134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1134" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1134" t="inlineStr">
@@ -91106,10 +91106,10 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="T1134" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1135">
@@ -91155,41 +91155,41 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N1135" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="O1135" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="P1135" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>1458</v>
+        <v>533</v>
       </c>
       <c r="T1135" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1136">
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1136" t="n">
         <v>9</v>
@@ -91235,41 +91235,41 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N1136" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="O1136" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="P1136" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>667</v>
+        <v>1458</v>
       </c>
       <c r="T1136" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1137">
@@ -91324,20 +91324,20 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N1137" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="O1137" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="P1137" t="n">
-        <v>292000</v>
+        <v>10000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1137" t="inlineStr">
@@ -91346,10 +91346,10 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="T1137" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1138">
@@ -91404,20 +91404,20 @@
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="N1138" t="n">
-        <v>9000</v>
+        <v>292000</v>
       </c>
       <c r="O1138" t="n">
-        <v>10000</v>
+        <v>292000</v>
       </c>
       <c r="P1138" t="n">
-        <v>9500</v>
+        <v>292000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
@@ -91426,10 +91426,10 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="T1138" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1139">
@@ -91480,24 +91480,24 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N1139" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O1139" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1139" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1139" t="inlineStr">
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>800</v>
+        <v>633</v>
       </c>
       <c r="T1139" t="n">
         <v>15</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1140" t="n">
         <v>9</v>
@@ -91560,20 +91560,20 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="N1140" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O1140" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1140" t="n">
-        <v>19524</v>
+        <v>12000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>1302</v>
+        <v>800</v>
       </c>
       <c r="T1140" t="n">
         <v>15</v>
@@ -91640,36 +91640,36 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="N1141" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O1141" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P1141" t="n">
-        <v>25000</v>
+        <v>19524</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>1389</v>
+        <v>1302</v>
       </c>
       <c r="T1141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1142">
@@ -91724,32 +91724,32 @@
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N1142" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O1142" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P1142" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>1200</v>
+        <v>1389</v>
       </c>
       <c r="T1142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1143">
@@ -91800,24 +91800,24 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N1143" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O1143" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1143" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T1143" t="n">
         <v>15</v>
@@ -91880,36 +91880,36 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1144" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O1144" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P1144" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>1389</v>
+        <v>1000</v>
       </c>
       <c r="T1144" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1145">
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -91960,36 +91960,36 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N1145" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O1145" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="P1145" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>1300</v>
+        <v>1389</v>
       </c>
       <c r="T1145" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1146">
@@ -92044,20 +92044,20 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>445</v>
+        <v>255</v>
       </c>
       <c r="N1146" t="n">
-        <v>21600</v>
+        <v>19500</v>
       </c>
       <c r="O1146" t="n">
-        <v>22000</v>
+        <v>19500</v>
       </c>
       <c r="P1146" t="n">
-        <v>21829</v>
+        <v>19500</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
@@ -92066,10 +92066,10 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>1213</v>
+        <v>1300</v>
       </c>
       <c r="T1146" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -92120,24 +92120,24 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>270</v>
+        <v>445</v>
       </c>
       <c r="N1147" t="n">
-        <v>6000</v>
+        <v>21600</v>
       </c>
       <c r="O1147" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P1147" t="n">
-        <v>6556</v>
+        <v>21829</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1147" t="inlineStr">
@@ -92146,10 +92146,10 @@
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>437</v>
+        <v>1213</v>
       </c>
       <c r="T1147" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1148">
@@ -92204,20 +92204,20 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="N1148" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1148" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1148" t="n">
-        <v>5000</v>
+        <v>6556</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
@@ -92226,7 +92226,7 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>333</v>
+        <v>437</v>
       </c>
       <c r="T1148" t="n">
         <v>15</v>
@@ -92280,24 +92280,24 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1149" t="n">
         <v>100</v>
       </c>
       <c r="N1149" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O1149" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P1149" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T1149" t="n">
         <v>15</v>
@@ -92364,7 +92364,7 @@
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1150" t="n">
         <v>10000</v>
@@ -92377,7 +92377,7 @@
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
@@ -92386,10 +92386,10 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1150" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1151">
@@ -92435,41 +92435,41 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="N1151" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="O1151" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="P1151" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>2083</v>
+        <v>556</v>
       </c>
       <c r="T1151" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1152">
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1152" t="n">
         <v>9</v>
@@ -92515,41 +92515,41 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>420</v>
+        <v>5</v>
       </c>
       <c r="N1152" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="O1152" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="P1152" t="n">
-        <v>9476</v>
+        <v>50000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>632</v>
+        <v>2083</v>
       </c>
       <c r="T1152" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1153">
@@ -92595,41 +92595,41 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>40</v>
+        <v>420</v>
       </c>
       <c r="N1153" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O1153" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1153" t="n">
-        <v>20000</v>
+        <v>9476</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>1111</v>
+        <v>632</v>
       </c>
       <c r="T1153" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1154" t="n">
         <v>9</v>
@@ -92675,41 +92675,41 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="N1154" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1154" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1154" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="T1154" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1155">
@@ -92764,32 +92764,32 @@
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="N1155" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="O1155" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P1155" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>1333</v>
+        <v>1200</v>
       </c>
       <c r="T1155" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1156">
@@ -92840,36 +92840,36 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="N1156" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="O1156" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P1156" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T1156" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1157">
@@ -92924,7 +92924,7 @@
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="N1157" t="n">
         <v>18000</v>
@@ -92937,7 +92937,7 @@
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
@@ -93000,36 +93000,36 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N1158" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="O1158" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="P1158" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T1158" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1159">
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="N1159" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O1159" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="P1159" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>1333</v>
+        <v>1500</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1160" t="n">
         <v>9</v>
@@ -93160,36 +93160,36 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="N1160" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O1160" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P1160" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>533</v>
+        <v>1333</v>
       </c>
       <c r="T1160" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1161">
@@ -93244,32 +93244,32 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N1161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O1161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P1161" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>611</v>
+        <v>533</v>
       </c>
       <c r="T1161" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1162">
@@ -93324,29 +93324,29 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N1162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O1162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1162" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -93404,20 +93404,20 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N1163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1163" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
@@ -93426,10 +93426,10 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T1163" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1164">
@@ -93484,20 +93484,20 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N1164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1164" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1164" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
@@ -93506,10 +93506,10 @@
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="T1164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1165">
@@ -93560,24 +93560,24 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="N1165" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1165" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1165" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
@@ -93586,10 +93586,10 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="T1165" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1166">
@@ -93635,41 +93635,41 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N1166" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="O1166" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="P1166" t="n">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>1667</v>
+        <v>800</v>
       </c>
       <c r="T1166" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1167">
@@ -93715,7 +93715,7 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
@@ -93724,7 +93724,7 @@
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1167" t="n">
         <v>40000</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -93795,41 +93795,41 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="N1168" t="n">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="O1168" t="n">
-        <v>7000</v>
+        <v>40000</v>
       </c>
       <c r="P1168" t="n">
-        <v>6526</v>
+        <v>40000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>435</v>
+        <v>1667</v>
       </c>
       <c r="T1168" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1169">
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Especial amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N1169" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O1169" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P1169" t="n">
-        <v>8000</v>
+        <v>6526</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93906,7 +93906,7 @@
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>533</v>
+        <v>435</v>
       </c>
       <c r="T1169" t="n">
         <v>15</v>
@@ -93964,20 +93964,20 @@
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N1170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1170" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
@@ -93986,10 +93986,10 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="T1170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -94040,24 +94040,24 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Especial amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="N1171" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1171" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P1171" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
@@ -94066,10 +94066,10 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>1267</v>
+        <v>556</v>
       </c>
       <c r="T1171" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1172">
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="N1172" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1172" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P1172" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>1133</v>
+        <v>1267</v>
       </c>
       <c r="T1172" t="n">
         <v>15</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -94200,36 +94200,36 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N1173" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="O1173" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="P1173" t="n">
-        <v>40000</v>
+        <v>17000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>1667</v>
+        <v>1133</v>
       </c>
       <c r="T1173" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1174">
@@ -94284,32 +94284,32 @@
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N1174" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="O1174" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="P1174" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T1174" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1175">
@@ -94360,24 +94360,24 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N1175" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O1175" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P1175" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
@@ -94386,10 +94386,10 @@
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="T1175" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="N1176" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O1176" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P1176" t="n">
-        <v>11531</v>
+        <v>24000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94466,7 +94466,7 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>769</v>
+        <v>1600</v>
       </c>
       <c r="T1176" t="n">
         <v>15</v>
@@ -94524,20 +94524,20 @@
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="N1177" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1177" t="n">
         <v>12000</v>
       </c>
       <c r="P1177" t="n">
-        <v>12000</v>
+        <v>11531</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
-          <t>$/malla 15 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1177" t="inlineStr">
@@ -94546,7 +94546,7 @@
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="T1177" t="n">
         <v>15</v>
@@ -94595,41 +94595,41 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N1178" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O1178" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P1178" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 15 kilos</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T1178" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1179">
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1179" t="n">
         <v>9</v>
@@ -94675,38 +94675,38 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="N1179" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O1179" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P1179" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94764,16 +94764,16 @@
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="N1180" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1180" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1180" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N1181" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O1181" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P1181" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94866,7 +94866,7 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1182" t="n">
         <v>9</v>
@@ -94920,24 +94920,24 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="N1182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O1182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P1182" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
@@ -94946,10 +94946,10 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>1067</v>
+        <v>944</v>
       </c>
       <c r="T1182" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1183">
@@ -95004,20 +95004,20 @@
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="N1183" t="n">
         <v>16000</v>
       </c>
       <c r="O1183" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P1183" t="n">
-        <v>16385</v>
+        <v>16000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1183" t="inlineStr">
@@ -95026,10 +95026,10 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>910</v>
+        <v>1067</v>
       </c>
       <c r="T1183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1184">
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1184" t="n">
         <v>9</v>
@@ -95084,20 +95084,20 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="N1184" t="n">
-        <v>315000</v>
+        <v>16000</v>
       </c>
       <c r="O1184" t="n">
-        <v>315000</v>
+        <v>17000</v>
       </c>
       <c r="P1184" t="n">
-        <v>315000</v>
+        <v>16385</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
@@ -95106,10 +95106,10 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>700</v>
+        <v>910</v>
       </c>
       <c r="T1184" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1185">
@@ -95164,31 +95164,111 @@
         </is>
       </c>
       <c r="M1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>315000</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>315000</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>315000</v>
+      </c>
+      <c r="Q1185" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1185" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1185" t="n">
+        <v>700</v>
+      </c>
+      <c r="T1185" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1186" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1186" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1186" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1186" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1186" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1186" t="n">
         <v>285</v>
       </c>
-      <c r="N1185" t="n">
+      <c r="N1186" t="n">
         <v>7500</v>
       </c>
-      <c r="O1185" t="n">
+      <c r="O1186" t="n">
         <v>8000</v>
       </c>
-      <c r="P1185" t="n">
+      <c r="P1186" t="n">
         <v>7719</v>
       </c>
-      <c r="Q1185" t="inlineStr">
+      <c r="Q1186" t="inlineStr">
         <is>
           <t>$/malla 15 kilos</t>
         </is>
       </c>
-      <c r="R1185" t="inlineStr">
+      <c r="R1186" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1185" t="n">
+      <c r="S1186" t="n">
         <v>515</v>
       </c>
-      <c r="T1185" t="n">
+      <c r="T1186" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1212"/>
+  <dimension ref="A1:T1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1196" t="n">
         <v>9</v>
@@ -96044,32 +96044,32 @@
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N1196" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="O1196" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="P1196" t="n">
-        <v>6417</v>
+        <v>30000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>428</v>
+        <v>1667</v>
       </c>
       <c r="T1196" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1197">
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1197" t="n">
         <v>9</v>
@@ -96124,20 +96124,20 @@
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="N1197" t="n">
-        <v>150000</v>
+        <v>23000</v>
       </c>
       <c r="O1197" t="n">
-        <v>150000</v>
+        <v>23000</v>
       </c>
       <c r="P1197" t="n">
-        <v>150000</v>
+        <v>23000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
@@ -96146,10 +96146,10 @@
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>333</v>
+        <v>1278</v>
       </c>
       <c r="T1197" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1198">
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1198" t="n">
         <v>9</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N1198" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="O1198" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="P1198" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="T1198" t="n">
         <v>18</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1199" t="n">
         <v>9</v>
@@ -96280,24 +96280,24 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N1199" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="O1199" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="P1199" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1199" t="inlineStr">
@@ -96306,10 +96306,10 @@
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>333</v>
+        <v>1278</v>
       </c>
       <c r="T1199" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1200">
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1200" t="n">
         <v>9</v>
@@ -96355,41 +96355,41 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N1200" t="n">
-        <v>30000</v>
+        <v>540000</v>
       </c>
       <c r="O1200" t="n">
-        <v>30000</v>
+        <v>540000</v>
       </c>
       <c r="P1200" t="n">
-        <v>30000</v>
+        <v>540000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>1667</v>
+        <v>1200</v>
       </c>
       <c r="T1200" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1201">
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44515</v>
+        <v>44656</v>
       </c>
       <c r="E1201" t="n">
         <v>9</v>
@@ -96435,41 +96435,41 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N1201" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="O1201" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="P1201" t="n">
-        <v>50000</v>
+        <v>18000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>2083</v>
+        <v>1000</v>
       </c>
       <c r="T1201" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1202">
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44515</v>
+        <v>44656</v>
       </c>
       <c r="E1202" t="n">
         <v>9</v>
@@ -96515,41 +96515,41 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N1202" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="O1202" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="P1202" t="n">
-        <v>9000</v>
+        <v>50000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>600</v>
+        <v>2083</v>
       </c>
       <c r="T1202" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1203">
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44515</v>
+        <v>44432</v>
       </c>
       <c r="E1203" t="n">
         <v>9</v>
@@ -96595,41 +96595,41 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="N1203" t="n">
-        <v>35000</v>
+        <v>6000</v>
       </c>
       <c r="O1203" t="n">
-        <v>35000</v>
+        <v>7000</v>
       </c>
       <c r="P1203" t="n">
-        <v>35000</v>
+        <v>6417</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>1458</v>
+        <v>428</v>
       </c>
       <c r="T1203" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1204">
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44508</v>
+        <v>44432</v>
       </c>
       <c r="E1204" t="n">
         <v>9</v>
@@ -96684,20 +96684,20 @@
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="N1204" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="O1204" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="P1204" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1204" t="inlineStr">
@@ -96706,10 +96706,10 @@
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>600</v>
+        <v>333</v>
       </c>
       <c r="T1204" t="n">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1205">
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44508</v>
+        <v>44432</v>
       </c>
       <c r="E1205" t="n">
         <v>9</v>
@@ -96764,20 +96764,20 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="N1205" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="O1205" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="P1205" t="n">
-        <v>170000</v>
+        <v>8000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1205" t="inlineStr">
@@ -96786,10 +96786,10 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="T1205" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1206">
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44508</v>
+        <v>44432</v>
       </c>
       <c r="E1206" t="n">
         <v>9</v>
@@ -96840,36 +96840,36 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N1206" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O1206" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P1206" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T1206" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44508</v>
+        <v>44432</v>
       </c>
       <c r="E1207" t="n">
         <v>9</v>
@@ -96915,41 +96915,41 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="N1207" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="O1207" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="P1207" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>500</v>
+        <v>1667</v>
       </c>
       <c r="T1207" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="E1208" t="n">
         <v>9</v>
@@ -96995,7 +96995,7 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
@@ -97004,32 +97004,32 @@
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N1208" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="O1208" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P1208" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>2222</v>
+        <v>2083</v>
       </c>
       <c r="T1208" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1209">
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44592</v>
+        <v>44515</v>
       </c>
       <c r="E1209" t="n">
         <v>9</v>
@@ -97084,20 +97084,20 @@
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="N1209" t="n">
-        <v>450000</v>
+        <v>9000</v>
       </c>
       <c r="O1209" t="n">
-        <v>450000</v>
+        <v>9000</v>
       </c>
       <c r="P1209" t="n">
-        <v>450000</v>
+        <v>9000</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="R1209" t="inlineStr">
@@ -97106,10 +97106,10 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T1209" t="n">
-        <v>450</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1210">
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44592</v>
+        <v>44515</v>
       </c>
       <c r="E1210" t="n">
         <v>9</v>
@@ -97155,41 +97155,41 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="N1210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="O1210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P1210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>1278</v>
+        <v>1458</v>
       </c>
       <c r="T1210" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1211">
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44592</v>
+        <v>44508</v>
       </c>
       <c r="E1211" t="n">
         <v>9</v>
@@ -97240,20 +97240,20 @@
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N1211" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O1211" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P1211" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97262,11 +97262,11 @@
       </c>
       <c r="R1211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T1211" t="n">
         <v>15</v>
@@ -97287,68 +97287,628 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1212" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>170000</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>170000</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>170000</v>
+      </c>
+      <c r="Q1212" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1212" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1212" t="n">
+        <v>378</v>
+      </c>
+      <c r="T1212" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1213" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1213" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1213" t="n">
+        <v>380</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1213" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1213" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1213" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1213" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1214" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1214" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1214" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1214" t="n">
+        <v>210</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q1214" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1214" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1214" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1214" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1215" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1215" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1215" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1215" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L1215" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1215" t="n">
+        <v>55</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>40000</v>
+      </c>
+      <c r="Q1215" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1215" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="S1215" t="n">
+        <v>2222</v>
+      </c>
+      <c r="T1215" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1216" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="E1212" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1212" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1212" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1212" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1212" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1212" t="inlineStr">
+      <c r="E1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1216" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1216" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1216" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1216" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1216" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>450000</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>450000</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>450000</v>
+      </c>
+      <c r="Q1216" t="inlineStr">
+        <is>
+          <t>$/bins (450 kilos)</t>
+        </is>
+      </c>
+      <c r="R1216" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T1216" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1217" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1217" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1217" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1217" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1217" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1217" t="n">
+        <v>380</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Q1217" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1217" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1217" t="n">
+        <v>1278</v>
+      </c>
+      <c r="T1217" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1218" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1218" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1218" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1218" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1218" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1218" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q1218" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1218" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1218" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T1218" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1219" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1219" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1219" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1219" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1219" t="inlineStr">
         <is>
           <t>Sutil De Gase</t>
         </is>
       </c>
-      <c r="L1212" t="inlineStr">
+      <c r="L1219" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1212" t="n">
+      <c r="M1219" t="n">
         <v>45</v>
       </c>
-      <c r="N1212" t="n">
+      <c r="N1219" t="n">
         <v>45000</v>
       </c>
-      <c r="O1212" t="n">
+      <c r="O1219" t="n">
         <v>50000</v>
       </c>
-      <c r="P1212" t="n">
+      <c r="P1219" t="n">
         <v>47222</v>
       </c>
-      <c r="Q1212" t="inlineStr">
+      <c r="Q1219" t="inlineStr">
         <is>
           <t>$/caja 24 kilos</t>
         </is>
       </c>
-      <c r="R1212" t="inlineStr">
+      <c r="R1219" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S1212" t="n">
+      <c r="S1219" t="n">
         <v>1968</v>
       </c>
-      <c r="T1212" t="n">
+      <c r="T1219" t="n">
         <v>24</v>
       </c>
     </row>
